--- a/src/attributions/attributions_saliency_traj_334.xlsx
+++ b/src/attributions/attributions_saliency_traj_334.xlsx
@@ -1004,2847 +1004,2847 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.002909992123022676</v>
+        <v>2.341810613870621e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001551540801301599</v>
+        <v>0.03499239310622215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003288528532721102</v>
+        <v>0.00350286578759551</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001010019681416452</v>
+        <v>0.0230090506374836</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000400622608140111</v>
+        <v>0.008925957605242729</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000348641537129879</v>
+        <v>0.006012598983943462</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0006816803943365812</v>
+        <v>0.001151922973804176</v>
       </c>
       <c r="H2" t="n">
-        <v>9.732319449540228e-05</v>
+        <v>0.0003377640387043357</v>
       </c>
       <c r="I2" t="n">
-        <v>2.147695340681821e-06</v>
+        <v>3.456952981650829e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>0.002706806175410748</v>
+        <v>0.0008665836649015546</v>
       </c>
       <c r="K2" t="n">
-        <v>0.000400406337575987</v>
+        <v>0.02816659025847912</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0009826417081058025</v>
+        <v>0.0005777219776064157</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006833876832388341</v>
+        <v>0.01501764636486769</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0003774230135604739</v>
+        <v>0.007022694684565067</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0005353251472115517</v>
+        <v>0.006089435890316963</v>
       </c>
       <c r="P2" t="n">
-        <v>0.001225417363457382</v>
+        <v>0.002787757897749543</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.0001418804313289002</v>
+        <v>0.00556863471865654</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0001901454816106707</v>
+        <v>0.002981290454044938</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0001437884347978979</v>
+        <v>5.725125083699822e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0001101122616091743</v>
+        <v>0.005077056121081114</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0002172451204387471</v>
+        <v>0.001729178242385387</v>
       </c>
       <c r="V2" t="n">
-        <v>0.0002198799775214866</v>
+        <v>0.0008205408230423927</v>
       </c>
       <c r="W2" t="n">
-        <v>7.33745691832155e-05</v>
+        <v>0.002578513463959098</v>
       </c>
       <c r="X2" t="n">
-        <v>6.359019607771188e-05</v>
+        <v>0.005666118115186691</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0001894615270430222</v>
+        <v>0.00582405086606741</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0001196941884700209</v>
+        <v>0.001106647774577141</v>
       </c>
       <c r="AA2" t="n">
-        <v>4.245379022904672e-05</v>
+        <v>0.001594908651895821</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.0003245777916163206</v>
+        <v>0.005187574308365583</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001048709673341364</v>
+        <v>0.004225984681397676</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.0007217713864520192</v>
+        <v>0.0003158131148666143</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.731642209459096e-05</v>
+        <v>0.0009602362988516688</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0004538814537227154</v>
+        <v>0.003168180817738175</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0002269893739139661</v>
+        <v>0.002853598911315203</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.83530844678171e-05</v>
+        <v>4.094245377928019e-05</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0003008334315381944</v>
+        <v>0.001320023671723902</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.000174911692738533</v>
+        <v>0.001559932949021459</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.000564775662496686</v>
+        <v>0.001238548429682851</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.0004767501668538898</v>
+        <v>0.004114249255508184</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0003043739125132561</v>
+        <v>0.0006626555696129799</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0004948849091306329</v>
+        <v>0.0009105299832299352</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0001323346368735656</v>
+        <v>0.0005178399151191115</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.489187555620447e-05</v>
+        <v>0.003472315846011043</v>
       </c>
       <c r="AQ2" t="n">
-        <v>3.469811781542376e-05</v>
+        <v>0.001055970555171371</v>
       </c>
       <c r="AR2" t="n">
-        <v>2.913283424277324e-05</v>
+        <v>0.0009765505674295127</v>
       </c>
       <c r="AS2" t="n">
-        <v>3.536872463882901e-05</v>
+        <v>0.002564979251474142</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.001196009223349392</v>
+        <v>0.003898925613611937</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0003913318505510688</v>
+        <v>0.02145947888493538</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.0005030493484809995</v>
+        <v>9.227421833202243e-05</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0001421503984602168</v>
+        <v>0.01334068737924099</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0004317295388318598</v>
+        <v>0.003122083842754364</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0007317370036616921</v>
+        <v>0.0004555494524538517</v>
       </c>
       <c r="AZ2" t="n">
-        <v>0.0003519545134622604</v>
+        <v>0.005840055644512177</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.0004949863068759441</v>
+        <v>0.003757879137992859</v>
       </c>
       <c r="BB2" t="n">
-        <v>9.804034925764427e-05</v>
+        <v>0.002079370664432645</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.0007204507128335536</v>
+        <v>5.355721805244684e-05</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.000488748075440526</v>
+        <v>0.007216079626232386</v>
       </c>
       <c r="BE2" t="n">
-        <v>4.493707820074633e-05</v>
+        <v>0.004260080866515636</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.513870979077183e-05</v>
+        <v>0.0002628124784678221</v>
       </c>
       <c r="BG2" t="n">
-        <v>3.96485484088771e-05</v>
+        <v>0.00783015601336956</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0004224271397106349</v>
+        <v>0.0007518798811361194</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.000590250885579735</v>
+        <v>0.003702030749991536</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.001072626910172403</v>
+        <v>0.00334909139201045</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.0001768807705957443</v>
+        <v>0.002539355074986815</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0003496668068692088</v>
+        <v>0.00507673341780901</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.0001397853629896417</v>
+        <v>0.0005645662313327193</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0002470686740707606</v>
+        <v>0.001138536375947297</v>
       </c>
       <c r="BO2" t="n">
-        <v>6.471214146586135e-05</v>
+        <v>0.0004899894120171666</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.0003051864332519472</v>
+        <v>0.00264056259766221</v>
       </c>
       <c r="BQ2" t="n">
-        <v>3.331355401314795e-06</v>
+        <v>0.002570886397734284</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.923109994095284e-05</v>
+        <v>0.00187645317055285</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.000242400128627196</v>
+        <v>0.001281268894672394</v>
       </c>
       <c r="BT2" t="n">
-        <v>7.917107723187655e-05</v>
+        <v>0.001063962001353502</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.001175273559056222</v>
+        <v>0.002906845416873693</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.0001368580415146425</v>
+        <v>0.01189185492694378</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0002114031667588279</v>
+        <v>0.002237197477370501</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.0008836499764584005</v>
+        <v>0.00455652829259634</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0001931829465320334</v>
+        <v>0.0007818071753717959</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001128790536313318</v>
+        <v>0.002764341654255986</v>
       </c>
       <c r="CA2" t="n">
-        <v>9.879823483061045e-05</v>
+        <v>2.049264730885625e-05</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0002229695674031973</v>
+        <v>0.002942812396213412</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0002306255046278238</v>
+        <v>0.001799306366592646</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0005474121426232159</v>
+        <v>0.001057995716109872</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0006333151832222939</v>
+        <v>0.004801428876817226</v>
       </c>
       <c r="CF2" t="n">
-        <v>2.356149343540892e-05</v>
+        <v>0.0007826173678040504</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0002616167475935072</v>
+        <v>0.003236125921830535</v>
       </c>
       <c r="CH2" t="n">
-        <v>3.822617145488039e-05</v>
+        <v>0.001449619303457439</v>
       </c>
       <c r="CI2" t="n">
-        <v>3.236571956222178e-06</v>
+        <v>0.001218828023411334</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3.670791556942277e-05</v>
+        <v>0.001437288825400174</v>
       </c>
       <c r="CK2" t="n">
-        <v>9.520014282315969e-05</v>
+        <v>0.000266631948761642</v>
       </c>
       <c r="CL2" t="n">
-        <v>4.752813038066961e-05</v>
+        <v>0.0005148930358700454</v>
       </c>
       <c r="CM2" t="n">
-        <v>7.066231046337634e-05</v>
+        <v>0.004769615828990936</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0001014936133287847</v>
+        <v>0.0009755566716194153</v>
       </c>
       <c r="CO2" t="n">
-        <v>6.040062726242468e-05</v>
+        <v>0.0005404531839303672</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0002423786645522341</v>
+        <v>0.003957973793148994</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0007770783849991858</v>
+        <v>0.005745569709688425</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.0007164967246353626</v>
+        <v>0.004070258233696222</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0004189772589597851</v>
+        <v>0.0028067696839571</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0002091312053380534</v>
+        <v>0.009378658607602119</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0001259084092453122</v>
+        <v>0.002210773061960936</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0004712002410087734</v>
+        <v>0.0005640294984914362</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.0006982531049288809</v>
+        <v>0.005032023880630732</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0001174848948721774</v>
+        <v>0.00128482049331069</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.0002083509898511693</v>
+        <v>0.004466217011213303</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0002479524409864098</v>
+        <v>0.001198186306282878</v>
       </c>
       <c r="DA2" t="n">
-        <v>2.962348116852809e-05</v>
+        <v>0.002779456786811352</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.00012946457718499</v>
+        <v>0.0009271397138945758</v>
       </c>
       <c r="DC2" t="n">
-        <v>8.741606870898977e-05</v>
+        <v>8.30658245831728e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>7.289391214726493e-05</v>
+        <v>0.0001771207898855209</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0003346730954945087</v>
+        <v>0.001364619005471468</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.001412814715877175</v>
+        <v>0.009023024700582027</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0007879800396040082</v>
+        <v>0.0002830817538779229</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.0001094377730623819</v>
+        <v>0.01420744322240353</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.000840522872749716</v>
+        <v>0.004222793038934469</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.000623376399744302</v>
+        <v>0.0003910726809408516</v>
       </c>
       <c r="DK2" t="n">
-        <v>0.0001587576989550143</v>
+        <v>0.002357754157856107</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0003315883222967386</v>
+        <v>0.00413748063147068</v>
       </c>
       <c r="DM2" t="n">
-        <v>4.510149301495403e-05</v>
+        <v>0.001955676358193159</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.0002105455787386745</v>
+        <v>0.003067679237574339</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.0007179580861702561</v>
+        <v>0.003369262907654047</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.0002694955910556018</v>
+        <v>0.004490737337619066</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.0001146041540778242</v>
+        <v>0.00213446537964046</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0001370103418594226</v>
+        <v>0.002394437789916992</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0004804078780580312</v>
+        <v>0.001337074907496572</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.0003582385834306479</v>
+        <v>0.0003936943248845637</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0001094365434255451</v>
+        <v>0.0001723594614304602</v>
       </c>
       <c r="DV2" t="n">
-        <v>7.693737279623747e-05</v>
+        <v>0.0007736487314105034</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0001978883083211258</v>
+        <v>9.497429709881544e-05</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0004399868194013834</v>
+        <v>0.0007630360778421164</v>
       </c>
       <c r="DY2" t="n">
-        <v>4.458193507161923e-05</v>
+        <v>0.003249796340242028</v>
       </c>
       <c r="DZ2" t="n">
-        <v>7.520263898186386e-05</v>
+        <v>0.001516721677035093</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0006275206687860191</v>
+        <v>0.002911905758082867</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.844823782448657e-05</v>
+        <v>0.002530169207602739</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0002138473064405844</v>
+        <v>0.001954095205292106</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0002006364811677486</v>
+        <v>0.0004084235697519034</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0002675387368071824</v>
+        <v>0.0004603852285072207</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0008477714727632701</v>
+        <v>0.001116588478907943</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0009888617787510157</v>
+        <v>0.004478190094232559</v>
       </c>
       <c r="EH2" t="n">
-        <v>2.815734842442907e-05</v>
+        <v>0.001130701624788344</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.0002965879684779793</v>
+        <v>0.007152456790208817</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0001052120642270893</v>
+        <v>0.003801153972744942</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0001370909303659573</v>
+        <v>0.002973789349198341</v>
       </c>
       <c r="EL2" t="n">
-        <v>7.675001688767225e-05</v>
+        <v>0.001584701472893357</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.000163481425261125</v>
+        <v>0.001569560030475259</v>
       </c>
       <c r="EN2" t="n">
-        <v>4.969115980202332e-05</v>
+        <v>0.000607463822234422</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0001791303075151518</v>
+        <v>0.001390978344716132</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0008438096265308559</v>
+        <v>0.003945158794522285</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0003298302763141692</v>
+        <v>0.002904789056628942</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0004735628317575902</v>
+        <v>0.001702213776297867</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0003406050382182002</v>
+        <v>0.001937142806127667</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0002745534002315253</v>
+        <v>0.005966497119516134</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0001924761745613068</v>
+        <v>0.0007344472105614841</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0002551502839196473</v>
+        <v>0.002656307071447372</v>
       </c>
       <c r="EW2" t="n">
-        <v>5.563964077737182e-05</v>
+        <v>0.001526055275462568</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0004967018030583858</v>
+        <v>4.378202720545232e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.0005162321031093597</v>
+        <v>0.005214080680161715</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0001862258068285882</v>
+        <v>0.0002012468612520024</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0002961725404020399</v>
+        <v>0.003893827321007848</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.0001954995095729828</v>
+        <v>0.001216028584167361</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.569868800288532e-05</v>
+        <v>0.00272205239161849</v>
       </c>
       <c r="FD2" t="n">
-        <v>7.894633745308965e-05</v>
+        <v>0.001172640710137784</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0001394047285430133</v>
+        <v>0.0001107965363189578</v>
       </c>
       <c r="FF2" t="n">
-        <v>2.046102963504381e-05</v>
+        <v>0.0004105645348317921</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0006434916285797954</v>
+        <v>0.0005334732122719288</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0002667911467142403</v>
+        <v>0.001754774712026119</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0001490045397076756</v>
+        <v>0.0005976048996672034</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0007026318926364183</v>
+        <v>0.003942473791539669</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0002763555967248976</v>
+        <v>0.0009737382060848176</v>
       </c>
       <c r="FL2" t="n">
-        <v>6.027008566888981e-05</v>
+        <v>0.001756684156134725</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0002509099722374231</v>
+        <v>0.003237124532461166</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0003586060483939946</v>
+        <v>0.002478699898347259</v>
       </c>
       <c r="FO2" t="n">
-        <v>5.109873745823279e-05</v>
+        <v>0.003418728243559599</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.0003603892109822482</v>
+        <v>0.0002987718908116221</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0006957044242881238</v>
+        <v>0.001667162403464317</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.0003501814207993448</v>
+        <v>0.002157350070774555</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0005908770835958421</v>
+        <v>0.0002285319205839187</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0002520183334127069</v>
+        <v>0.002674331655725837</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.0002954389783553779</v>
+        <v>0.0009200565982609987</v>
       </c>
       <c r="FV2" t="n">
-        <v>2.079566729662474e-05</v>
+        <v>0.002775721717625856</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0003976660955231637</v>
+        <v>0.003216627286747098</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0001245770981768146</v>
+        <v>0.002533925930038095</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0003793344658333808</v>
+        <v>0.002157902577891946</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.0007327203056775033</v>
+        <v>0.002245191484689713</v>
       </c>
       <c r="GA2" t="n">
-        <v>0.0004038545594085008</v>
+        <v>0.0007457621395587921</v>
       </c>
       <c r="GB2" t="n">
-        <v>2.106129977619275e-05</v>
+        <v>0.0005887830047868192</v>
       </c>
       <c r="GC2" t="n">
-        <v>5.609948129858822e-05</v>
+        <v>0.005728909745812416</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0001197429082822055</v>
+        <v>0.00280745979398489</v>
       </c>
       <c r="GE2" t="n">
-        <v>6.015996768837795e-05</v>
+        <v>0.005830236244946718</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0001850157423177734</v>
+        <v>7.549941074103117e-05</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0002384136460023001</v>
+        <v>0.0009075701818801463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7.373128028120846e-05</v>
+        <v>0.3762063384056091</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0007109104772098362</v>
+        <v>0.1523477584123611</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001045719691319391</v>
+        <v>0.4456992149353027</v>
       </c>
       <c r="D3" t="n">
-        <v>4.21385484514758e-05</v>
+        <v>0.05339531600475311</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000192018662346527</v>
+        <v>0.1161372736096382</v>
       </c>
       <c r="F3" t="n">
-        <v>7.573478069389239e-05</v>
+        <v>0.09392644464969635</v>
       </c>
       <c r="G3" t="n">
-        <v>4.98964473081287e-05</v>
+        <v>0.2671577334403992</v>
       </c>
       <c r="H3" t="n">
-        <v>7.369243394350633e-05</v>
+        <v>0.01708373986184597</v>
       </c>
       <c r="I3" t="n">
-        <v>8.875487765180878e-06</v>
+        <v>0.1039918214082718</v>
       </c>
       <c r="J3" t="n">
-        <v>5.765309106209315e-05</v>
+        <v>0.1025238111615181</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0006411616341210902</v>
+        <v>0.06450726836919785</v>
       </c>
       <c r="L3" t="n">
-        <v>6.675803160760552e-05</v>
+        <v>0.372563898563385</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0001074757528840564</v>
+        <v>0.1360463947057724</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0002414963382761925</v>
+        <v>0.05035097151994705</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0001277787087019533</v>
+        <v>0.06676137447357178</v>
       </c>
       <c r="P3" t="n">
-        <v>7.260499114636332e-05</v>
+        <v>0.2082677483558655</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.477544957306236e-05</v>
+        <v>0.03398185968399048</v>
       </c>
       <c r="R3" t="n">
-        <v>7.59989234211389e-06</v>
+        <v>0.1294408291578293</v>
       </c>
       <c r="S3" t="n">
-        <v>8.94221830094466e-06</v>
+        <v>0.1129321753978729</v>
       </c>
       <c r="T3" t="n">
-        <v>4.331587115302682e-05</v>
+        <v>0.03351964801549911</v>
       </c>
       <c r="U3" t="n">
-        <v>5.686321674147621e-05</v>
+        <v>0.01301057823002338</v>
       </c>
       <c r="V3" t="n">
-        <v>0.0001058291454683058</v>
+        <v>0.09435350447893143</v>
       </c>
       <c r="W3" t="n">
-        <v>2.103097722283565e-05</v>
+        <v>0.09638654440641403</v>
       </c>
       <c r="X3" t="n">
-        <v>3.363608266226947e-05</v>
+        <v>0.0456879623234272</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.27571163122775e-05</v>
+        <v>0.0007467214018106461</v>
       </c>
       <c r="Z3" t="n">
-        <v>2.556648723839317e-06</v>
+        <v>0.1046696528792381</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.732507007545792e-05</v>
+        <v>0.06290864199399948</v>
       </c>
       <c r="AB3" t="n">
-        <v>5.089956539450213e-05</v>
+        <v>0.06295470148324966</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.0001329731458099559</v>
+        <v>0.08177100121974945</v>
       </c>
       <c r="AD3" t="n">
-        <v>5.957607208983973e-05</v>
+        <v>0.02268220484256744</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.912021616590209e-05</v>
+        <v>0.0007211565971374512</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.677186967048328e-05</v>
+        <v>0.1211233586072922</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.546215495793149e-05</v>
+        <v>0.006333883851766586</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.911603693675715e-06</v>
+        <v>0.03897169977426529</v>
       </c>
       <c r="AI3" t="n">
-        <v>4.687385080615059e-05</v>
+        <v>0.02914624661207199</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3.799067781073973e-05</v>
+        <v>0.03775694593787193</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.931485480279662e-05</v>
+        <v>0.02768127992749214</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.0002129594649886712</v>
+        <v>0.005091607570648193</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.000102395199064631</v>
+        <v>0.01266189571470022</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.9360146325198e-05</v>
+        <v>0.07477647811174393</v>
       </c>
       <c r="AO3" t="n">
-        <v>6.147918611532077e-05</v>
+        <v>0.06888219714164734</v>
       </c>
       <c r="AP3" t="n">
-        <v>5.143841553945094e-05</v>
+        <v>0.01622950285673141</v>
       </c>
       <c r="AQ3" t="n">
-        <v>3.926119825337082e-05</v>
+        <v>0.06782852113246918</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.056532295886427e-05</v>
+        <v>0.09181337058544159</v>
       </c>
       <c r="AS3" t="n">
-        <v>4.281253859517165e-05</v>
+        <v>0.03419870510697365</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.0001265794853679836</v>
+        <v>0.2379221171140671</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.0003163545916322619</v>
+        <v>0.1676720976829529</v>
       </c>
       <c r="AV3" t="n">
-        <v>6.544618372572586e-06</v>
+        <v>0.3807923793792725</v>
       </c>
       <c r="AW3" t="n">
-        <v>8.293701830552891e-05</v>
+        <v>0.01845467090606689</v>
       </c>
       <c r="AX3" t="n">
-        <v>5.069216786068864e-05</v>
+        <v>0.5131241083145142</v>
       </c>
       <c r="AY3" t="n">
-        <v>6.502433825517073e-05</v>
+        <v>0.1099772900342941</v>
       </c>
       <c r="AZ3" t="n">
-        <v>8.529813203494996e-05</v>
+        <v>0.253631979227066</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.0001138299703598022</v>
+        <v>0.2319992929697037</v>
       </c>
       <c r="BB3" t="n">
-        <v>4.942229861626402e-05</v>
+        <v>0.1497056931257248</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0001761105813784525</v>
+        <v>0.2219114452600479</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0001681234280113131</v>
+        <v>0.00611460953950882</v>
       </c>
       <c r="BE3" t="n">
-        <v>2.220753049186897e-05</v>
+        <v>0.0007892847061157227</v>
       </c>
       <c r="BF3" t="n">
-        <v>3.338128590257838e-05</v>
+        <v>0.2090841978788376</v>
       </c>
       <c r="BG3" t="n">
-        <v>2.499157744750846e-05</v>
+        <v>0.09875372052192688</v>
       </c>
       <c r="BH3" t="n">
-        <v>7.392677071038634e-05</v>
+        <v>0.1864782869815826</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.0001025947858579457</v>
+        <v>0.05669611692428589</v>
       </c>
       <c r="BJ3" t="n">
-        <v>6.221207149792463e-05</v>
+        <v>0.01143088936805725</v>
       </c>
       <c r="BK3" t="n">
-        <v>8.903676643967628e-05</v>
+        <v>0.01365166343748569</v>
       </c>
       <c r="BL3" t="n">
-        <v>5.129543569637462e-05</v>
+        <v>0.1080433800816536</v>
       </c>
       <c r="BM3" t="n">
-        <v>7.331449523917399e-06</v>
+        <v>0.1456301063299179</v>
       </c>
       <c r="BN3" t="n">
-        <v>6.4977073634509e-05</v>
+        <v>0.04501613229513168</v>
       </c>
       <c r="BO3" t="n">
-        <v>3.525166539475322e-05</v>
+        <v>0.07911130040884018</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.0001344086922472343</v>
+        <v>0.0539766363799572</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0001691188954282552</v>
+        <v>0.08952038735151291</v>
       </c>
       <c r="BR3" t="n">
-        <v>6.350022158585489e-05</v>
+        <v>0.2116063386201859</v>
       </c>
       <c r="BS3" t="n">
-        <v>1.568781044625212e-05</v>
+        <v>0.1277921795845032</v>
       </c>
       <c r="BT3" t="n">
-        <v>2.822600254148711e-05</v>
+        <v>0.1904345452785492</v>
       </c>
       <c r="BU3" t="n">
-        <v>8.184782200260088e-05</v>
+        <v>0.1256178319454193</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0002209345693700016</v>
+        <v>0.1482463777065277</v>
       </c>
       <c r="BW3" t="n">
-        <v>7.973159881657921e-06</v>
+        <v>0.2068023979663849</v>
       </c>
       <c r="BX3" t="n">
-        <v>2.886567381210625e-05</v>
+        <v>0.0378769114613533</v>
       </c>
       <c r="BY3" t="n">
-        <v>4.930123395752162e-05</v>
+        <v>0.2635260224342346</v>
       </c>
       <c r="BZ3" t="n">
-        <v>8.432379399891943e-05</v>
+        <v>0.2145286649465561</v>
       </c>
       <c r="CA3" t="n">
-        <v>7.027045649010688e-05</v>
+        <v>0.05954504013061523</v>
       </c>
       <c r="CB3" t="n">
-        <v>3.92889887734782e-07</v>
+        <v>0.01191509887576103</v>
       </c>
       <c r="CC3" t="n">
-        <v>1.381818765366916e-05</v>
+        <v>0.02441299706697464</v>
       </c>
       <c r="CD3" t="n">
-        <v>2.777301779133268e-05</v>
+        <v>0.06956469267606735</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.0001658614346524701</v>
+        <v>0.08672112226486206</v>
       </c>
       <c r="CF3" t="n">
-        <v>5.800334474770352e-05</v>
+        <v>0.03696941584348679</v>
       </c>
       <c r="CG3" t="n">
-        <v>4.218891990603879e-05</v>
+        <v>0.06298027187585831</v>
       </c>
       <c r="CH3" t="n">
-        <v>5.407271964941174e-05</v>
+        <v>0.0240973737090826</v>
       </c>
       <c r="CI3" t="n">
-        <v>3.821716381935403e-05</v>
+        <v>0.02611097134649754</v>
       </c>
       <c r="CJ3" t="n">
-        <v>4.4745254854206e-05</v>
+        <v>0.05477939546108246</v>
       </c>
       <c r="CK3" t="n">
-        <v>2.251729529234581e-05</v>
+        <v>0.03001148626208305</v>
       </c>
       <c r="CL3" t="n">
-        <v>1.256295399798546e-05</v>
+        <v>0.04014743492007256</v>
       </c>
       <c r="CM3" t="n">
-        <v>6.565426247107098e-06</v>
+        <v>0.1283020824193954</v>
       </c>
       <c r="CN3" t="n">
-        <v>5.34156133653596e-05</v>
+        <v>0.02814726531505585</v>
       </c>
       <c r="CO3" t="n">
-        <v>2.001105713134166e-05</v>
+        <v>0.04987601190805435</v>
       </c>
       <c r="CP3" t="n">
-        <v>6.902211680426262e-06</v>
+        <v>0.2064740806818008</v>
       </c>
       <c r="CQ3" t="n">
-        <v>2.204012889706064e-05</v>
+        <v>0.4227727651596069</v>
       </c>
       <c r="CR3" t="n">
-        <v>8.600090950494632e-06</v>
+        <v>0.01385780796408653</v>
       </c>
       <c r="CS3" t="n">
-        <v>8.547387551516294e-05</v>
+        <v>0.05645442754030228</v>
       </c>
       <c r="CT3" t="n">
-        <v>6.541996754094725e-06</v>
+        <v>0.00502402801066637</v>
       </c>
       <c r="CU3" t="n">
-        <v>6.551597471116111e-05</v>
+        <v>0.06319369375705719</v>
       </c>
       <c r="CV3" t="n">
-        <v>2.169597792089917e-05</v>
+        <v>0.02722303196787834</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.0001519811921752989</v>
+        <v>0.1157102361321449</v>
       </c>
       <c r="CX3" t="n">
-        <v>6.384879816323519e-05</v>
+        <v>0.0374845564365387</v>
       </c>
       <c r="CY3" t="n">
-        <v>1.219056230183924e-05</v>
+        <v>0.05224917083978653</v>
       </c>
       <c r="CZ3" t="n">
-        <v>3.602092328947037e-05</v>
+        <v>0.02466215007007122</v>
       </c>
       <c r="DA3" t="n">
-        <v>2.314481753273867e-05</v>
+        <v>0.02827360667288303</v>
       </c>
       <c r="DB3" t="n">
-        <v>4.330227966420352e-05</v>
+        <v>0.05228615552186966</v>
       </c>
       <c r="DC3" t="n">
-        <v>1.299312862101942e-05</v>
+        <v>0.0503368191421032</v>
       </c>
       <c r="DD3" t="n">
-        <v>6.070359631848987e-06</v>
+        <v>0.01309169270098209</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0001999429223360494</v>
+        <v>0.0471593514084816</v>
       </c>
       <c r="DF3" t="n">
-        <v>6.169175321701914e-05</v>
+        <v>0.08499395847320557</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.0001692866208031774</v>
+        <v>0.1512821614742279</v>
       </c>
       <c r="DH3" t="n">
-        <v>5.65615737286862e-05</v>
+        <v>0.3929121494293213</v>
       </c>
       <c r="DI3" t="n">
-        <v>3.031544474652037e-05</v>
+        <v>0.3250589668750763</v>
       </c>
       <c r="DJ3" t="n">
-        <v>1.654811239859555e-05</v>
+        <v>0.03738652169704437</v>
       </c>
       <c r="DK3" t="n">
-        <v>2.769947604974732e-05</v>
+        <v>0.05779564380645752</v>
       </c>
       <c r="DL3" t="n">
-        <v>6.062591273803264e-05</v>
+        <v>0.186270073056221</v>
       </c>
       <c r="DM3" t="n">
-        <v>6.022847446729429e-05</v>
+        <v>0.09824785590171814</v>
       </c>
       <c r="DN3" t="n">
-        <v>1.486318524257513e-05</v>
+        <v>0.1339868605136871</v>
       </c>
       <c r="DO3" t="n">
-        <v>1.79753296833951e-05</v>
+        <v>0.2193532288074493</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0001388341188430786</v>
+        <v>0.01904547773301601</v>
       </c>
       <c r="DQ3" t="n">
-        <v>7.413722414639778e-06</v>
+        <v>0.03491316735744476</v>
       </c>
       <c r="DR3" t="n">
-        <v>5.539856283576228e-05</v>
+        <v>0.1305396109819412</v>
       </c>
       <c r="DS3" t="n">
-        <v>6.520432361867279e-05</v>
+        <v>0.105879932641983</v>
       </c>
       <c r="DT3" t="n">
-        <v>2.242205300717615e-05</v>
+        <v>0.01462265662848949</v>
       </c>
       <c r="DU3" t="n">
-        <v>3.107512020505965e-05</v>
+        <v>0.008199125528335571</v>
       </c>
       <c r="DV3" t="n">
-        <v>2.319270060979761e-05</v>
+        <v>0.09718373417854309</v>
       </c>
       <c r="DW3" t="n">
-        <v>7.210746844066307e-05</v>
+        <v>0.0120015749707818</v>
       </c>
       <c r="DX3" t="n">
-        <v>6.892920646350831e-05</v>
+        <v>0.137972354888916</v>
       </c>
       <c r="DY3" t="n">
-        <v>3.064206612179987e-05</v>
+        <v>0.0456664077937603</v>
       </c>
       <c r="DZ3" t="n">
-        <v>4.572729267238174e-06</v>
+        <v>0.06366577744483948</v>
       </c>
       <c r="EA3" t="n">
-        <v>2.436413524264935e-05</v>
+        <v>0.2151485979557037</v>
       </c>
       <c r="EB3" t="n">
-        <v>5.789225269836606e-06</v>
+        <v>0.137861430644989</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.428720497642644e-05</v>
+        <v>0.05025263875722885</v>
       </c>
       <c r="ED3" t="n">
-        <v>3.72850990970619e-05</v>
+        <v>0.006090858019888401</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.261743818758987e-06</v>
+        <v>0.001708036055788398</v>
       </c>
       <c r="EF3" t="n">
-        <v>2.991299515997525e-05</v>
+        <v>0.03637662902474403</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.0002399207442067564</v>
+        <v>0.07197762280702591</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0001305235782638192</v>
+        <v>0.1067768484354019</v>
       </c>
       <c r="EI3" t="n">
-        <v>3.037727947230451e-05</v>
+        <v>0.129320353269577</v>
       </c>
       <c r="EJ3" t="n">
-        <v>9.010815119836479e-05</v>
+        <v>0.00149375875480473</v>
       </c>
       <c r="EK3" t="n">
-        <v>5.583733945968561e-05</v>
+        <v>0.09605944901704788</v>
       </c>
       <c r="EL3" t="n">
-        <v>3.172560172970407e-05</v>
+        <v>0.09370016306638718</v>
       </c>
       <c r="EM3" t="n">
-        <v>3.188848131685518e-05</v>
+        <v>0.01609477959573269</v>
       </c>
       <c r="EN3" t="n">
-        <v>6.07692745688837e-05</v>
+        <v>0.02908897958695889</v>
       </c>
       <c r="EO3" t="n">
-        <v>9.477357525611296e-05</v>
+        <v>0.1323047429323196</v>
       </c>
       <c r="EP3" t="n">
-        <v>7.43398632039316e-05</v>
+        <v>0.04523291438817978</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.63469449034892e-05</v>
+        <v>0.000765814445912838</v>
       </c>
       <c r="ER3" t="n">
-        <v>5.949442856945097e-05</v>
+        <v>0.07531066238880157</v>
       </c>
       <c r="ES3" t="n">
-        <v>4.119631557841785e-05</v>
+        <v>0.1844715625047684</v>
       </c>
       <c r="ET3" t="n">
-        <v>7.07139479345642e-05</v>
+        <v>0.02406045794487</v>
       </c>
       <c r="EU3" t="n">
-        <v>3.187286347383633e-05</v>
+        <v>0.1757588684558868</v>
       </c>
       <c r="EV3" t="n">
-        <v>3.693511098390445e-05</v>
+        <v>0.05575130507349968</v>
       </c>
       <c r="EW3" t="n">
-        <v>2.318670158274472e-05</v>
+        <v>0.2280275076627731</v>
       </c>
       <c r="EX3" t="n">
-        <v>4.674414230976254e-05</v>
+        <v>0.02409801259636879</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.0001427557144779712</v>
+        <v>0.07757309824228287</v>
       </c>
       <c r="EZ3" t="n">
-        <v>4.722877929452807e-05</v>
+        <v>0.03994359821081161</v>
       </c>
       <c r="FA3" t="n">
-        <v>2.446189500915352e-05</v>
+        <v>0.03947469219565392</v>
       </c>
       <c r="FB3" t="n">
-        <v>5.340518691809848e-05</v>
+        <v>0.04715057462453842</v>
       </c>
       <c r="FC3" t="n">
-        <v>4.447713217814453e-05</v>
+        <v>0.0007227312889881432</v>
       </c>
       <c r="FD3" t="n">
-        <v>4.399443423608318e-05</v>
+        <v>0.08318901062011719</v>
       </c>
       <c r="FE3" t="n">
-        <v>2.059837061096914e-05</v>
+        <v>0.07904089987277985</v>
       </c>
       <c r="FF3" t="n">
-        <v>1.671439531492069e-05</v>
+        <v>0.00698442105203867</v>
       </c>
       <c r="FG3" t="n">
-        <v>3.742296394193545e-05</v>
+        <v>0.05723696202039719</v>
       </c>
       <c r="FH3" t="n">
-        <v>7.55267174099572e-05</v>
+        <v>0.1012265756726265</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0001138101142714731</v>
+        <v>0.09193895012140274</v>
       </c>
       <c r="FJ3" t="n">
-        <v>5.342870645108633e-05</v>
+        <v>0.02630619332194328</v>
       </c>
       <c r="FK3" t="n">
-        <v>6.915971425769385e-06</v>
+        <v>0.07931829988956451</v>
       </c>
       <c r="FL3" t="n">
-        <v>5.244189742370509e-05</v>
+        <v>0.1305259615182877</v>
       </c>
       <c r="FM3" t="n">
-        <v>4.80959024571348e-05</v>
+        <v>0.1817006170749664</v>
       </c>
       <c r="FN3" t="n">
-        <v>4.954785254085436e-05</v>
+        <v>0.08997432142496109</v>
       </c>
       <c r="FO3" t="n">
-        <v>5.785731264040805e-05</v>
+        <v>0.03273211419582367</v>
       </c>
       <c r="FP3" t="n">
-        <v>1.450588752049953e-05</v>
+        <v>0.2242487370967865</v>
       </c>
       <c r="FQ3" t="n">
-        <v>2.587346534710377e-05</v>
+        <v>0.1406024098396301</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.0001022681171889417</v>
+        <v>0.0195268914103508</v>
       </c>
       <c r="FS3" t="n">
-        <v>6.409353227354586e-05</v>
+        <v>0.09356886893510818</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.529723158455454e-05</v>
+        <v>0.1392427682876587</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.0001240051060449332</v>
+        <v>0.1529621183872223</v>
       </c>
       <c r="FV3" t="n">
-        <v>3.917328285751864e-05</v>
+        <v>0.1540876924991608</v>
       </c>
       <c r="FW3" t="n">
-        <v>3.790193659369834e-05</v>
+        <v>0.02631546929478645</v>
       </c>
       <c r="FX3" t="n">
-        <v>4.976987838745117e-05</v>
+        <v>0.04371625557541847</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.0001384054921800271</v>
+        <v>0.02504165656864643</v>
       </c>
       <c r="FZ3" t="n">
-        <v>2.604851397336461e-05</v>
+        <v>0.0432421937584877</v>
       </c>
       <c r="GA3" t="n">
-        <v>2.454985042277258e-05</v>
+        <v>0.1033270880579948</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.0001092961319955066</v>
+        <v>0.03839093819260597</v>
       </c>
       <c r="GC3" t="n">
-        <v>7.691510836593807e-05</v>
+        <v>0.1054514050483704</v>
       </c>
       <c r="GD3" t="n">
-        <v>1.514720042905537e-05</v>
+        <v>0.1931304186582565</v>
       </c>
       <c r="GE3" t="n">
-        <v>2.915960794780403e-05</v>
+        <v>0.1690956652164459</v>
       </c>
       <c r="GF3" t="n">
-        <v>1.479706224927213e-05</v>
+        <v>0.1338286399841309</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.045104090735549e-05</v>
+        <v>0.01772056706249714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.006779779214411974</v>
+        <v>0.0006621781503781676</v>
       </c>
       <c r="B4" t="n">
-        <v>0.198577880859375</v>
+        <v>0.00873840507119894</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02340402826666832</v>
+        <v>0.0005369972786866128</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02946584671735764</v>
+        <v>0.00111381255555898</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1007139906287193</v>
+        <v>0.0008095615776255727</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2559335231781006</v>
+        <v>0.005385197233408689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04481730982661247</v>
+        <v>0.0006923343171365559</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05189653486013412</v>
+        <v>0.001653087558224797</v>
       </c>
       <c r="I4" t="n">
-        <v>0.008699739351868629</v>
+        <v>0.0006630038842558861</v>
       </c>
       <c r="J4" t="n">
-        <v>0.003242991864681244</v>
+        <v>0.001272766850888729</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1690957397222519</v>
+        <v>0.007207863498479128</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02567723952233791</v>
+        <v>0.0002034454373642802</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0311863124370575</v>
+        <v>0.002314340323209763</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02649518847465515</v>
+        <v>0.001307128579355776</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2097522467374802</v>
+        <v>0.005124906077980995</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08477168530225754</v>
+        <v>0.0008499558316543698</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.04902112483978271</v>
+        <v>0.0001811825204640627</v>
       </c>
       <c r="R4" t="n">
-        <v>0.02061155438423157</v>
+        <v>6.843771552667022e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.02154570817947388</v>
+        <v>0.0003859850985463709</v>
       </c>
       <c r="T4" t="n">
-        <v>0.01726813428103924</v>
+        <v>0.00138924119528383</v>
       </c>
       <c r="U4" t="n">
-        <v>0.004666456021368504</v>
+        <v>0.0007400350295938551</v>
       </c>
       <c r="V4" t="n">
-        <v>0.05972553789615631</v>
+        <v>3.807734901783988e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>0.0370580181479454</v>
+        <v>0.0004687987093348056</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0007798080332577229</v>
+        <v>0.001426119008101523</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.01442462578415871</v>
+        <v>0.0003874748945236206</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.0257466733455658</v>
+        <v>0.0004910670686513186</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.06386948376893997</v>
+        <v>0.0004541141097433865</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.07295671850442886</v>
+        <v>0.0003845816536340863</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.05169012770056725</v>
+        <v>0.001310267485678196</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.002585654612630606</v>
+        <v>0.0004841748450417072</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.0124967647716403</v>
+        <v>2.672369009815156e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.03344974666833878</v>
+        <v>0.0001916394103318453</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.06888243556022644</v>
+        <v>0.0005896557122468948</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.01739793084561825</v>
+        <v>8.468941086903214e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.03587368875741959</v>
+        <v>0.0007886429666541517</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.01610281690955162</v>
+        <v>0.0002688462845981121</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0160920973867178</v>
+        <v>0.0002849096490535885</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.003842693753540516</v>
+        <v>0.001240374287590384</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0280036348849535</v>
+        <v>0.0004100380465388298</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.05459696054458618</v>
+        <v>0.000722855213098228</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.01330929063260555</v>
+        <v>0.0003259155200794339</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.03890910744667053</v>
+        <v>0.001052239560522139</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.02818234264850616</v>
+        <v>0.000205246004043147</v>
       </c>
       <c r="AR4" t="n">
-        <v>0.01073968783020973</v>
+        <v>0.0003939752350561321</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.01169923879206181</v>
+        <v>0.0007312289671972394</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0104276891797781</v>
+        <v>0.0008711567497812212</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.03566886484622955</v>
+        <v>0.006507457699626684</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.07702171802520752</v>
+        <v>0.0003283557016402483</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.03439526632428169</v>
+        <v>0.001053066924214363</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0440199188888073</v>
+        <v>0.001306201564148068</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.09388384968042374</v>
+        <v>0.002380199730396271</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.07861420512199402</v>
+        <v>0.0001480882783653215</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.003636037465184927</v>
+        <v>0.0009027812629938126</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.01070811972022057</v>
+        <v>0.0005727718234993517</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.03918610513210297</v>
+        <v>3.426824696362019e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.09256399422883987</v>
+        <v>0.001502520986832678</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.0179431214928627</v>
+        <v>0.001604411518201232</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.01828284934163094</v>
+        <v>0.0001637066598050296</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.01399664860218763</v>
+        <v>0.003157970029860735</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.002935884520411491</v>
+        <v>0.002920438535511494</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.09484325349330902</v>
+        <v>0.0006029997603036463</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.03205380588769913</v>
+        <v>0.0004915316239930689</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.005795941688120365</v>
+        <v>0.0002365717082284391</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.02209389768540859</v>
+        <v>0.0001434518198948354</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.007976150140166283</v>
+        <v>0.0001266169274458662</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.01124422159045935</v>
+        <v>0.0005545559688471258</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.01054858043789864</v>
+        <v>0.0005429370212368667</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.06568244844675064</v>
+        <v>0.0002465476864017546</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.0988752543926239</v>
+        <v>0.0006914802361279726</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.008442722260951996</v>
+        <v>3.0570721719414e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.03779909387230873</v>
+        <v>0.00141199491918087</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.06016257032752037</v>
+        <v>0.001239792443811893</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.01606784388422966</v>
+        <v>0.0007862197235226631</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.001144899288192391</v>
+        <v>0.003268353175371885</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.008819201029837132</v>
+        <v>0.0001977775245904922</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.03055360168218613</v>
+        <v>0.0009771543554961681</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.1301031857728958</v>
+        <v>0.0003525506472215056</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.1575552821159363</v>
+        <v>7.937924237921834e-05</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.089531309902668</v>
+        <v>0.000461770046968013</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.06892573088407516</v>
+        <v>0.0005608433857560158</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.01274277083575726</v>
+        <v>0.0004450948326848447</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.02228361740708351</v>
+        <v>0.0002842271060217172</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.01673560589551926</v>
+        <v>0.001539596007205546</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.007733034435659647</v>
+        <v>0.0004838787717744708</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.02931994758546352</v>
+        <v>0.0007756754057481885</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.009421850554645061</v>
+        <v>0.0005954245571047068</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.03072288073599339</v>
+        <v>0.0008200209122151136</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.01632276736199856</v>
+        <v>0.0006072131218388677</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.001908608130179346</v>
+        <v>0.0001472513395128772</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.01562117505818605</v>
+        <v>7.030086999293417e-05</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.01328542083501816</v>
+        <v>0.001377980457618833</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.08516852557659149</v>
+        <v>0.001172001124359667</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.03483890369534492</v>
+        <v>0.0001768142537912354</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.01767349056899548</v>
+        <v>0.001351780956611037</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.03453053534030914</v>
+        <v>0.0002918700920417905</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.05590697005391121</v>
+        <v>2.791247243294492e-05</v>
       </c>
       <c r="CS4" t="n">
-        <v>0.02747321501374245</v>
+        <v>0.001695432234555483</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.05619578808546066</v>
+        <v>0.001252070185728371</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.04715323820710182</v>
+        <v>0.0007807539077475667</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.02451760694384575</v>
+        <v>0.0001656851673033088</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.00875104870647192</v>
+        <v>0.00130846188403666</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.002306707203388214</v>
+        <v>0.0004827685770578682</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.03367239236831665</v>
+        <v>0.0009498863364569843</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.003808371024206281</v>
+        <v>0.000366239168215543</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.03018661588430405</v>
+        <v>0.001062720897607505</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.001098371692933142</v>
+        <v>0.000485170166939497</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.004140659235417843</v>
+        <v>0.0001258980191778392</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.02375718578696251</v>
+        <v>5.361725925467908e-05</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.1259021461009979</v>
+        <v>0.0001786018838174641</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.03297311440110207</v>
+        <v>0.0005489815375767648</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.07388990372419357</v>
+        <v>0.0004586738941725343</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.1115523129701614</v>
+        <v>0.0007368019432760775</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.09480619430541992</v>
+        <v>0.0007341409218497574</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.01502644643187523</v>
+        <v>0.0006855138926766813</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.02765565738081932</v>
+        <v>0.0005452664918266237</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.01541730016469955</v>
+        <v>0.0002987068728543818</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.03529880940914154</v>
+        <v>0.0007975600892677903</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.05077315121889114</v>
+        <v>0.0002331131690880284</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.01494277734309435</v>
+        <v>8.54529207572341e-05</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.02383405342698097</v>
+        <v>0.0005150918732397258</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.002741390839219093</v>
+        <v>0.0009216296020895243</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.03289978206157684</v>
+        <v>0.001074760453775525</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.04171296581625938</v>
+        <v>0.000465671910205856</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0003832262009382248</v>
+        <v>0.0007313422975130379</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.02628400921821594</v>
+        <v>2.017572478507645e-05</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.004678482655435801</v>
+        <v>0.0007028246182017028</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.03124679252505302</v>
+        <v>0.0004784027114510536</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.009229292161762714</v>
+        <v>0.0002552295045461506</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.04477594792842865</v>
+        <v>0.0006752873305231333</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.02237164042890072</v>
+        <v>0.0006217357004061341</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.01205734629184008</v>
+        <v>8.676864672452211e-05</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.02082237228751183</v>
+        <v>7.3398114182055e-06</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.008542107418179512</v>
+        <v>0.000260782428085804</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.007340294774621725</v>
+        <v>0.0008715060539543629</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.007172668818384409</v>
+        <v>0.0003474094846751541</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0184057354927063</v>
+        <v>0.0002784648968372494</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.06197546049952507</v>
+        <v>0.000940428813919425</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.04214449971914291</v>
+        <v>0.0002050449838861823</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.004221981391310692</v>
+        <v>8.502510900143534e-05</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.05928695946931839</v>
+        <v>0.000669622968416661</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.04031833633780479</v>
+        <v>0.000873526674695313</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0168322566896677</v>
+        <v>0.0002930082264356315</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.03634261712431908</v>
+        <v>0.0009696490596979856</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.03478904068470001</v>
+        <v>0.0003061917959712446</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.009304290637373924</v>
+        <v>0.0001309018989559263</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.01587914675474167</v>
+        <v>0.001448447699658573</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.02658584527671337</v>
+        <v>0.0002475112851243466</v>
       </c>
       <c r="ER4" t="n">
-        <v>0.01144042797386646</v>
+        <v>0.0005624102195724845</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.01005706563591957</v>
+        <v>0.0003141261695418507</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.03137560188770294</v>
+        <v>0.001849790452979505</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.01424968428909779</v>
+        <v>4.589405580190942e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.0192362554371357</v>
+        <v>0.0005058193346485496</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.006165499798953533</v>
+        <v>0.001000330434180796</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.01884511113166809</v>
+        <v>0.0001852440764196217</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.008408041670918465</v>
+        <v>0.001325823133811355</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.003105746349319816</v>
+        <v>9.246174886357039e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.01677320152521133</v>
+        <v>0.0005784054519608617</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.02119685336947441</v>
+        <v>0.000264122529188171</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.03717438504099846</v>
+        <v>0.0008515044464729726</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.0127217061817646</v>
+        <v>0.000552603043615818</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.002358595374971628</v>
+        <v>0.0003434364916756749</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.02048360928893089</v>
+        <v>0.0001133881305577233</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.02735963277518749</v>
+        <v>3.437813211348839e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>7.852481212466955e-05</v>
+        <v>0.0006471381639130414</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.03468326851725578</v>
+        <v>0.0004644295549951494</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.04163021221756935</v>
+        <v>0.001627906109206378</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.03644096851348877</v>
+        <v>0.0006490794476121664</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.05506449192762375</v>
+        <v>0.0002447169972583652</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.02795283310115337</v>
+        <v>4.390611866256222e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.03447400033473969</v>
+        <v>0.0007652799831703305</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.01006439048796892</v>
+        <v>0.0007131105521693826</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.01026045437902212</v>
+        <v>4.657133104046807e-05</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.06415003538131714</v>
+        <v>0.00436528492718935</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.003702202579006553</v>
+        <v>0.0001695988612482324</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.03617995977401733</v>
+        <v>0.001277079922147095</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.03391064703464508</v>
+        <v>0.001109183998778462</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.08121350407600403</v>
+        <v>0.002668431727215648</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.04039790481328964</v>
+        <v>6.989811663515866e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.0237714909017086</v>
+        <v>0.0012696732301265</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.03084865026175976</v>
+        <v>0.0005333074368536472</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.07923471927642822</v>
+        <v>0.001081845257431269</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.02117294818162918</v>
+        <v>0.000615880184341222</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.02913418784737587</v>
+        <v>0.0001641765120439231</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.03213966637849808</v>
+        <v>0.0001252676884178072</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.007749875076115131</v>
+        <v>0.002650352194905281</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.0008257455192506313</v>
+        <v>0.00152233149856329</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.01897084526717663</v>
+        <v>0.001692059333436191</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.03913151472806931</v>
+        <v>0.0002672079717740417</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.01723421551287174</v>
+        <v>0.0005643540062010288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.106231763958931</v>
+        <v>0.01464190147817135</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5442641973495483</v>
+        <v>0.7260693907737732</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5589858889579773</v>
+        <v>0.04604244604706764</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1383066922426224</v>
+        <v>0.3855218887329102</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1354206204414368</v>
+        <v>0.1430390775203705</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2687894105911255</v>
+        <v>0.02036083862185478</v>
       </c>
       <c r="G5" t="n">
-        <v>0.304394543170929</v>
+        <v>0.05851642414927483</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2003438770771027</v>
+        <v>0.006655104458332062</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04176739230751991</v>
+        <v>0.01446201093494892</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05501212179660797</v>
+        <v>0.06650861352682114</v>
       </c>
       <c r="K5" t="n">
-        <v>0.5553047657012939</v>
+        <v>0.5850806832313538</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1473485231399536</v>
+        <v>0.0342872142791748</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2346182465553284</v>
+        <v>0.3815774917602539</v>
       </c>
       <c r="N5" t="n">
-        <v>0.177812859416008</v>
+        <v>0.212374672293663</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0004201345145702362</v>
+        <v>0.01139443926513195</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3213701546192169</v>
+        <v>0.05707762762904167</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.2532972097396851</v>
+        <v>0.1128460690379143</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001555871218442917</v>
+        <v>0.05125806108117104</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04703718423843384</v>
+        <v>0.07393677532672882</v>
       </c>
       <c r="T5" t="n">
-        <v>0.02674151957035065</v>
+        <v>0.09533817321062088</v>
       </c>
       <c r="U5" t="n">
-        <v>0.02446064166724682</v>
+        <v>0.02957423217594624</v>
       </c>
       <c r="V5" t="n">
-        <v>0.1585396975278854</v>
+        <v>0.01900184154510498</v>
       </c>
       <c r="W5" t="n">
-        <v>0.1042575240135193</v>
+        <v>0.01404176279902458</v>
       </c>
       <c r="X5" t="n">
-        <v>0.03291646018624306</v>
+        <v>0.09077108651399612</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07949581742286682</v>
+        <v>0.09868042916059494</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.23028564453125</v>
+        <v>0.02856495045125484</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2076390981674194</v>
+        <v>0.03509474918246269</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.05756857991218567</v>
+        <v>0.03867786750197411</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.1182674095034599</v>
+        <v>0.1468407958745956</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.2433889806270599</v>
+        <v>0.03893285989761353</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.02111914753913879</v>
+        <v>0.009342893958091736</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.1625222712755203</v>
+        <v>0.07385119050741196</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.06892308592796326</v>
+        <v>0.0301947183907032</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1168845444917679</v>
+        <v>0.02549395151436329</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.08723986148834229</v>
+        <v>0.0009674374014139175</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0487777441740036</v>
+        <v>0.03291087597608566</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.2391740083694458</v>
+        <v>0.02812998741865158</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.2089696526527405</v>
+        <v>0.06717842072248459</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.1573203504085541</v>
+        <v>0.0002267612144351006</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.01957982033491135</v>
+        <v>0.03022002428770065</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.02956047840416431</v>
+        <v>0.03078635036945343</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.07294954359531403</v>
+        <v>0.05943815410137177</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.1318130940198898</v>
+        <v>0.05418318137526512</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.08099990338087082</v>
+        <v>0.04225100949406624</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.08336206525564194</v>
+        <v>0.02653134986758232</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.2640468180179596</v>
+        <v>0.0167052149772644</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.6264533996582031</v>
+        <v>0.4403688907623291</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.1805851757526398</v>
+        <v>0.04847679287195206</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.1162712574005127</v>
+        <v>0.1540778279304504</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.2011420726776123</v>
+        <v>0.003858443349599838</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0224557239562273</v>
+        <v>0.02797913551330566</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.1199921071529388</v>
+        <v>0.03628381341695786</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.191792830824852</v>
+        <v>0.05223960801959038</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.05926039814949036</v>
+        <v>0.003428908064961433</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.02329303324222565</v>
+        <v>0.03768634051084518</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.05298514664173126</v>
+        <v>0.1348803490400314</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.003322578966617584</v>
+        <v>0.1136846542358398</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.04568399861454964</v>
+        <v>0.05407010018825531</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.02434895560145378</v>
+        <v>0.1065358966588974</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.05466083064675331</v>
+        <v>0.02506028115749359</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.1059908494353294</v>
+        <v>0.1261210739612579</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.2480136901140213</v>
+        <v>0.02969706617295742</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.05512309074401855</v>
+        <v>0.02777366526424885</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.06359313428401947</v>
+        <v>0.09287285059690475</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.004347320646047592</v>
+        <v>0.00533673632889986</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.07831460982561111</v>
+        <v>0.0346105620265007</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.07037978619337082</v>
+        <v>0.01067779306322336</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.0502321794629097</v>
+        <v>0.04845386371016502</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.003399911802262068</v>
+        <v>0.0522211454808712</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.1008515879511833</v>
+        <v>0.07697617262601852</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.06910832971334457</v>
+        <v>0.002440694719552994</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.1053368225693703</v>
+        <v>0.02851004712283611</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.3798093199729919</v>
+        <v>0.05163828283548355</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.4101287424564362</v>
+        <v>0.2527001202106476</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.1720318645238876</v>
+        <v>0.0661969855427742</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.05414964258670807</v>
+        <v>0.05788062512874603</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.2436383962631226</v>
+        <v>0.04353641718626022</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.01256322674453259</v>
+        <v>0.03205588087439537</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.06807535886764526</v>
+        <v>0.001811079331673682</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.08925388008356094</v>
+        <v>0.04563008248806</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.03776296973228455</v>
+        <v>0.02421988360583782</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.02322278916835785</v>
+        <v>0.005160291213542223</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.1548881232738495</v>
+        <v>0.1025051772594452</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.009605010971426964</v>
+        <v>0.01994222775101662</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.009878465905785561</v>
+        <v>0.0534914992749691</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.09184446185827255</v>
+        <v>0.005835083778947592</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.01125170290470123</v>
+        <v>0.02152559161186218</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.1312797367572784</v>
+        <v>0.01402693334966898</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.06689966470003128</v>
+        <v>0.0118761258199811</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.03491794690489769</v>
+        <v>0.02043670788407326</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.2135988920927048</v>
+        <v>0.09124672412872314</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.2857153713703156</v>
+        <v>0.02562309801578522</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.07713421434164047</v>
+        <v>0.0268031544983387</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.04074108228087425</v>
+        <v>0.08318665623664856</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.3530220985412598</v>
+        <v>0.1866361796855927</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.2059830129146576</v>
+        <v>0.003260659519582987</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.08616040647029877</v>
+        <v>0.02109350450336933</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.1538543701171875</v>
+        <v>0.1119547560811043</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.006511476822197437</v>
+        <v>0.004198289941996336</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.02693067863583565</v>
+        <v>0.01948396489024162</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.1493102759122849</v>
+        <v>0.1155065149068832</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.01273786183446646</v>
+        <v>0.03987625613808632</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0299041885882616</v>
+        <v>0.06852103769779205</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.08310847729444504</v>
+        <v>0.02995042316615582</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.03682190924882889</v>
+        <v>0.03196481615304947</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.1128428354859352</v>
+        <v>0.006020398810505867</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.03678178042173386</v>
+        <v>0.001680255867540836</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0004674137744586915</v>
+        <v>0.009151315316557884</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.01983749493956566</v>
+        <v>0.1171762123703957</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.4151448309421539</v>
+        <v>0.07568230479955673</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.08931712806224823</v>
+        <v>0.019233213737607</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.06771092116832733</v>
+        <v>0.3247711658477783</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.1871297508478165</v>
+        <v>0.004529107362031937</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.01119549758732319</v>
+        <v>0.03015310131013393</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.1184331029653549</v>
+        <v>0.03603024780750275</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.2464363425970078</v>
+        <v>0.03576849028468132</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.07800352573394775</v>
+        <v>0.01156455650925636</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0002938061952590942</v>
+        <v>0.001725339330732822</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0033995620906353</v>
+        <v>0.03086135536432266</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.09472232311964035</v>
+        <v>0.01501914765685797</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.02526067942380905</v>
+        <v>0.05538095906376839</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.2461726069450378</v>
+        <v>0.1099287047982216</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.1047623455524445</v>
+        <v>0.03399689495563507</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.002136951312422752</v>
+        <v>0.01824294775724411</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.06623556464910507</v>
+        <v>0.02796095423400402</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.04104930907487869</v>
+        <v>0.03247235715389252</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.02840142324566841</v>
+        <v>0.0170732568949461</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.1686136722564697</v>
+        <v>0.1489705890417099</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.0233069472014904</v>
+        <v>0.0238010473549366</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.008967758156359196</v>
+        <v>0.1051419600844383</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.001682818634435534</v>
+        <v>0.06900952756404877</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0007826182991266251</v>
+        <v>0.03711860999464989</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.131618544459343</v>
+        <v>0.03952561691403389</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.1526424437761307</v>
+        <v>0.01052683033049107</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.06595585495233536</v>
+        <v>0.01312089432030916</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.03578323125839233</v>
+        <v>0.011864323168993</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.1309896111488342</v>
+        <v>0.05292399600148201</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.02078994363546371</v>
+        <v>0.02869994007050991</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.03630376607179642</v>
+        <v>0.07049732655286789</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.06769625842571259</v>
+        <v>0.1052038073539734</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02580809965729713</v>
+        <v>0.06033937633037567</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.1137744188308716</v>
+        <v>0.007711340673267841</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.01840040646493435</v>
+        <v>0.001080021262168884</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.04664851725101471</v>
+        <v>0.004505572840571404</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.03087810054421425</v>
+        <v>0.004070322029292583</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.1501016467809677</v>
+        <v>0.1023948490619659</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.03519736602902412</v>
+        <v>0.04034928604960442</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.09302371740341187</v>
+        <v>0.02663244307041168</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.09309082478284836</v>
+        <v>0.05108750239014626</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0982743576169014</v>
+        <v>0.1416569650173187</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.1355991065502167</v>
+        <v>0.02269160374999046</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.09443338960409164</v>
+        <v>0.008963095024228096</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.08734298497438431</v>
+        <v>0.003263238817453384</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.02506887726485729</v>
+        <v>0.01568945683538914</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.1455007046461105</v>
+        <v>0.1138348877429962</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.02698313444852829</v>
+        <v>0.01007199753075838</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.03104096837341785</v>
+        <v>0.06512009352445602</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.09514877200126648</v>
+        <v>0.009699326939880848</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.007241637445986271</v>
+        <v>0.03510008007287979</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.1457792520523071</v>
+        <v>0.003413371508941054</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.02519603446125984</v>
+        <v>0.004007234238088131</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.03088468685746193</v>
+        <v>0.01841291785240173</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.04805830121040344</v>
+        <v>0.00144517794251442</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01255307905375957</v>
+        <v>0.02829910255968571</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.04792066663503647</v>
+        <v>0.02069306746125221</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.03827337175607681</v>
+        <v>0.03284269198775291</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.1354867368936539</v>
+        <v>0.03477334231138229</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.006117917597293854</v>
+        <v>0.02041473612189293</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.03714126348495483</v>
+        <v>0.06320461630821228</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.09914657473564148</v>
+        <v>0.01311563514173031</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.1078241989016533</v>
+        <v>0.02496881783008575</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.4643040299415588</v>
+        <v>0.04180842265486717</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.173623651266098</v>
+        <v>0.1173268631100655</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.1508063673973083</v>
+        <v>0.06503699719905853</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.1122539341449738</v>
+        <v>0.0784282311797142</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.08165093511343002</v>
+        <v>0.1107351779937744</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0282178521156311</v>
+        <v>0.06255938857793808</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.1021873727440834</v>
+        <v>0.03646522387862206</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.4302436113357544</v>
+        <v>0.02184885554015636</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.1849348843097687</v>
+        <v>0.04669969156384468</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.1203604638576508</v>
+        <v>0.05239056050777435</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.05160589143633842</v>
+        <v>0.05475085228681564</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.2835736274719238</v>
+        <v>0.01343971118330956</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.1004432961344719</v>
+        <v>0.05520043522119522</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.002897785743698478</v>
+        <v>0.164999321103096</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.112646222114563</v>
+        <v>0.1202185750007629</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.135581910610199</v>
+        <v>0.1145270168781281</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.02463340759277344</v>
+        <v>0.02679888717830181</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.1685092896223068</v>
+        <v>0.01232378929853439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1258071959018707</v>
+        <v>0.02135307341814041</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04378458112478256</v>
+        <v>0.00273378100246191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02598699182271957</v>
+        <v>0.005203518085181713</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07396074384450912</v>
+        <v>0.009204348549246788</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02944779954850674</v>
+        <v>0.01286322250962257</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01495571993291378</v>
+        <v>0.004718712531030178</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05637554079294205</v>
+        <v>0.003455574158579111</v>
       </c>
       <c r="H6" t="n">
-        <v>0.004925204440951347</v>
+        <v>0.004013543017208576</v>
       </c>
       <c r="I6" t="n">
-        <v>0.02488535270094872</v>
+        <v>0.00272669643163681</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1079084351658821</v>
+        <v>0.01939456537365913</v>
       </c>
       <c r="K6" t="n">
-        <v>0.03462932258844376</v>
+        <v>0.001979356165975332</v>
       </c>
       <c r="L6" t="n">
-        <v>0.06411951780319214</v>
+        <v>0.005135166458785534</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06803671270608902</v>
+        <v>0.004677275661379099</v>
       </c>
       <c r="N6" t="n">
-        <v>0.06108568981289864</v>
+        <v>0.005261313635855913</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01238216552883387</v>
+        <v>0.0005614231922663748</v>
       </c>
       <c r="P6" t="n">
-        <v>0.06253600120544434</v>
+        <v>0.002966535277664661</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.0132833095267415</v>
+        <v>0.001818679040297866</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02668835408985615</v>
+        <v>0.006388742942363024</v>
       </c>
       <c r="S6" t="n">
-        <v>0.002863836940377951</v>
+        <v>0.00373563077300787</v>
       </c>
       <c r="T6" t="n">
-        <v>0.001613523811101913</v>
+        <v>0.00604701042175293</v>
       </c>
       <c r="U6" t="n">
-        <v>0.007551655173301697</v>
+        <v>0.002126209903508425</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01609805412590504</v>
+        <v>0.004443763755261898</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0200679786503315</v>
+        <v>0.005180827341973782</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01903194561600685</v>
+        <v>0.001691665849648416</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.01516726519912481</v>
+        <v>0.001036089030094445</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.00117120542563498</v>
+        <v>0.005764576606452465</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.00263840751722455</v>
+        <v>0.0002363971580052748</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01559189334511757</v>
+        <v>0.001033233013004065</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.004010357428342104</v>
+        <v>0.0108862342312932</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.01548006478697062</v>
+        <v>0.0001296231057494879</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.01314972061663866</v>
+        <v>0.003210231196135283</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.006700461730360985</v>
+        <v>0.003186509013175964</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.01136067043989897</v>
+        <v>7.965549593791366e-05</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.006733443588018417</v>
+        <v>0.0001706538896542042</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.03675303235650063</v>
+        <v>0.0009645855752751231</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.005581659264862537</v>
+        <v>0.003271439345553517</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03358278423547745</v>
+        <v>0.0002615222474560142</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.01415849756449461</v>
+        <v>0.002618193859234452</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.01373492926359177</v>
+        <v>0.002905047032982111</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.00655276095494628</v>
+        <v>0.00122801773250103</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.001828879583626986</v>
+        <v>0.002089006127789617</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.009120187722146511</v>
+        <v>0.002714159432798624</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.003884699195623398</v>
+        <v>0.001236278214491904</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.01667635515332222</v>
+        <v>0.003547369036823511</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.005035183858126402</v>
+        <v>0.0007039819029159844</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.05339201539754868</v>
+        <v>0.01110354159027338</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.02567903697490692</v>
+        <v>0.006285130046308041</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.01548261940479279</v>
+        <v>0.004292591940611601</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.03343374282121658</v>
+        <v>0.003098469693213701</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.004336654208600521</v>
+        <v>0.01037085242569447</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.02053174190223217</v>
+        <v>0.0003080841852352023</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0008479907410219312</v>
+        <v>0.005089857149869204</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.0259542427957058</v>
+        <v>0.005217554047703743</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.01321822963654995</v>
+        <v>0.001734561985358596</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.04062006622552872</v>
+        <v>0.01153348013758659</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.02219291031360626</v>
+        <v>0.01218937896192074</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.02519982121884823</v>
+        <v>6.728270091116428e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.01545088645070791</v>
+        <v>0.0002820300869643688</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.004970524460077286</v>
+        <v>0.003170715644955635</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.005799411796033382</v>
+        <v>0.0009556742152199149</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.02911730669438839</v>
+        <v>0.0006650252616964281</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.05514237284660339</v>
+        <v>0.004034774843603373</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.005690009798854589</v>
+        <v>0.007543481886386871</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.007877456024289131</v>
+        <v>0.001216295757330954</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.01634097285568714</v>
+        <v>0.00431041419506073</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.003809855785220861</v>
+        <v>0.0003979155444540083</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.00618349015712738</v>
+        <v>0.003861074801534414</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.01477992255240679</v>
+        <v>0.005417169071733952</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.002909578382968903</v>
+        <v>0.002786835422739387</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.002089747693389654</v>
+        <v>0.0003781707782763988</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.008432202041149139</v>
+        <v>0.003167630173265934</v>
       </c>
       <c r="BT6" t="n">
-        <v>0.001286808867007494</v>
+        <v>0.004052743315696716</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.04954922944307327</v>
+        <v>0.005719667766243219</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.002959133591502905</v>
+        <v>0.0005545049789361656</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.02362179011106491</v>
+        <v>0.0006117256125435233</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.01378439925611019</v>
+        <v>0.0008052857010625303</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01070541050285101</v>
+        <v>0.007863347418606281</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.001678644213825464</v>
+        <v>0.001317655784077942</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.006810678169131279</v>
+        <v>0.003565886057913303</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.008276583626866341</v>
+        <v>0.004232027102261782</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.01964913122355938</v>
+        <v>0.002122335368767381</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.02536426857113838</v>
+        <v>0.003510735929012299</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.03101962804794312</v>
+        <v>0.003654442494735122</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.01183786243200302</v>
+        <v>0.0004843161441385746</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.008881165646016598</v>
+        <v>0.0007258565165102482</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.0001432116841897368</v>
+        <v>0.002657473320141435</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.0006674734177067876</v>
+        <v>0.004404411651194096</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.01283377036452293</v>
+        <v>0.001229611225426197</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.007594517897814512</v>
+        <v>0.002908861264586449</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.0004890266573056579</v>
+        <v>0.001571605680510402</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.01360559090971947</v>
+        <v>0.006455798167735338</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.01021222304552794</v>
+        <v>0.003077555447816849</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.0007186229922808707</v>
+        <v>0.001400112407281995</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.02357689663767815</v>
+        <v>0.007396957371383905</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.05793224647641182</v>
+        <v>0.008202484808862209</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.04058951511979103</v>
+        <v>0.005545771680772305</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.0009067158098332584</v>
+        <v>0.002361305058002472</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.03746333718299866</v>
+        <v>0.005189941264688969</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.01146373152732849</v>
+        <v>0.002073446754366159</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.02096695825457573</v>
+        <v>0.002623458858579397</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.03158353269100189</v>
+        <v>0.003827937645837665</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.01407472416758537</v>
+        <v>0.00100096850655973</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.006138080731034279</v>
+        <v>1.79946146090515e-05</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.005715911276638508</v>
+        <v>0.002567540388554335</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.003374319989234209</v>
+        <v>0.003839259967207909</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.01199908927083015</v>
+        <v>0.001052533043548465</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.002482450800016522</v>
+        <v>0.00237658154219389</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.001279574818909168</v>
+        <v>0.001781214727088809</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.01475739758461714</v>
+        <v>0.003578370437026024</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.04874560236930847</v>
+        <v>0.006207214668393135</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.01954906806349754</v>
+        <v>0.004914905875921249</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.0009005330502986908</v>
+        <v>0.002238129964098334</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.02878252789378166</v>
+        <v>0.004285837057977915</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.0191388837993145</v>
+        <v>0.006290137767791748</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.01064340956509113</v>
+        <v>0.0006431769579648972</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.01104900892823935</v>
+        <v>0.007951728999614716</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.0007370945531874895</v>
+        <v>0.0001703617163002491</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.003859945805743337</v>
+        <v>0.00303354999050498</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.02817846462130547</v>
+        <v>0.0001105577684938908</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.01526745222508907</v>
+        <v>0.0009761821711435914</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.004954193253070116</v>
+        <v>0.005593471694737673</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.007928787730634212</v>
+        <v>0.005152836441993713</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.02447386458516121</v>
+        <v>0.001849364256486297</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.01202417723834515</v>
+        <v>0.0005469723255373538</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.005178214516490698</v>
+        <v>0.001665584277361631</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.01254255883395672</v>
+        <v>0.001984312664717436</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.001605321187525988</v>
+        <v>0.004561977460980415</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.01149729825556278</v>
+        <v>0.002239260822534561</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.0144322058185935</v>
+        <v>0.002888958435505629</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.009231759235262871</v>
+        <v>0.0007739351713098586</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.004214263521134853</v>
+        <v>0.0001370137324556708</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.006769351661205292</v>
+        <v>0.003454138059169054</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.01536172069609165</v>
+        <v>0.003228500718250871</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.04172435775399208</v>
+        <v>0.002287312177941203</v>
       </c>
       <c r="EE6" t="n">
-        <v>4.725385224446654e-06</v>
+        <v>0.001144691021181643</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.04547160118818283</v>
+        <v>0.00417865626513958</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.02819962613284588</v>
+        <v>0.006514056120067835</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.01085316762328148</v>
+        <v>0.004886126611381769</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.01499510556459427</v>
+        <v>0.002443953882902861</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.00612616166472435</v>
+        <v>0.000735971552785486</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.006810817867517471</v>
+        <v>0.002536620246246457</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.006591463461518288</v>
+        <v>0.001067901961505413</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.03491699323058128</v>
+        <v>0.002484249416738749</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.005564123392105103</v>
+        <v>0.0002373834868194535</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.008135571144521236</v>
+        <v>0.0001310299849137664</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.01109735295176506</v>
+        <v>0.008232827298343182</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.01524120755493641</v>
+        <v>0.000861309701576829</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.002039756160229445</v>
+        <v>0.001798117649741471</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.00313849002122879</v>
+        <v>0.0007598076481372118</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.001381894224323332</v>
+        <v>0.003717696294188499</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.01774002052843571</v>
+        <v>4.833878483623266e-05</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.02064314670860767</v>
+        <v>0.00480000302195549</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.005856306292116642</v>
+        <v>0.006594681646674871</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.02217202261090279</v>
+        <v>0.003131368663161993</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.03093908913433552</v>
+        <v>0.004017812199890614</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.01418453641235828</v>
+        <v>0.0007970464648678899</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.006586076691746712</v>
+        <v>4.528513818513602e-05</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.005587237887084484</v>
+        <v>0.002729491563513875</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.005753770470619202</v>
+        <v>0.002979060402140021</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.0115257827565074</v>
+        <v>0.0007960842922329903</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.008291511796414852</v>
+        <v>0.002830215496942401</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.002267787698656321</v>
+        <v>0.001575177768245339</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.01975379697978497</v>
+        <v>0.002424118109047413</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.01872713677585125</v>
+        <v>0.002174183027818799</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.00765691976994276</v>
+        <v>0.003624174045398831</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.02306675910949707</v>
+        <v>0.001211904571391642</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.02326913177967072</v>
+        <v>0.003933961037546396</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.02271007560193539</v>
+        <v>0.002770709106698632</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.01925349980592728</v>
+        <v>0.003132743295282125</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.01139012351632118</v>
+        <v>0.0004652774077840149</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.003954450134187937</v>
+        <v>0.001939987996593118</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.01586147584021091</v>
+        <v>0.003644388634711504</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.05084262415766716</v>
+        <v>0.003726673312485218</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.02539322338998318</v>
+        <v>0.007485599257051945</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.02122239768505096</v>
+        <v>0.0002440958342049271</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.0220711100846529</v>
+        <v>0.01164679881185293</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.01138570066541433</v>
+        <v>0.002154979389160872</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.01095428038388491</v>
+        <v>0.003348408034071326</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.001705837552435696</v>
+        <v>0.001908631063997746</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.001928005833178759</v>
+        <v>0.000105727172922343</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.02589961513876915</v>
+        <v>0.00157058541662991</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.002289984375238419</v>
+        <v>0.002360031241551042</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.02139107510447502</v>
+        <v>0.002769218292087317</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.004693339578807354</v>
+        <v>0.00169346434995532</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.01687169075012207</v>
+        <v>0.0009393293294124305</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.003918063826858997</v>
+        <v>0.001496126409620047</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.0197080485522747</v>
+        <v>0.005745168309658766</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.01814547739923</v>
+        <v>0.001711607445031404</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.002313757780939341</v>
+        <v>0.002279964974150062</v>
       </c>
     </row>
     <row r="7">
@@ -4987,3985 +4987,3985 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.001181460334919393</v>
+        <v>0.0003971841069869697</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0004173386842012405</v>
+        <v>0.001710101496428251</v>
       </c>
       <c r="C9" t="n">
-        <v>8.330901619046926e-05</v>
+        <v>0.0002859951055143028</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0004294321406632662</v>
+        <v>0.001072206767275929</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0006715416675433517</v>
+        <v>0.0005993124796077609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0003353371284902096</v>
+        <v>0.0004722950397990644</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003558970929589123</v>
+        <v>0.0001733827230054885</v>
       </c>
       <c r="H9" t="n">
-        <v>6.554732681252062e-05</v>
+        <v>5.893967681913637e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>4.391763650346547e-05</v>
+        <v>4.688340413849801e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001062360475771129</v>
+        <v>0.000627560424618423</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0002700899203773588</v>
+        <v>0.001282758079469204</v>
       </c>
       <c r="L9" t="n">
-        <v>7.908073894213885e-05</v>
+        <v>0.0002463397104293108</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0003091111138928682</v>
+        <v>0.0007160618552006781</v>
       </c>
       <c r="N9" t="n">
-        <v>0.000792407023254782</v>
+        <v>0.0007236567907966673</v>
       </c>
       <c r="O9" t="n">
-        <v>0.000157077913172543</v>
+        <v>0.0008595254039391875</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0003608189581427723</v>
+        <v>0.000249348406214267</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.000133568057208322</v>
+        <v>0.000379653210984543</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0001221651618834585</v>
+        <v>0.0001850329572334886</v>
       </c>
       <c r="S9" t="n">
-        <v>6.266135460464284e-05</v>
+        <v>1.400527253281325e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>4.696721953223459e-05</v>
+        <v>0.0003166136448271573</v>
       </c>
       <c r="U9" t="n">
-        <v>2.296746242791414e-05</v>
+        <v>0.0001563186233397573</v>
       </c>
       <c r="V9" t="n">
-        <v>7.031337008811533e-05</v>
+        <v>0.0001153462508227676</v>
       </c>
       <c r="W9" t="n">
-        <v>5.454461643239483e-05</v>
+        <v>0.000291600328637287</v>
       </c>
       <c r="X9" t="n">
-        <v>7.750253644189797e-06</v>
+        <v>0.0002425952989142388</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.399439760367386e-05</v>
+        <v>0.0003255065821576864</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.000204876167117618</v>
+        <v>0.000144768797326833</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.840201523213182e-05</v>
+        <v>0.0002951955830212682</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.0001862668577814475</v>
+        <v>7.605472637806088e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.285182851366699e-06</v>
+        <v>0.0001269220520043746</v>
       </c>
       <c r="AD9" t="n">
-        <v>2.113369919243269e-05</v>
+        <v>9.438856795895845e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.185001747217029e-05</v>
+        <v>0.0001320886221947148</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.000106898216472473</v>
+        <v>7.855888543417677e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>6.11539144301787e-05</v>
+        <v>5.001663521397859e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.655189645243809e-05</v>
+        <v>0.0001441935601178557</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.0003919812443200499</v>
+        <v>5.201611202210188e-06</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0.0002038310340140015</v>
+        <v>2.061186387436464e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0002105078747263178</v>
+        <v>0.0002631943207234144</v>
       </c>
       <c r="AL9" t="n">
-        <v>5.725042137783021e-05</v>
+        <v>0.0001793349656509236</v>
       </c>
       <c r="AM9" t="n">
-        <v>5.544128725887276e-05</v>
+        <v>0.0001144306879723445</v>
       </c>
       <c r="AN9" t="n">
-        <v>0.0001843347417889163</v>
+        <v>6.156248855404556e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.0001517646596767008</v>
+        <v>5.437430445454083e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0001244899176526815</v>
+        <v>2.647092514962424e-05</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.83312386070611e-05</v>
+        <v>0.0001116001221816987</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.346033918205649e-05</v>
+        <v>8.325357339344919e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.439046849962324e-05</v>
+        <v>0.0001768356014508754</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0005118252011016011</v>
+        <v>1.47961236507399e-05</v>
       </c>
       <c r="AU9" t="n">
-        <v>0.0001338663860224187</v>
+        <v>0.001067715929821134</v>
       </c>
       <c r="AV9" t="n">
-        <v>1.151691230916185e-05</v>
+        <v>2.314980520168319e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.0001441786589566618</v>
+        <v>0.0002228681405540556</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.0002930430055130273</v>
+        <v>9.215062164003029e-05</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.0002577253908384591</v>
+        <v>0.0001542707905173302</v>
       </c>
       <c r="AZ9" t="n">
-        <v>1.268773849005811e-05</v>
+        <v>6.810895138187334e-05</v>
       </c>
       <c r="BA9" t="n">
-        <v>9.008431516122073e-05</v>
+        <v>0.0002388044667895883</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.703397720120847e-05</v>
+        <v>0.0002748802944552153</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0003516148135531694</v>
+        <v>0.0002457255031913519</v>
       </c>
       <c r="BD9" t="n">
-        <v>4.004365837317891e-05</v>
+        <v>0.0002983928425237536</v>
       </c>
       <c r="BE9" t="n">
-        <v>2.652317562024109e-05</v>
+        <v>0.0005465077119879425</v>
       </c>
       <c r="BF9" t="n">
-        <v>1.780087404767983e-05</v>
+        <v>0.0002229693491244689</v>
       </c>
       <c r="BG9" t="n">
-        <v>9.44254279602319e-05</v>
+        <v>0.0005896176444366574</v>
       </c>
       <c r="BH9" t="n">
-        <v>8.778814662946388e-05</v>
+        <v>0.0002808005956467241</v>
       </c>
       <c r="BI9" t="n">
-        <v>0.0001705017348285764</v>
+        <v>4.682171493186615e-06</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0002843382826540619</v>
+        <v>0.0003520766622386873</v>
       </c>
       <c r="BK9" t="n">
-        <v>8.041824912652373e-07</v>
+        <v>4.245291347615421e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>3.54965050064493e-05</v>
+        <v>0.000221159280044958</v>
       </c>
       <c r="BM9" t="n">
-        <v>0.0001609726459719241</v>
+        <v>0.0002646750072017312</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.169886218121974e-06</v>
+        <v>0.0002783612872008234</v>
       </c>
       <c r="BO9" t="n">
-        <v>4.887617251370102e-05</v>
+        <v>8.999909914564341e-05</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0002618439611978829</v>
+        <v>0.0001892338768811896</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.217451426782645e-05</v>
+        <v>6.762535485904664e-05</v>
       </c>
       <c r="BR9" t="n">
-        <v>0.0001571827160660177</v>
+        <v>8.010011515580118e-05</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.00011328564141877</v>
+        <v>0.0002448115847073495</v>
       </c>
       <c r="BT9" t="n">
-        <v>0.0001017054528347217</v>
+        <v>1.935546606546268e-06</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.0003451663942541927</v>
+        <v>9.278868674300611e-05</v>
       </c>
       <c r="BV9" t="n">
-        <v>2.272048186569009e-05</v>
+        <v>0.0004878632607869804</v>
       </c>
       <c r="BW9" t="n">
-        <v>5.548894478124566e-05</v>
+        <v>0.0003327725280541927</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0003550007531885058</v>
+        <v>0.0001223956060130149</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0004253480583429337</v>
+        <v>2.974093513330445e-05</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.0001724286703392863</v>
+        <v>1.01091354736127e-05</v>
       </c>
       <c r="CA9" t="n">
-        <v>8.303585491375998e-05</v>
+        <v>0.000240405322983861</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.0001278036215808243</v>
+        <v>3.067929355893284e-05</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.0001446496462449431</v>
+        <v>0.0001466694957343861</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.0002300626510987058</v>
+        <v>2.604468681965955e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>0.0001973716571228579</v>
+        <v>0.0002931218768935651</v>
       </c>
       <c r="CF9" t="n">
-        <v>3.500228558550589e-05</v>
+        <v>0.0002209216327173635</v>
       </c>
       <c r="CG9" t="n">
-        <v>8.796626207185909e-05</v>
+        <v>6.143379141576588e-05</v>
       </c>
       <c r="CH9" t="n">
-        <v>9.676692570792511e-05</v>
+        <v>6.116322765592486e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>6.52639391773846e-06</v>
+        <v>0.0001299337454838678</v>
       </c>
       <c r="CJ9" t="n">
-        <v>6.949293310754001e-05</v>
+        <v>1.638578396523371e-05</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.601674193807412e-05</v>
+        <v>2.127553671016358e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>2.597706588858273e-05</v>
+        <v>0.0001919068745337427</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.293863988394151e-05</v>
+        <v>0.0001722957531455904</v>
       </c>
       <c r="CN9" t="n">
-        <v>3.544881474226713e-05</v>
+        <v>1.7859238141682e-05</v>
       </c>
       <c r="CO9" t="n">
-        <v>3.069371450692415e-05</v>
+        <v>7.633874338353053e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>4.363839252619073e-05</v>
+        <v>0.0004521671507973224</v>
       </c>
       <c r="CQ9" t="n">
-        <v>0.0001333971158601344</v>
+        <v>0.000325998873449862</v>
       </c>
       <c r="CR9" t="n">
-        <v>6.877888517919928e-05</v>
+        <v>7.998375076567754e-05</v>
       </c>
       <c r="CS9" t="n">
-        <v>4.104879917576909e-05</v>
+        <v>0.0003026896738447249</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0001478956110076979</v>
+        <v>4.236546010361053e-05</v>
       </c>
       <c r="CU9" t="n">
-        <v>3.980519250035286e-05</v>
+        <v>7.064070086926222e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>0.0001784739724826068</v>
+        <v>5.990649242448853e-06</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.0001770714152371511</v>
+        <v>0.0002608841750770807</v>
       </c>
       <c r="CX9" t="n">
-        <v>5.833653995068744e-05</v>
+        <v>0.0001956149062607437</v>
       </c>
       <c r="CY9" t="n">
-        <v>5.061511910753325e-05</v>
+        <v>0.0001716073311399668</v>
       </c>
       <c r="CZ9" t="n">
-        <v>7.371790707111359e-05</v>
+        <v>0.0001064395619323477</v>
       </c>
       <c r="DA9" t="n">
-        <v>3.202869038432254e-06</v>
+        <v>0.0001498486672062427</v>
       </c>
       <c r="DB9" t="n">
-        <v>8.482654084218666e-05</v>
+        <v>6.076984573155642e-05</v>
       </c>
       <c r="DC9" t="n">
-        <v>1.682355650700629e-05</v>
+        <v>5.290300396154635e-05</v>
       </c>
       <c r="DD9" t="n">
-        <v>3.849303175229579e-05</v>
+        <v>0.0001594641653355211</v>
       </c>
       <c r="DE9" t="n">
-        <v>7.957320485729724e-05</v>
+        <v>0.0002365819382248446</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0003215066390112042</v>
+        <v>0.0001135752681875601</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0001328077487414703</v>
+        <v>0.000372385693481192</v>
       </c>
       <c r="DH9" t="n">
-        <v>7.024541264399886e-05</v>
+        <v>0.0008267290540970862</v>
       </c>
       <c r="DI9" t="n">
-        <v>7.407836528727785e-05</v>
+        <v>0.0005475540529005229</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0001250275381607935</v>
+        <v>0.0001333089603576809</v>
       </c>
       <c r="DK9" t="n">
-        <v>8.79387698660139e-06</v>
+        <v>0.0001256820105481893</v>
       </c>
       <c r="DL9" t="n">
-        <v>2.165821751987096e-05</v>
+        <v>0.0001904152595670894</v>
       </c>
       <c r="DM9" t="n">
-        <v>7.467625255230814e-05</v>
+        <v>0.0001013453293126076</v>
       </c>
       <c r="DN9" t="n">
-        <v>4.978665674570948e-05</v>
+        <v>4.849714241572656e-05</v>
       </c>
       <c r="DO9" t="n">
-        <v>4.503611489781179e-05</v>
+        <v>9.954523557098582e-05</v>
       </c>
       <c r="DP9" t="n">
-        <v>7.432691199937835e-05</v>
+        <v>0.0001767940848367289</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0.0001003227735054679</v>
+        <v>8.045151480473578e-05</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0002417426730971783</v>
+        <v>9.00438753888011e-05</v>
       </c>
       <c r="DS9" t="n">
-        <v>5.281219273456372e-06</v>
+        <v>6.886946357553825e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>5.596745540970005e-05</v>
+        <v>0.0001135666243499145</v>
       </c>
       <c r="DU9" t="n">
-        <v>2.204291195084807e-05</v>
+        <v>4.360463208286092e-06</v>
       </c>
       <c r="DV9" t="n">
-        <v>5.305454396875575e-05</v>
+        <v>0.0003345553705003113</v>
       </c>
       <c r="DW9" t="n">
-        <v>7.346375787165016e-05</v>
+        <v>0.0001925542019307613</v>
       </c>
       <c r="DX9" t="n">
-        <v>0.0001926714321598411</v>
+        <v>0.0001408574171364307</v>
       </c>
       <c r="DY9" t="n">
-        <v>4.193828499410301e-05</v>
+        <v>0.0003598491020966321</v>
       </c>
       <c r="DZ9" t="n">
-        <v>7.436623855028301e-05</v>
+        <v>2.935437623818871e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>2.336402576474939e-05</v>
+        <v>3.287077561253682e-05</v>
       </c>
       <c r="EB9" t="n">
-        <v>7.86448254075367e-06</v>
+        <v>0.0003166843089275062</v>
       </c>
       <c r="EC9" t="n">
-        <v>1.179535229312023e-05</v>
+        <v>8.528029866283759e-05</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.0003162352368235588</v>
+        <v>2.471273000992369e-05</v>
       </c>
       <c r="EE9" t="n">
-        <v>1.67923735716613e-05</v>
+        <v>1.793795854609925e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>0.0003744011337403208</v>
+        <v>8.041026012506336e-05</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.0003470756928436458</v>
+        <v>0.0002340383070986718</v>
       </c>
       <c r="EH9" t="n">
-        <v>3.123185888398439e-05</v>
+        <v>0.0001198294994537719</v>
       </c>
       <c r="EI9" t="n">
-        <v>0.000185802680789493</v>
+        <v>4.417351374286227e-05</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0.0001166943620773964</v>
+        <v>9.228406270267442e-05</v>
       </c>
       <c r="EK9" t="n">
-        <v>2.99866860586917e-05</v>
+        <v>0.0001084586547221988</v>
       </c>
       <c r="EL9" t="n">
-        <v>7.491763972211629e-05</v>
+        <v>0.0001225051819346845</v>
       </c>
       <c r="EM9" t="n">
-        <v>0.0001795538264559582</v>
+        <v>8.219609298976138e-06</v>
       </c>
       <c r="EN9" t="n">
-        <v>2.025327830779133e-06</v>
+        <v>8.258161687990651e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>6.846512405900285e-05</v>
+        <v>2.404662882327102e-05</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.0002266738010803238</v>
+        <v>1.465003606426762e-05</v>
       </c>
       <c r="EQ9" t="n">
-        <v>4.187283593637403e-06</v>
+        <v>0.0002279765903949738</v>
       </c>
       <c r="ER9" t="n">
-        <v>0.0001023841177811846</v>
+        <v>8.073318895185366e-06</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.0002243900817120448</v>
+        <v>0.0001097971544368193</v>
       </c>
       <c r="ET9" t="n">
-        <v>1.274792521144263e-05</v>
+        <v>9.794379002414644e-05</v>
       </c>
       <c r="EU9" t="n">
-        <v>6.559591565746814e-05</v>
+        <v>4.055554018123075e-05</v>
       </c>
       <c r="EV9" t="n">
-        <v>0.0001995978091144934</v>
+        <v>0.0004453625879250467</v>
       </c>
       <c r="EW9" t="n">
-        <v>6.036441845935769e-05</v>
+        <v>7.639155955985188e-05</v>
       </c>
       <c r="EX9" t="n">
-        <v>0.0001806333748390898</v>
+        <v>2.398557626293041e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>0.0001592006592545658</v>
+        <v>0.0002457978844176978</v>
       </c>
       <c r="EZ9" t="n">
-        <v>5.250880349194631e-05</v>
+        <v>0.0001642513234401122</v>
       </c>
       <c r="FA9" t="n">
-        <v>6.64679246256128e-05</v>
+        <v>0.0001004435544018634</v>
       </c>
       <c r="FB9" t="n">
-        <v>7.771314267301932e-05</v>
+        <v>6.816013774368912e-05</v>
       </c>
       <c r="FC9" t="n">
-        <v>3.450813892413862e-05</v>
+        <v>0.0001293407258344814</v>
       </c>
       <c r="FD9" t="n">
-        <v>8.778165647527203e-05</v>
+        <v>7.059668132569641e-05</v>
       </c>
       <c r="FE9" t="n">
-        <v>5.659442194883013e-06</v>
+        <v>3.698321961564943e-06</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.616389247123152e-05</v>
+        <v>0.0002305599773535505</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.0001366083743050694</v>
+        <v>0.0001638541143620387</v>
       </c>
       <c r="FH9" t="n">
-        <v>8.760267519392073e-05</v>
+        <v>0.0001049728089128621</v>
       </c>
       <c r="FI9" t="n">
-        <v>7.514403114328161e-05</v>
+        <v>0.000340104685164988</v>
       </c>
       <c r="FJ9" t="n">
-        <v>4.73922373203095e-05</v>
+        <v>0.0003186904650647193</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.0002257098094560206</v>
+        <v>2.761498399195261e-05</v>
       </c>
       <c r="FL9" t="n">
-        <v>2.559836502769031e-05</v>
+        <v>0.0002443192643113434</v>
       </c>
       <c r="FM9" t="n">
-        <v>3.970193574787118e-06</v>
+        <v>0.0001142751279985532</v>
       </c>
       <c r="FN9" t="n">
-        <v>5.622574826702476e-05</v>
+        <v>0.0003886179765686393</v>
       </c>
       <c r="FO9" t="n">
-        <v>2.90550960926339e-05</v>
+        <v>0.0002465664292685688</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.0001690652425168082</v>
+        <v>1.829729444580153e-05</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0.0003271460882388055</v>
+        <v>9.082623000722378e-05</v>
       </c>
       <c r="FR9" t="n">
-        <v>2.14792580663925e-05</v>
+        <v>0.0001170531468233094</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.0001838786556618288</v>
+        <v>0.000149627318023704</v>
       </c>
       <c r="FT9" t="n">
-        <v>2.035085344687104e-07</v>
+        <v>0.0004604405839927495</v>
       </c>
       <c r="FU9" t="n">
-        <v>9.221240179613233e-05</v>
+        <v>5.471482290886343e-05</v>
       </c>
       <c r="FV9" t="n">
-        <v>9.678079368313774e-05</v>
+        <v>0.0001482782099628821</v>
       </c>
       <c r="FW9" t="n">
-        <v>0.0001630934712011367</v>
+        <v>0.0003256094641983509</v>
       </c>
       <c r="FX9" t="n">
-        <v>1.408673415426165e-05</v>
+        <v>0.0001640051486901939</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.0001674583036219701</v>
+        <v>0.000481984403450042</v>
       </c>
       <c r="FZ9" t="n">
-        <v>9.022360609378666e-05</v>
+        <v>0.0001841447228798643</v>
       </c>
       <c r="GA9" t="n">
-        <v>3.955930515076034e-05</v>
+        <v>1.986224378924817e-05</v>
       </c>
       <c r="GB9" t="n">
-        <v>8.601217996329069e-05</v>
+        <v>7.448482210747898e-05</v>
       </c>
       <c r="GC9" t="n">
-        <v>0.0001517888013040647</v>
+        <v>0.0004234908265061677</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.0001553647161927074</v>
+        <v>0.000213589912164025</v>
       </c>
       <c r="GE9" t="n">
-        <v>0.0001225174055434763</v>
+        <v>0.0005576986586675048</v>
       </c>
       <c r="GF9" t="n">
-        <v>0.000102276899269782</v>
+        <v>4.324636756791733e-05</v>
       </c>
       <c r="GG9" t="n">
-        <v>9.878955097519793e-06</v>
+        <v>0.0001968022988876328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.0009315342176705599</v>
+        <v>3.481365274637938e-05</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0001000854972517118</v>
+        <v>0.01553434040397406</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001093308441340923</v>
+        <v>0.0004273528466001153</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0003075725398957729</v>
+        <v>0.00607116986066103</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0003525287029333413</v>
+        <v>0.003693130798637867</v>
       </c>
       <c r="F10" t="n">
-        <v>2.061437044176273e-05</v>
+        <v>0.01019144244492054</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002629628870636225</v>
+        <v>0.0003842145088128746</v>
       </c>
       <c r="H10" t="n">
-        <v>6.749552267137915e-05</v>
+        <v>0.004018542356789112</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002057277597486973</v>
+        <v>0.002200609771534801</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0008762239012867212</v>
+        <v>0.001836856827139854</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001205958178616129</v>
+        <v>0.01539464853703976</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001206774031743407</v>
+        <v>0.0005876834038645029</v>
       </c>
       <c r="M10" t="n">
-        <v>8.916888327803463e-05</v>
+        <v>0.00462609063833952</v>
       </c>
       <c r="N10" t="n">
-        <v>2.099742414429784e-05</v>
+        <v>0.0009553561685606837</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0001082229136954993</v>
+        <v>0.008601617999374866</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0002428628504276276</v>
+        <v>0.0004994400078430772</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.0002454878704156727</v>
+        <v>0.001036125002428889</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0003525921783875674</v>
+        <v>0.002069848356768489</v>
       </c>
       <c r="S10" t="n">
-        <v>8.522270036337432e-06</v>
+        <v>0.0008321593049913645</v>
       </c>
       <c r="T10" t="n">
-        <v>0.000264496193267405</v>
+        <v>0.0009949838276952505</v>
       </c>
       <c r="U10" t="n">
-        <v>5.999158929625992e-06</v>
+        <v>0.0003344097349327058</v>
       </c>
       <c r="V10" t="n">
-        <v>4.590054595610127e-05</v>
+        <v>0.0009101681644096971</v>
       </c>
       <c r="W10" t="n">
-        <v>1.635723310755566e-05</v>
+        <v>0.002083119936287403</v>
       </c>
       <c r="X10" t="n">
-        <v>1.467173387936782e-05</v>
+        <v>0.00107097125146538</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.245712863048539e-05</v>
+        <v>0.0003398765111342072</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0002386530104558915</v>
+        <v>0.00173479353543371</v>
       </c>
       <c r="AA10" t="n">
-        <v>4.464275116333738e-05</v>
+        <v>0.001449538394808769</v>
       </c>
       <c r="AB10" t="n">
-        <v>3.894051405950449e-05</v>
+        <v>0.0009878423297777772</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.443435369059443e-05</v>
+        <v>0.0005076482193544507</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.719968900550157e-05</v>
+        <v>0.0005702865892089903</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.0001923194358823821</v>
+        <v>5.076021625427529e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.375703141093254e-05</v>
+        <v>0.001581199467182159</v>
       </c>
       <c r="AG10" t="n">
-        <v>8.199625153793022e-05</v>
+        <v>0.0009274390758946538</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0001110916491597891</v>
+        <v>0.0004845790099352598</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.0003551551199052483</v>
+        <v>0.001543031889013946</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0003120960027445108</v>
+        <v>2.887338632717729e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0001822670310502872</v>
+        <v>0.001308077480643988</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0001705706818029284</v>
+        <v>0.001830694149248302</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.0001213092618854716</v>
+        <v>0.001484203618019819</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0001867378887254745</v>
+        <v>9.005673928186297e-05</v>
       </c>
       <c r="AO10" t="n">
-        <v>3.027513594133779e-05</v>
+        <v>0.0002309621195308864</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.242689126636833e-05</v>
+        <v>0.001227257773280144</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.568793934187852e-05</v>
+        <v>0.0002983266313094646</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0001129025185946375</v>
+        <v>0.0007172867190092802</v>
       </c>
       <c r="AS10" t="n">
-        <v>9.580538971931674e-06</v>
+        <v>0.0009520353050902486</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0004023100773338228</v>
+        <v>0.001631582155823708</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.895792077761143e-05</v>
+        <v>0.01000133529305458</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.000500174006447196</v>
+        <v>0.001321117859333754</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0002395853953203186</v>
+        <v>0.0004247993638273329</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.862885493319482e-05</v>
+        <v>0.0008819708018563688</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.0003217115590814501</v>
+        <v>0.004731856286525726</v>
       </c>
       <c r="AZ10" t="n">
-        <v>6.946508801775053e-05</v>
+        <v>0.001718937419354916</v>
       </c>
       <c r="BA10" t="n">
-        <v>9.472770034335554e-05</v>
+        <v>0.001125485519878566</v>
       </c>
       <c r="BB10" t="n">
-        <v>1.235250238096341e-05</v>
+        <v>0.001185551518574357</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.0001766256173141301</v>
+        <v>0.0001742715248838067</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.744235098361969e-05</v>
+        <v>0.003844282124191523</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.0003536982112564147</v>
+        <v>0.002349536865949631</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.667877586442046e-05</v>
+        <v>0.0004831818223465234</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.0002443698176648468</v>
+        <v>0.00441645784303546</v>
       </c>
       <c r="BH10" t="n">
-        <v>8.332542347488925e-05</v>
+        <v>0.003586122766137123</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.000193871819647029</v>
+        <v>0.0003764114226214588</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0001383462513331324</v>
+        <v>0.0004432670539245009</v>
       </c>
       <c r="BK10" t="n">
-        <v>8.980708662420511e-05</v>
+        <v>0.001075640087947249</v>
       </c>
       <c r="BL10" t="n">
-        <v>6.497954746009782e-05</v>
+        <v>0.001324971322901547</v>
       </c>
       <c r="BM10" t="n">
-        <v>6.785229197703302e-05</v>
+        <v>0.002751813502982259</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.0002183861215598881</v>
+        <v>0.001123911468312144</v>
       </c>
       <c r="BO10" t="n">
-        <v>2.202750511060003e-05</v>
+        <v>0.0006033631507307291</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0002362850500503555</v>
+        <v>0.001097792061045766</v>
       </c>
       <c r="BQ10" t="n">
-        <v>4.172594344709069e-05</v>
+        <v>0.0008324770024046302</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.313698430749355e-05</v>
+        <v>0.0011703846976161</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0001171313342638314</v>
+        <v>0.0006550935213454068</v>
       </c>
       <c r="BT10" t="n">
-        <v>7.146656571421772e-06</v>
+        <v>3.339082468301058e-07</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.0003312173939775676</v>
+        <v>0.0009700702503323555</v>
       </c>
       <c r="BV10" t="n">
-        <v>4.12554363720119e-05</v>
+        <v>0.005996468011289835</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.0002545344759710133</v>
+        <v>0.0004600344691425562</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0001778981823008507</v>
+        <v>0.0004280615830793977</v>
       </c>
       <c r="BY10" t="n">
-        <v>4.87991637783125e-05</v>
+        <v>0.0001320869487244636</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0001213739305967465</v>
+        <v>0.001975079067051411</v>
       </c>
       <c r="CA10" t="n">
-        <v>3.346516314195469e-05</v>
+        <v>0.0003669284633360803</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.484405402152333e-05</v>
+        <v>0.0001983849506359547</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.0001323185570072383</v>
+        <v>0.001369892619550228</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.00019083809456788</v>
+        <v>7.840123726055026e-05</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.0002069408365059644</v>
+        <v>0.002595968777313828</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.0002251078403787687</v>
+        <v>0.000809486024081707</v>
       </c>
       <c r="CG10" t="n">
-        <v>2.957430660899263e-05</v>
+        <v>0.000950013636611402</v>
       </c>
       <c r="CH10" t="n">
-        <v>3.315093999844976e-05</v>
+        <v>4.902176442556083e-05</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0001006516831694171</v>
+        <v>0.00168975442647934</v>
       </c>
       <c r="CJ10" t="n">
-        <v>4.490403443924151e-05</v>
+        <v>0.001230225898325443</v>
       </c>
       <c r="CK10" t="n">
-        <v>1.81662653631065e-05</v>
+        <v>5.207054346101359e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.209144102176651e-06</v>
+        <v>0.000883755914401263</v>
       </c>
       <c r="CM10" t="n">
-        <v>1.084899122361094e-05</v>
+        <v>0.003230355912819505</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.0002190094237448648</v>
+        <v>0.001784405088983476</v>
       </c>
       <c r="CO10" t="n">
-        <v>2.950768612208776e-05</v>
+        <v>0.0002544628805480897</v>
       </c>
       <c r="CP10" t="n">
-        <v>6.004863826092333e-05</v>
+        <v>0.003938599955290556</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.0001069978316081688</v>
+        <v>0.0007824833737686276</v>
       </c>
       <c r="CR10" t="n">
-        <v>8.160634024534374e-06</v>
+        <v>0.0007572458707727492</v>
       </c>
       <c r="CS10" t="n">
-        <v>2.155460060748737e-05</v>
+        <v>0.003348825266584754</v>
       </c>
       <c r="CT10" t="n">
-        <v>2.129268796124961e-05</v>
+        <v>0.002875766484066844</v>
       </c>
       <c r="CU10" t="n">
-        <v>7.226099842227995e-05</v>
+        <v>0.0001678868575254455</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0001677065447438508</v>
+        <v>5.950311606284231e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.0001774857228156179</v>
+        <v>0.002307607792317867</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.0002430897729936987</v>
+        <v>0.0007838534656912088</v>
       </c>
       <c r="CY10" t="n">
-        <v>2.814697836583946e-06</v>
+        <v>0.001515356474556029</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.0001199098624056205</v>
+        <v>2.150601721950807e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0001020386989694089</v>
+        <v>0.001693304046057165</v>
       </c>
       <c r="DB10" t="n">
-        <v>5.915142537560314e-05</v>
+        <v>0.001065360615029931</v>
       </c>
       <c r="DC10" t="n">
-        <v>5.3737767302664e-06</v>
+        <v>0.0005927807651460171</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.345330019830726e-05</v>
+        <v>0.0005795272882096469</v>
       </c>
       <c r="DE10" t="n">
-        <v>6.297601066762581e-05</v>
+        <v>0.001207198249176145</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0004739015712402761</v>
+        <v>0.003053625812754035</v>
       </c>
       <c r="DG10" t="n">
-        <v>3.730344906216487e-05</v>
+        <v>0.000685756211169064</v>
       </c>
       <c r="DH10" t="n">
-        <v>4.258111584931612e-05</v>
+        <v>0.003918138332664967</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0001563926925882697</v>
+        <v>0.004594241268932819</v>
       </c>
       <c r="DJ10" t="n">
-        <v>6.070698145776987e-05</v>
+        <v>0.003550619818270206</v>
       </c>
       <c r="DK10" t="n">
-        <v>5.229823727859184e-05</v>
+        <v>0.001496934914030135</v>
       </c>
       <c r="DL10" t="n">
-        <v>7.052544242469594e-05</v>
+        <v>0.001532425987534225</v>
       </c>
       <c r="DM10" t="n">
-        <v>7.095563341863453e-05</v>
+        <v>0.003124044742435217</v>
       </c>
       <c r="DN10" t="n">
-        <v>2.568852505646646e-05</v>
+        <v>3.614253364503384e-05</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.000258926214883104</v>
+        <v>0.0003528256202116609</v>
       </c>
       <c r="DP10" t="n">
-        <v>5.650792809319682e-05</v>
+        <v>0.00217953254468739</v>
       </c>
       <c r="DQ10" t="n">
-        <v>7.116090273484588e-06</v>
+        <v>0.0001061904185917228</v>
       </c>
       <c r="DR10" t="n">
-        <v>9.894564755086321e-06</v>
+        <v>0.001849082997068763</v>
       </c>
       <c r="DS10" t="n">
-        <v>2.476001100149006e-05</v>
+        <v>0.002120444551110268</v>
       </c>
       <c r="DT10" t="n">
-        <v>1.404440627084114e-05</v>
+        <v>0.001138623338192701</v>
       </c>
       <c r="DU10" t="n">
-        <v>4.765103221870959e-05</v>
+        <v>4.090504080522805e-05</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.796282958821394e-05</v>
+        <v>0.0001010517298709601</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0001115884952014312</v>
+        <v>0.0004046792455483228</v>
       </c>
       <c r="DX10" t="n">
-        <v>7.443512004101649e-05</v>
+        <v>0.001370430691167712</v>
       </c>
       <c r="DY10" t="n">
-        <v>6.466143531724811e-06</v>
+        <v>3.076449502259493e-05</v>
       </c>
       <c r="DZ10" t="n">
-        <v>4.74065964226611e-05</v>
+        <v>0.001581163727678359</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0001364654308417812</v>
+        <v>0.0008997475379146636</v>
       </c>
       <c r="EB10" t="n">
-        <v>4.378909943625331e-05</v>
+        <v>0.00195467472076416</v>
       </c>
       <c r="EC10" t="n">
-        <v>9.949264494935051e-06</v>
+        <v>0.0006867897463962436</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.0001341740717180073</v>
+        <v>0.001180147053673863</v>
       </c>
       <c r="EE10" t="n">
-        <v>4.357027501100674e-05</v>
+        <v>0.002292841672897339</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0003113177663180977</v>
+        <v>0.0003166559035889804</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.0001091455924324691</v>
+        <v>0.002795713255181909</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.0002388551947660744</v>
+        <v>0.000699686526786536</v>
       </c>
       <c r="EI10" t="n">
-        <v>1.12433599497308e-06</v>
+        <v>0.0004613776109181345</v>
       </c>
       <c r="EJ10" t="n">
-        <v>4.056799662066624e-05</v>
+        <v>0.0002034496574196965</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.0002432466426398605</v>
+        <v>7.40556642995216e-05</v>
       </c>
       <c r="EL10" t="n">
-        <v>2.493668762326706e-05</v>
+        <v>0.001127070165239275</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0001298119459534064</v>
+        <v>0.0008051415788941085</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.0001314147375524044</v>
+        <v>0.000382119498681277</v>
       </c>
       <c r="EO10" t="n">
-        <v>6.939395825611427e-05</v>
+        <v>0.0004713787348009646</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.0001052840234478936</v>
+        <v>0.001536766299977899</v>
       </c>
       <c r="EQ10" t="n">
-        <v>6.261022645048797e-05</v>
+        <v>8.300738409161568e-05</v>
       </c>
       <c r="ER10" t="n">
-        <v>3.302957338746637e-06</v>
+        <v>0.001149981049820781</v>
       </c>
       <c r="ES10" t="n">
-        <v>5.816429984406568e-05</v>
+        <v>0.001148786046542227</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.0001303124008700252</v>
+        <v>0.001680694869719446</v>
       </c>
       <c r="EU10" t="n">
-        <v>7.885882223490626e-05</v>
+        <v>0.001916631357744336</v>
       </c>
       <c r="EV10" t="n">
-        <v>7.012070273049176e-05</v>
+        <v>0.002343041589483619</v>
       </c>
       <c r="EW10" t="n">
-        <v>6.744777056155726e-05</v>
+        <v>0.0001310371444560587</v>
       </c>
       <c r="EX10" t="n">
-        <v>0.0001785670465324074</v>
+        <v>0.0003659366338979453</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.0001570191088831052</v>
+        <v>0.002053272444754839</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.0002392390015302226</v>
+        <v>0.0002738366019912064</v>
       </c>
       <c r="FA10" t="n">
-        <v>1.746379712130874e-05</v>
+        <v>0.0006812938372604549</v>
       </c>
       <c r="FB10" t="n">
-        <v>8.281793270725757e-05</v>
+        <v>0.0002831816091202199</v>
       </c>
       <c r="FC10" t="n">
-        <v>2.854733247659169e-05</v>
+        <v>0.001661864225752652</v>
       </c>
       <c r="FD10" t="n">
-        <v>5.85759335081093e-05</v>
+        <v>0.001663619303144515</v>
       </c>
       <c r="FE10" t="n">
-        <v>3.163769724778831e-05</v>
+        <v>0.0001833059795899317</v>
       </c>
       <c r="FF10" t="n">
-        <v>3.659121284727007e-05</v>
+        <v>0.00115387118421495</v>
       </c>
       <c r="FG10" t="n">
-        <v>7.704833842581138e-05</v>
+        <v>0.0001612035412108526</v>
       </c>
       <c r="FH10" t="n">
-        <v>7.01193930581212e-05</v>
+        <v>0.0002534590312279761</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0002155579131795093</v>
+        <v>0.001045587006956339</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0001351450482616201</v>
+        <v>0.003044967539608479</v>
       </c>
       <c r="FK10" t="n">
-        <v>8.620366861578077e-05</v>
+        <v>0.0002434838825138286</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.0001253901718882844</v>
+        <v>0.001103835529647768</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.329843780695228e-05</v>
+        <v>0.00117933948058635</v>
       </c>
       <c r="FN10" t="n">
-        <v>1.251034518645611e-05</v>
+        <v>0.0001369923702441156</v>
       </c>
       <c r="FO10" t="n">
-        <v>0.0001305336627410725</v>
+        <v>0.0003543998172972351</v>
       </c>
       <c r="FP10" t="n">
-        <v>4.043079388793558e-05</v>
+        <v>0.001662676921114326</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.000551411765627563</v>
+        <v>0.002896954538300633</v>
       </c>
       <c r="FR10" t="n">
-        <v>9.855663665803149e-05</v>
+        <v>0.001240292680449784</v>
       </c>
       <c r="FS10" t="n">
-        <v>4.475985406315885e-05</v>
+        <v>0.0005293364520184696</v>
       </c>
       <c r="FT10" t="n">
-        <v>9.35635034693405e-06</v>
+        <v>0.0004474756133276969</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0001156099751824513</v>
+        <v>0.001031687948852777</v>
       </c>
       <c r="FV10" t="n">
-        <v>2.31506310228724e-05</v>
+        <v>0.001672370359301567</v>
       </c>
       <c r="FW10" t="n">
-        <v>4.150842141825706e-05</v>
+        <v>0.0009903539903461933</v>
       </c>
       <c r="FX10" t="n">
-        <v>2.814579420373775e-05</v>
+        <v>0.0001294342800974846</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0001079457433661446</v>
+        <v>0.002389420056715608</v>
       </c>
       <c r="FZ10" t="n">
-        <v>8.873084880178794e-06</v>
+        <v>0.0006207975093275309</v>
       </c>
       <c r="GA10" t="n">
-        <v>4.701952639152296e-05</v>
+        <v>0.0003364645526744425</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.338936610613018e-06</v>
+        <v>0.0003471832897048444</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0001347466459264979</v>
+        <v>0.0004491369472816586</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0001260988792637363</v>
+        <v>0.0006788399186916649</v>
       </c>
       <c r="GE10" t="n">
-        <v>5.21720721735619e-06</v>
+        <v>0.003183242399245501</v>
       </c>
       <c r="GF10" t="n">
-        <v>4.594443453243002e-05</v>
+        <v>0.0002435478818370029</v>
       </c>
       <c r="GG10" t="n">
-        <v>3.100201502093114e-05</v>
+        <v>0.000611366587691009</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0005341290379874408</v>
+        <v>3.141760680591688e-05</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0002729134575929493</v>
+        <v>0.0001402696070726961</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000100379969808273</v>
+        <v>2.220408714492805e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0002955494855996221</v>
+        <v>9.233866876456887e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>7.287974585779011e-05</v>
+        <v>5.47442541574128e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>8.803229138720781e-05</v>
+        <v>4.283246016711928e-05</v>
       </c>
       <c r="G11" t="n">
-        <v>0.000186784309335053</v>
+        <v>1.567191793583333e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>7.519703558500623e-06</v>
+        <v>7.9886223147696e-07</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001096546911867335</v>
+        <v>8.651661119074561e-06</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0004990635206922889</v>
+        <v>5.364490061765537e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001811822003219277</v>
+        <v>0.0001085830663214438</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001303880417253822</v>
+        <v>1.694758611847647e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0002380162768531591</v>
+        <v>6.12353251199238e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0001266910403501242</v>
+        <v>6.187501276144758e-05</v>
       </c>
       <c r="O11" t="n">
-        <v>5.128168595547322e-06</v>
+        <v>7.761375309200957e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0002212202089140192</v>
+        <v>2.495742046448868e-05</v>
       </c>
       <c r="Q11" t="n">
-        <v>8.329603588208556e-06</v>
+        <v>2.176185444113798e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0001451869175070897</v>
+        <v>2.969078650494339e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>1.418511601514183e-05</v>
+        <v>6.57736472930992e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>4.000743865617551e-05</v>
+        <v>2.809387842717115e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>1.4865738194203e-05</v>
+        <v>1.455120946047828e-05</v>
       </c>
       <c r="V11" t="n">
-        <v>2.038865932263434e-05</v>
+        <v>1.188430542242713e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>3.243393803131767e-05</v>
+        <v>1.99818896362558e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>2.641525497892871e-05</v>
+        <v>1.815379073377699e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.636885099287611e-05</v>
+        <v>2.532550570322201e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>6.160516932141036e-05</v>
+        <v>1.106805120798526e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>5.815309123136103e-06</v>
+        <v>2.669629066076595e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>4.219222319079563e-05</v>
+        <v>8.272456398117356e-06</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.556820593075827e-05</v>
+        <v>1.034841261571273e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>1.596770925971214e-05</v>
+        <v>1.10552455225843e-05</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.372886127792299e-05</v>
+        <v>6.478781415353296e-06</v>
       </c>
       <c r="AF11" t="n">
-        <v>6.769695755792782e-05</v>
+        <v>6.72385431244038e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>2.988646519952454e-05</v>
+        <v>1.269769427381107e-06</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.812101411109325e-05</v>
+        <v>1.926080403791275e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.0001252817601198331</v>
+        <v>4.131297373533016e-06</v>
       </c>
       <c r="AJ11" t="n">
-        <v>6.731213215971366e-05</v>
+        <v>4.789416834682925e-06</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0001093481405405328</v>
+        <v>1.706899820419494e-05</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.0001059037240338512</v>
+        <v>2.245307223347481e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>4.789269587490708e-05</v>
+        <v>8.609630640421528e-06</v>
       </c>
       <c r="AN11" t="n">
-        <v>7.887081301305443e-05</v>
+        <v>1.812334858186659e-06</v>
       </c>
       <c r="AO11" t="n">
-        <v>3.462331733317114e-05</v>
+        <v>5.882128789380658e-06</v>
       </c>
       <c r="AP11" t="n">
-        <v>5.44664726476185e-05</v>
+        <v>1.512795734015526e-06</v>
       </c>
       <c r="AQ11" t="n">
-        <v>4.541097951005213e-06</v>
+        <v>8.544174306734931e-06</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.986377876368351e-05</v>
+        <v>7.670669219805859e-06</v>
       </c>
       <c r="AS11" t="n">
-        <v>3.910524355887901e-06</v>
+        <v>1.727744165691547e-05</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.0002330027200514451</v>
+        <v>9.685528311820235e-06</v>
       </c>
       <c r="AU11" t="n">
-        <v>4.310132499085739e-05</v>
+        <v>9.087173384614289e-05</v>
       </c>
       <c r="AV11" t="n">
-        <v>2.282520654262044e-05</v>
+        <v>2.157612470909953e-07</v>
       </c>
       <c r="AW11" t="n">
-        <v>6.939366721780971e-05</v>
+        <v>2.978446718771011e-05</v>
       </c>
       <c r="AX11" t="n">
-        <v>1.271342080144677e-05</v>
+        <v>1.272352437808877e-05</v>
       </c>
       <c r="AY11" t="n">
-        <v>7.169703167164698e-05</v>
+        <v>2.357777339057066e-05</v>
       </c>
       <c r="AZ11" t="n">
-        <v>4.478989467315841e-06</v>
+        <v>4.97434757562587e-06</v>
       </c>
       <c r="BA11" t="n">
-        <v>6.496089918073267e-05</v>
+        <v>1.347492525383132e-05</v>
       </c>
       <c r="BB11" t="n">
-        <v>6.156304880278185e-05</v>
+        <v>3.138406464131549e-05</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0001380943431286141</v>
+        <v>1.812668233469594e-05</v>
       </c>
       <c r="BD11" t="n">
-        <v>5.725486516894307e-06</v>
+        <v>2.489931284799241e-05</v>
       </c>
       <c r="BE11" t="n">
-        <v>4.291620280127972e-05</v>
+        <v>4.323286702856421e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>4.719106800621375e-05</v>
+        <v>1.402717589371605e-05</v>
       </c>
       <c r="BG11" t="n">
-        <v>2.593572571640834e-05</v>
+        <v>4.636133962776512e-05</v>
       </c>
       <c r="BH11" t="n">
-        <v>1.279088610317558e-05</v>
+        <v>2.032186966971494e-05</v>
       </c>
       <c r="BI11" t="n">
-        <v>9.797704842640087e-05</v>
+        <v>1.714893414828111e-06</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.0001573743938934058</v>
+        <v>2.722714089031797e-05</v>
       </c>
       <c r="BK11" t="n">
-        <v>3.220433427486569e-06</v>
+        <v>8.051060831348877e-06</v>
       </c>
       <c r="BL11" t="n">
-        <v>4.176959919277579e-05</v>
+        <v>1.760316808940843e-05</v>
       </c>
       <c r="BM11" t="n">
-        <v>9.202308137901127e-05</v>
+        <v>2.350486283830833e-05</v>
       </c>
       <c r="BN11" t="n">
-        <v>1.483737469243351e-05</v>
+        <v>2.854416379705071e-05</v>
       </c>
       <c r="BO11" t="n">
-        <v>2.134288479282986e-07</v>
+        <v>1.163760316558182e-05</v>
       </c>
       <c r="BP11" t="n">
-        <v>6.063637920306064e-05</v>
+        <v>8.553932275390252e-06</v>
       </c>
       <c r="BQ11" t="n">
-        <v>2.341499202884734e-05</v>
+        <v>3.30512875734712e-07</v>
       </c>
       <c r="BR11" t="n">
-        <v>5.517639510799199e-05</v>
+        <v>1.124626942328177e-05</v>
       </c>
       <c r="BS11" t="n">
-        <v>9.186973329633474e-06</v>
+        <v>7.845453183108475e-06</v>
       </c>
       <c r="BT11" t="n">
-        <v>1.751381751091685e-05</v>
+        <v>6.494702574855182e-06</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0002058199315797538</v>
+        <v>6.712181857437827e-06</v>
       </c>
       <c r="BV11" t="n">
-        <v>9.590650734025985e-06</v>
+        <v>4.487537444219925e-05</v>
       </c>
       <c r="BW11" t="n">
-        <v>4.438179894350469e-05</v>
+        <v>2.867263901862316e-05</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.0001364507043035701</v>
+        <v>1.589188650541473e-05</v>
       </c>
       <c r="BY11" t="n">
-        <v>4.791986430063844e-05</v>
+        <v>6.90943352310569e-06</v>
       </c>
       <c r="BZ11" t="n">
-        <v>2.520040834497195e-05</v>
+        <v>1.525814468550379e-06</v>
       </c>
       <c r="CA11" t="n">
-        <v>2.680601392057724e-05</v>
+        <v>2.2179741790751e-05</v>
       </c>
       <c r="CB11" t="n">
-        <v>5.145304385223426e-05</v>
+        <v>5.444419457489857e-07</v>
       </c>
       <c r="CC11" t="n">
-        <v>8.157332922564819e-05</v>
+        <v>1.948859244293999e-05</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0001072729501174763</v>
+        <v>2.584756884971284e-06</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.0001267350162379444</v>
+        <v>2.464931094436906e-05</v>
       </c>
       <c r="CF11" t="n">
-        <v>3.409697819733992e-05</v>
+        <v>1.935647560458165e-05</v>
       </c>
       <c r="CG11" t="n">
-        <v>6.480592128355056e-05</v>
+        <v>6.353532171488041e-06</v>
       </c>
       <c r="CH11" t="n">
-        <v>3.395681233087089e-06</v>
+        <v>3.094099383815774e-06</v>
       </c>
       <c r="CI11" t="n">
-        <v>1.73813896253705e-06</v>
+        <v>1.052603874995839e-05</v>
       </c>
       <c r="CJ11" t="n">
-        <v>3.578697942430153e-05</v>
+        <v>3.517107188599766e-06</v>
       </c>
       <c r="CK11" t="n">
-        <v>1.385323048452847e-05</v>
+        <v>3.0089950087131e-06</v>
       </c>
       <c r="CL11" t="n">
-        <v>1.151354126704973e-06</v>
+        <v>1.606298792466987e-05</v>
       </c>
       <c r="CM11" t="n">
-        <v>2.628123911563307e-05</v>
+        <v>2.031571966654155e-05</v>
       </c>
       <c r="CN11" t="n">
-        <v>4.182134944130667e-06</v>
+        <v>6.630485586356372e-06</v>
       </c>
       <c r="CO11" t="n">
-        <v>2.041755215032026e-05</v>
+        <v>3.627935939221061e-06</v>
       </c>
       <c r="CP11" t="n">
-        <v>9.592666174285114e-06</v>
+        <v>3.306487269583158e-05</v>
       </c>
       <c r="CQ11" t="n">
-        <v>8.353706652997062e-05</v>
+        <v>2.309395495103672e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>3.117752930847928e-05</v>
+        <v>9.8178616099176e-06</v>
       </c>
       <c r="CS11" t="n">
-        <v>1.275219074159395e-05</v>
+        <v>2.88849878415931e-05</v>
       </c>
       <c r="CT11" t="n">
-        <v>5.719018372474238e-05</v>
+        <v>3.723534746313817e-06</v>
       </c>
       <c r="CU11" t="n">
-        <v>1.52608427015366e-05</v>
+        <v>3.462070253590355e-06</v>
       </c>
       <c r="CV11" t="n">
-        <v>8.548974437871948e-05</v>
+        <v>1.65438268595608e-06</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.0001264375314349309</v>
+        <v>2.143738856830169e-05</v>
       </c>
       <c r="CX11" t="n">
-        <v>4.744240868603811e-05</v>
+        <v>1.771591996657662e-05</v>
       </c>
       <c r="CY11" t="n">
-        <v>4.503236414166167e-05</v>
+        <v>1.549931766930968e-05</v>
       </c>
       <c r="CZ11" t="n">
-        <v>3.261818710598163e-05</v>
+        <v>7.901182470959611e-06</v>
       </c>
       <c r="DA11" t="n">
-        <v>4.391312415918946e-07</v>
+        <v>1.260267163161188e-05</v>
       </c>
       <c r="DB11" t="n">
-        <v>4.821270340471528e-05</v>
+        <v>6.118656528997235e-06</v>
       </c>
       <c r="DC11" t="n">
-        <v>1.491144757892471e-05</v>
+        <v>5.231451723375358e-06</v>
       </c>
       <c r="DD11" t="n">
-        <v>2.630974222483928e-06</v>
+        <v>1.174515728052938e-05</v>
       </c>
       <c r="DE11" t="n">
-        <v>3.79682728635089e-06</v>
+        <v>2.016041980823502e-05</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.000176529647433199</v>
+        <v>1.066697041096631e-05</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.0001088769640773535</v>
+        <v>2.539642264309805e-05</v>
       </c>
       <c r="DH11" t="n">
-        <v>2.021281397901475e-05</v>
+        <v>6.939200102351606e-05</v>
       </c>
       <c r="DI11" t="n">
-        <v>1.667179276410025e-06</v>
+        <v>3.729185482370667e-05</v>
       </c>
       <c r="DJ11" t="n">
-        <v>9.591698471922427e-05</v>
+        <v>1.255268671229715e-05</v>
       </c>
       <c r="DK11" t="n">
-        <v>2.850115379260387e-05</v>
+        <v>4.085446562385187e-06</v>
       </c>
       <c r="DL11" t="n">
-        <v>8.608782081864774e-06</v>
+        <v>2.139598291250877e-05</v>
       </c>
       <c r="DM11" t="n">
-        <v>2.917274468927644e-05</v>
+        <v>2.187670816056198e-06</v>
       </c>
       <c r="DN11" t="n">
-        <v>1.991568024095614e-05</v>
+        <v>5.216013050812762e-06</v>
       </c>
       <c r="DO11" t="n">
-        <v>8.937212260207161e-05</v>
+        <v>9.903462341753766e-06</v>
       </c>
       <c r="DP11" t="n">
-        <v>5.018761294195428e-05</v>
+        <v>1.94277072296245e-05</v>
       </c>
       <c r="DQ11" t="n">
-        <v>5.768873597844504e-05</v>
+        <v>4.12067538491101e-06</v>
       </c>
       <c r="DR11" t="n">
-        <v>7.037710747681558e-05</v>
+        <v>2.189627139159711e-06</v>
       </c>
       <c r="DS11" t="n">
-        <v>4.492737571126781e-05</v>
+        <v>1.117980332310253e-06</v>
       </c>
       <c r="DT11" t="n">
-        <v>5.4115585044201e-06</v>
+        <v>1.439270249647961e-06</v>
       </c>
       <c r="DU11" t="n">
-        <v>4.895038364338689e-05</v>
+        <v>3.969465524278348e-06</v>
       </c>
       <c r="DV11" t="n">
-        <v>4.973991599399596e-05</v>
+        <v>2.730077903834172e-05</v>
       </c>
       <c r="DW11" t="n">
-        <v>4.252155486028641e-05</v>
+        <v>1.080950096365996e-05</v>
       </c>
       <c r="DX11" t="n">
-        <v>5.038018935010768e-05</v>
+        <v>1.546938074170612e-05</v>
       </c>
       <c r="DY11" t="n">
-        <v>3.861085133394226e-05</v>
+        <v>2.640634556883015e-05</v>
       </c>
       <c r="DZ11" t="n">
-        <v>7.149038538045716e-06</v>
+        <v>1.63940626407566e-06</v>
       </c>
       <c r="EA11" t="n">
-        <v>9.902020246954635e-05</v>
+        <v>1.266354956896976e-05</v>
       </c>
       <c r="EB11" t="n">
-        <v>6.95560765962e-06</v>
+        <v>2.639887861732859e-05</v>
       </c>
       <c r="EC11" t="n">
-        <v>9.161633897747379e-06</v>
+        <v>1.321789659414208e-05</v>
       </c>
       <c r="ED11" t="n">
-        <v>9.468833013670519e-05</v>
+        <v>5.052337655797601e-06</v>
       </c>
       <c r="EE11" t="n">
-        <v>2.873261109925807e-06</v>
+        <v>3.100807134615025e-06</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.0001709413918433711</v>
+        <v>1.177970716526033e-06</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.0001551197201479226</v>
+        <v>1.769581467669923e-05</v>
       </c>
       <c r="EH11" t="n">
-        <v>4.095402982784435e-05</v>
+        <v>1.041665655066026e-05</v>
       </c>
       <c r="EI11" t="n">
-        <v>9.522981417831033e-05</v>
+        <v>4.660469585360261e-06</v>
       </c>
       <c r="EJ11" t="n">
-        <v>1.684684320935048e-06</v>
+        <v>7.710189493081998e-06</v>
       </c>
       <c r="EK11" t="n">
-        <v>1.469984272262082e-05</v>
+        <v>8.315625564137008e-06</v>
       </c>
       <c r="EL11" t="n">
-        <v>8.287873242807109e-06</v>
+        <v>9.916169801726937e-06</v>
       </c>
       <c r="EM11" t="n">
-        <v>4.737234121421352e-05</v>
+        <v>5.569270342675736e-06</v>
       </c>
       <c r="EN11" t="n">
-        <v>1.00374190878938e-05</v>
+        <v>7.174165148171596e-06</v>
       </c>
       <c r="EO11" t="n">
-        <v>2.450936517561786e-05</v>
+        <v>2.126406343450071e-06</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.0001034714368870482</v>
+        <v>2.119696091540391e-06</v>
       </c>
       <c r="EQ11" t="n">
-        <v>1.127134419220965e-05</v>
+        <v>2.252848935313523e-05</v>
       </c>
       <c r="ER11" t="n">
-        <v>3.837209806079045e-05</v>
+        <v>2.012125150940847e-06</v>
       </c>
       <c r="ES11" t="n">
-        <v>4.277351763448678e-05</v>
+        <v>1.546405474073254e-05</v>
       </c>
       <c r="ET11" t="n">
-        <v>2.00685317395255e-05</v>
+        <v>2.243200015072944e-06</v>
       </c>
       <c r="EU11" t="n">
-        <v>4.24028949055355e-05</v>
+        <v>9.422723451280035e-06</v>
       </c>
       <c r="EV11" t="n">
-        <v>1.264396632905118e-05</v>
+        <v>3.82174075639341e-05</v>
       </c>
       <c r="EW11" t="n">
-        <v>4.873385114478879e-05</v>
+        <v>5.010462700738572e-06</v>
       </c>
       <c r="EX11" t="n">
-        <v>9.045194019563496e-05</v>
+        <v>1.66886707120284e-06</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.0001123279143939726</v>
+        <v>2.0277579096728e-05</v>
       </c>
       <c r="EZ11" t="n">
-        <v>4.458122202777304e-05</v>
+        <v>1.512256858404726e-05</v>
       </c>
       <c r="FA11" t="n">
-        <v>5.544279702007771e-05</v>
+        <v>1.063149102265015e-05</v>
       </c>
       <c r="FB11" t="n">
-        <v>1.899043854791671e-05</v>
+        <v>2.649557472977904e-06</v>
       </c>
       <c r="FC11" t="n">
-        <v>2.491463965270668e-05</v>
+        <v>1.03082284113043e-05</v>
       </c>
       <c r="FD11" t="n">
-        <v>3.940349779441021e-05</v>
+        <v>8.349209565494675e-06</v>
       </c>
       <c r="FE11" t="n">
-        <v>2.253454476885963e-05</v>
+        <v>2.005220494538662e-06</v>
       </c>
       <c r="FF11" t="n">
-        <v>9.911151209962554e-06</v>
+        <v>1.774031079548877e-05</v>
       </c>
       <c r="FG11" t="n">
-        <v>7.369690865743905e-05</v>
+        <v>1.07657160697272e-05</v>
       </c>
       <c r="FH11" t="n">
-        <v>4.225892917020246e-05</v>
+        <v>2.640865659486735e-06</v>
       </c>
       <c r="FI11" t="n">
-        <v>5.273368151392788e-05</v>
+        <v>3.043008837266825e-05</v>
       </c>
       <c r="FJ11" t="n">
-        <v>5.23761918884702e-05</v>
+        <v>2.535272142267786e-05</v>
       </c>
       <c r="FK11" t="n">
-        <v>9.879718709271401e-05</v>
+        <v>3.400049536139704e-06</v>
       </c>
       <c r="FL11" t="n">
-        <v>1.486608834966319e-05</v>
+        <v>1.08531257865252e-05</v>
       </c>
       <c r="FM11" t="n">
-        <v>6.158932956168428e-05</v>
+        <v>6.679396392428316e-06</v>
       </c>
       <c r="FN11" t="n">
-        <v>2.069984111585654e-05</v>
+        <v>2.924137334048282e-05</v>
       </c>
       <c r="FO11" t="n">
-        <v>2.612424577819183e-05</v>
+        <v>1.948113276739605e-05</v>
       </c>
       <c r="FP11" t="n">
-        <v>4.897765757050365e-05</v>
+        <v>4.097482815268449e-07</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.0001735106925480068</v>
+        <v>6.282400136115029e-06</v>
       </c>
       <c r="FR11" t="n">
-        <v>3.235038457205519e-05</v>
+        <v>9.612276699044742e-06</v>
       </c>
       <c r="FS11" t="n">
-        <v>2.289384065079503e-05</v>
+        <v>7.646155609108973e-06</v>
       </c>
       <c r="FT11" t="n">
-        <v>2.637032048369292e-05</v>
+        <v>3.657477282104082e-05</v>
       </c>
       <c r="FU11" t="n">
-        <v>6.980045145610347e-05</v>
+        <v>3.538176542861038e-06</v>
       </c>
       <c r="FV11" t="n">
-        <v>5.429255179478787e-05</v>
+        <v>2.568611307651736e-05</v>
       </c>
       <c r="FW11" t="n">
-        <v>3.069271770073101e-08</v>
+        <v>1.629996404517442e-05</v>
       </c>
       <c r="FX11" t="n">
-        <v>1.086304655473214e-05</v>
+        <v>5.297175448504277e-06</v>
       </c>
       <c r="FY11" t="n">
-        <v>7.543280662503093e-05</v>
+        <v>4.257894397596829e-05</v>
       </c>
       <c r="FZ11" t="n">
-        <v>2.12714421650162e-05</v>
+        <v>1.496547702117823e-05</v>
       </c>
       <c r="GA11" t="n">
-        <v>3.510589885991067e-05</v>
+        <v>2.020110969169764e-06</v>
       </c>
       <c r="GB11" t="n">
-        <v>7.223646389320493e-05</v>
+        <v>1.080263427866157e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>2.772256266325712e-05</v>
+        <v>3.388885670574382e-05</v>
       </c>
       <c r="GD11" t="n">
-        <v>1.561704630148597e-05</v>
+        <v>1.58861257659737e-05</v>
       </c>
       <c r="GE11" t="n">
-        <v>4.163381163380109e-05</v>
+        <v>5.500574479810894e-05</v>
       </c>
       <c r="GF11" t="n">
-        <v>1.272716781386407e-05</v>
+        <v>1.073285147867864e-06</v>
       </c>
       <c r="GG11" t="n">
-        <v>1.565541424497496e-06</v>
+        <v>1.295463789574569e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.466736316680908</v>
+        <v>0.05828778445720673</v>
       </c>
       <c r="B12" t="n">
-        <v>0.7403898239135742</v>
+        <v>1.032274723052979</v>
       </c>
       <c r="C12" t="n">
-        <v>2.84340763092041</v>
+        <v>0.07731351256370544</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5029486417770386</v>
+        <v>0.8335562348365784</v>
       </c>
       <c r="E12" t="n">
-        <v>0.789301335811615</v>
+        <v>0.2264892309904099</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9648290276527405</v>
+        <v>1.445080757141113</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2508549988269806</v>
+        <v>0.2562276721000671</v>
       </c>
       <c r="H12" t="n">
-        <v>0.1951299607753754</v>
+        <v>0.5071274042129517</v>
       </c>
       <c r="I12" t="n">
-        <v>1.273985743522644</v>
+        <v>0.2248750627040863</v>
       </c>
       <c r="J12" t="n">
-        <v>1.896413803100586</v>
+        <v>0.03928125649690628</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7242684364318848</v>
+        <v>0.9575725197792053</v>
       </c>
       <c r="L12" t="n">
-        <v>2.797943115234375</v>
+        <v>0.06066367402672768</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1800657212734222</v>
+        <v>0.5583878755569458</v>
       </c>
       <c r="N12" t="n">
-        <v>0.04687613248825073</v>
+        <v>0.1510520577430725</v>
       </c>
       <c r="O12" t="n">
-        <v>0.599926233291626</v>
+        <v>1.001802921295166</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01091824471950531</v>
+        <v>0.3613103926181793</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.1852333247661591</v>
+        <v>0.4989633560180664</v>
       </c>
       <c r="R12" t="n">
-        <v>1.323209881782532</v>
+        <v>0.2721885442733765</v>
       </c>
       <c r="S12" t="n">
-        <v>0.02700567618012428</v>
+        <v>0.03634821623563766</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6195428371429443</v>
+        <v>0.01648294180631638</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002719838172197342</v>
+        <v>0.1785753071308136</v>
       </c>
       <c r="V12" t="n">
-        <v>0.2321159392595291</v>
+        <v>0.462245762348175</v>
       </c>
       <c r="W12" t="n">
-        <v>0.632653534412384</v>
+        <v>0.4759755432605743</v>
       </c>
       <c r="X12" t="n">
-        <v>0.01761813648045063</v>
+        <v>0.04987729340791702</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1327439099550247</v>
+        <v>0.05168990045785904</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.145139142870903</v>
+        <v>0.06205131858587265</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.0324048213660717</v>
+        <v>0.07686521112918854</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.1808636486530304</v>
+        <v>0.04138186946511269</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.3148656487464905</v>
+        <v>0.05848587676882744</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.1127700656652451</v>
+        <v>0.1944673806428909</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.3071981966495514</v>
+        <v>0.1943529844284058</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.05195063352584839</v>
+        <v>0.2567835450172424</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.3836733996868134</v>
+        <v>0.3202367722988129</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.3804158866405487</v>
+        <v>0.1315177083015442</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.198723703622818</v>
+        <v>0.1700911521911621</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.1332872807979584</v>
+        <v>0.2109250873327255</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.554146409034729</v>
+        <v>0.05726976692676544</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.9165495634078979</v>
+        <v>0.005626935511827469</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.3985944390296936</v>
+        <v>0.1872263103723526</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.4891596436500549</v>
+        <v>0.1058280169963837</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.1270789802074432</v>
+        <v>0.1921633183956146</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.3293810486793518</v>
+        <v>0.2140324115753174</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.08948224037885666</v>
+        <v>0.02742433175444603</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.003424234688282013</v>
+        <v>0.2196280509233475</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.1873932033777237</v>
+        <v>0.08301989734172821</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.4476985037326813</v>
+        <v>0.1613644659519196</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.9914597272872925</v>
+        <v>0.5064846277236938</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.846066236495972</v>
+        <v>0.093146912753582</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.07794375717639923</v>
+        <v>0.4294924139976501</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.3415537476539612</v>
+        <v>0.6266686320304871</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.467414379119873</v>
+        <v>0.9114980697631836</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.7073358297348022</v>
+        <v>0.1274397820234299</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.4941660761833191</v>
+        <v>0.01561275869607925</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.6608189344406128</v>
+        <v>0.3093899488449097</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.1685065478086472</v>
+        <v>0.07039877772331238</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0857846811413765</v>
+        <v>0.2268911600112915</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.2037942111492157</v>
+        <v>0.01506334915757179</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.2691889107227325</v>
+        <v>0.4179045557975769</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.7230657339096069</v>
+        <v>0.177394837141037</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.5057188868522644</v>
+        <v>0.2840591669082642</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.6003215312957764</v>
+        <v>0.08210490643978119</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.8282413482666016</v>
+        <v>0.07937400043010712</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.02312229573726654</v>
+        <v>0.001391887664794922</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.005434174090623856</v>
+        <v>0.001199524849653244</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.5085965394973755</v>
+        <v>0.205441802740097</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.5796201229095459</v>
+        <v>0.02176786959171295</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.002271726727485657</v>
+        <v>0.3364204168319702</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.791107714176178</v>
+        <v>0.1502502262592316</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.5726567506790161</v>
+        <v>0.06377676874399185</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.5460787415504456</v>
+        <v>0.06664314866065979</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.4817867279052734</v>
+        <v>0.3860396146774292</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.1015550419688225</v>
+        <v>0.4005379676818848</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.8143662214279175</v>
+        <v>0.08584430068731308</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.151502400636673</v>
+        <v>0.4266930818557739</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.757630467414856</v>
+        <v>0.108310654759407</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.06315967440605164</v>
+        <v>0.3012525141239166</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.2080691307783127</v>
+        <v>0.2106797993183136</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.7172753810882568</v>
+        <v>0.4004164040088654</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.2056168466806412</v>
+        <v>0.0239136815071106</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.3359061777591705</v>
+        <v>0.05657587945461273</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.4002693295478821</v>
+        <v>0.1113974526524544</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.3330207467079163</v>
+        <v>0.03190153837203979</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.7674777507781982</v>
+        <v>0.1403239667415619</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.5367486476898193</v>
+        <v>0.01541095227003098</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.08339957147836685</v>
+        <v>0.1334145218133926</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.09581907093524933</v>
+        <v>0.06578663736581802</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.07901133596897125</v>
+        <v>0.2576237618923187</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.069486103951931</v>
+        <v>0.06719452142715454</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.01278852671384811</v>
+        <v>0.1529729813337326</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.2345924079418182</v>
+        <v>0.009522987529635429</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.1235400885343552</v>
+        <v>0.03803488612174988</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.3308545351028442</v>
+        <v>0.08680061995983124</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.442206084728241</v>
+        <v>0.03430730849504471</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.4184293150901794</v>
+        <v>0.2188086807727814</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.3368178606033325</v>
+        <v>0.5643162727355957</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.240684762597084</v>
+        <v>0.09748639166355133</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.2838437259197235</v>
+        <v>0.0147789865732193</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.3790292739868164</v>
+        <v>0.2064262181520462</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.1496603488922119</v>
+        <v>0.2323952615261078</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.301774799823761</v>
+        <v>0.007303124759346247</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.7351741194725037</v>
+        <v>0.1466313302516937</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.4723713397979736</v>
+        <v>0.03612838312983513</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.09198689460754395</v>
+        <v>0.1231118440628052</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.4377350807189941</v>
+        <v>0.1233341544866562</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.1461881697177887</v>
+        <v>0.2987595200538635</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.09809375554323196</v>
+        <v>0.07802796363830566</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.08874690532684326</v>
+        <v>0.2782875299453735</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.2426148056983948</v>
+        <v>0.08335375040769577</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.1448544859886169</v>
+        <v>0.04829713702201843</v>
       </c>
       <c r="DF12" t="n">
-        <v>1.531514644622803</v>
+        <v>0.5859572291374207</v>
       </c>
       <c r="DG12" t="n">
-        <v>1.759458065032959</v>
+        <v>0.1199692264199257</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.1946489810943604</v>
+        <v>0.4941429197788239</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.2850522398948669</v>
+        <v>0.3401657044887543</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.3177441954612732</v>
+        <v>0.3121704161167145</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.334694892168045</v>
+        <v>0.00930553674697876</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.2218529284000397</v>
+        <v>0.3088798224925995</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.0828263908624649</v>
+        <v>0.3331363201141357</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.007407098542898893</v>
+        <v>0.08212700486183167</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.6226141452789307</v>
+        <v>0.001502044498920441</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.03407368063926697</v>
+        <v>0.09078671038150787</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.2140334695577621</v>
+        <v>0.3160783648490906</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.5754497051239014</v>
+        <v>0.1554447859525681</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.6351836919784546</v>
+        <v>0.2475040853023529</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.3145415186882019</v>
+        <v>0.1115934923291206</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.2935630083084106</v>
+        <v>0.09128785878419876</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.3324405550956726</v>
+        <v>0.0374477319419384</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.04529432579874992</v>
+        <v>0.07175754010677338</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0816803053021431</v>
+        <v>0.07800023257732391</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.2622728049755096</v>
+        <v>0.1572427749633789</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.1522363424301147</v>
+        <v>0.1052975654602051</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.5484062433242798</v>
+        <v>0.03475979343056679</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.125366747379303</v>
+        <v>0.04514800012111664</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.3006032109260559</v>
+        <v>0.03363190591335297</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.8185046911239624</v>
+        <v>0.2524112164974213</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.1739287227392197</v>
+        <v>0.157370001077652</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.7603960633277893</v>
+        <v>0.02297697216272354</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.481112152338028</v>
+        <v>0.1065016612410545</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.6596772074699402</v>
+        <v>0.1139813810586929</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.3754623532295227</v>
+        <v>0.2104741036891937</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.1294894218444824</v>
+        <v>0.1369761079549789</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.6915555000305176</v>
+        <v>0.2015834450721741</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.1715324223041534</v>
+        <v>0.01382012665271759</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.4523608982563019</v>
+        <v>0.1761066317558289</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.05283918231725693</v>
+        <v>0.01735077984631062</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.050803542137146</v>
+        <v>0.01720202714204788</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.4403115212917328</v>
+        <v>0.09906590729951859</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.3304152488708496</v>
+        <v>0.1062202677130699</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.1921357214450836</v>
+        <v>0.2048096060752869</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.4665754735469818</v>
+        <v>0.0182754322886467</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.2254095822572708</v>
+        <v>0.1038248687982559</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.5636019706726074</v>
+        <v>0.001500807702541351</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.1288948059082031</v>
+        <v>0.2100051045417786</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.04185706377029419</v>
+        <v>0.117534764111042</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.3874402046203613</v>
+        <v>0.0187930054962635</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.6116976737976074</v>
+        <v>0.1135907992720604</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.5188462734222412</v>
+        <v>0.00466490164399147</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.1035768762230873</v>
+        <v>0.1282444894313812</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.3441547751426697</v>
+        <v>0.06894632428884506</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.02286569029092789</v>
+        <v>0.2341757416725159</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.111422523856163</v>
+        <v>0.08642196655273438</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.09859660267829895</v>
+        <v>0.1987238675355911</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.2671454250812531</v>
+        <v>0.04707863554358482</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.4137622714042664</v>
+        <v>0.01187767460942268</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.09318922460079193</v>
+        <v>0.242865726351738</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.7049212455749512</v>
+        <v>0.1394075006246567</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.6389598846435547</v>
+        <v>0.1267779022455215</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.2240660935640335</v>
+        <v>0.03772581368684769</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.3607081770896912</v>
+        <v>0.1374140530824661</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.6701107621192932</v>
+        <v>0.0720476508140564</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.04803174361586571</v>
+        <v>0.1806319355964661</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.5108093023300171</v>
+        <v>0.1906027048826218</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.3863479793071747</v>
+        <v>0.1337402909994125</v>
       </c>
       <c r="FQ12" t="n">
-        <v>1.29552173614502</v>
+        <v>0.3339680433273315</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.2319086343050003</v>
+        <v>0.3793964982032776</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.8098407983779907</v>
+        <v>0.01697370037436485</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.1781824678182602</v>
+        <v>0.02617448195815086</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.4290054142475128</v>
+        <v>0.04074344411492348</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.130760595202446</v>
+        <v>0.2626897692680359</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.3910149037837982</v>
+        <v>0.0354175940155983</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.337139904499054</v>
+        <v>0.2552717328071594</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.1770309507846832</v>
+        <v>0.02362006902694702</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.4385622441768646</v>
+        <v>0.05950506031513214</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.08536270260810852</v>
+        <v>0.06057345122098923</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.3178234100341797</v>
+        <v>0.09611828625202179</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.09772869944572449</v>
+        <v>0.7391660809516907</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.249600812792778</v>
+        <v>0.09843231737613678</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.01795916631817818</v>
+        <v>0.4068680107593536</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.1170469149947166</v>
+        <v>0.1475949138402939</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.5630592107772827</v>
+        <v>0.03587320446968079</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.2402451932430267</v>
+        <v>0.4620141386985779</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1886384785175323</v>
+        <v>0.06186456233263016</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06494555622339249</v>
+        <v>0.03708164393901825</v>
       </c>
       <c r="D13" t="n">
-        <v>0.01994070783257484</v>
+        <v>0.1586993932723999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02001434937119484</v>
+        <v>0.1976279616355896</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02092030271887779</v>
+        <v>0.4702726304531097</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03223546221852303</v>
+        <v>0.05646360665559769</v>
       </c>
       <c r="H13" t="n">
-        <v>0.05046328157186508</v>
+        <v>0.1816825419664383</v>
       </c>
       <c r="I13" t="n">
-        <v>0.337937980890274</v>
+        <v>0.01857221685349941</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1251058429479599</v>
+        <v>0.4025181531906128</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1160869300365448</v>
+        <v>0.05786646157503128</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1027768403291702</v>
+        <v>0.007887200452387333</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01249929424375296</v>
+        <v>0.02210341766476631</v>
       </c>
       <c r="N13" t="n">
-        <v>0.03495445847511292</v>
+        <v>0.2301007807254791</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09560087323188782</v>
+        <v>0.3820555508136749</v>
       </c>
       <c r="P13" t="n">
-        <v>0.08590590208768845</v>
+        <v>0.08571562170982361</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.1283686906099319</v>
+        <v>0.1368269175291061</v>
       </c>
       <c r="R13" t="n">
-        <v>0.3227962851524353</v>
+        <v>0.03707582131028175</v>
       </c>
       <c r="S13" t="n">
-        <v>0.01055099535733461</v>
+        <v>0.03180879727005959</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00418536365032196</v>
+        <v>0.1361236125230789</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004243963398039341</v>
+        <v>0.02118083089590073</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07214786857366562</v>
+        <v>0.144364133477211</v>
       </c>
       <c r="W13" t="n">
-        <v>0.08247078955173492</v>
+        <v>0.1769948750734329</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01125223748385906</v>
+        <v>0.1056993901729584</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.01281601097434759</v>
+        <v>0.1005979031324387</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.06204446405172348</v>
+        <v>0.07543205469846725</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05287538841366768</v>
+        <v>0.06150265038013458</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1113444194197655</v>
+        <v>0.01913935877382755</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.02989024296402931</v>
+        <v>0.03838637471199036</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.06619692593812943</v>
+        <v>0.07509028911590576</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0404362827539444</v>
+        <v>0.04862024262547493</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.00338824512436986</v>
+        <v>0.06342068314552307</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.03478199243545532</v>
+        <v>0.01762874610722065</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.06540524959564209</v>
+        <v>0.03099272027611732</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1148363351821899</v>
+        <v>0.0640050396323204</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.02535431459546089</v>
+        <v>0.02788265608251095</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.02682167291641235</v>
+        <v>0.1025646030902863</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.1355942785739899</v>
+        <v>0.03621301800012589</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.05610450357198715</v>
+        <v>0.05395006388425827</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.05669766291975975</v>
+        <v>0.01685748994350433</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.0257584173232317</v>
+        <v>0.04502630606293678</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1050250232219696</v>
+        <v>0.05667875334620476</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.01420975383371115</v>
+        <v>0.02091974392533302</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.01879548653960228</v>
+        <v>0.08107706159353256</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.002733711153268814</v>
+        <v>0.03832266479730606</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1195860058069229</v>
+        <v>0.3030514121055603</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.2088022530078888</v>
+        <v>0.04352150857448578</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.08281102776527405</v>
+        <v>0.04063612967729568</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.04835964739322662</v>
+        <v>0.1187630295753479</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.004648808389902115</v>
+        <v>0.2163375914096832</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.07193179428577423</v>
+        <v>0.2623383402824402</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.06147092580795288</v>
+        <v>0.03209250792860985</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.02480717748403549</v>
+        <v>0.06953899562358856</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.1615624278783798</v>
+        <v>0.02500230260193348</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.007985107600688934</v>
+        <v>0.06259936094284058</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.05271834880113602</v>
+        <v>0.06897559762001038</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.008277434855699539</v>
+        <v>0.03366526961326599</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.1057110503315926</v>
+        <v>0.1498932838439941</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.03227408975362778</v>
+        <v>0.06816698610782623</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.0422687865793705</v>
+        <v>0.07480014115571976</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.001290160231292248</v>
+        <v>0.07165428996086121</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.03761204332113266</v>
+        <v>0.03908325731754303</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.08055964857339859</v>
+        <v>0.01336616463959217</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.03410415351390839</v>
+        <v>0.01507986895740032</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.03730251640081406</v>
+        <v>0.007466837763786316</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.05915485322475433</v>
+        <v>0.05441693216562271</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.03967032581567764</v>
+        <v>0.06026095896959305</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.008377039805054665</v>
+        <v>0.008119844831526279</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0497099943459034</v>
+        <v>0.05389319360256195</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.06607338786125183</v>
+        <v>0.008067745715379715</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.1356442123651505</v>
+        <v>0.02872718498110771</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.04490187391638756</v>
+        <v>0.07406431436538696</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.01263326779007912</v>
+        <v>0.1199311539530754</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.09647984057664871</v>
+        <v>0.03449849039316177</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.005470471456646919</v>
+        <v>0.06384940445423126</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.03243741393089294</v>
+        <v>0.006330709904432297</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.08498542755842209</v>
+        <v>0.1375896483659744</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.02468374371528625</v>
+        <v>0.1951685398817062</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.1079896241426468</v>
+        <v>0.01812656596302986</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.03617420792579651</v>
+        <v>0.05385740101337433</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.158419206738472</v>
+        <v>0.03415421396493912</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.04305079951882362</v>
+        <v>0.08370736241340637</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.002310942858457565</v>
+        <v>0.1076380535960197</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0462963730096817</v>
+        <v>0.001202032435685396</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.008700139820575714</v>
+        <v>0.03538349643349648</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.00184076139703393</v>
+        <v>0.08307504653930664</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.02025363408029079</v>
+        <v>0.07619424164295197</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.01337771862745285</v>
+        <v>0.00464249961078167</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.01484706252813339</v>
+        <v>0.1168601810932159</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.03956816717982292</v>
+        <v>0.008191738277673721</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.01664045266807079</v>
+        <v>0.01440634857863188</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.09338335692882538</v>
+        <v>0.01224574819207191</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.04851366952061653</v>
+        <v>0.02387152053415775</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.0155214536935091</v>
+        <v>0.07474929094314575</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002454422414302826</v>
+        <v>0.22770956158638</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.01917840354144573</v>
+        <v>0.03350784629583359</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.02543017640709877</v>
+        <v>0.0002895817160606384</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.004455022513866425</v>
+        <v>0.05271048843860626</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.05247072130441666</v>
+        <v>0.04366669431328773</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0508606806397438</v>
+        <v>0.0789584144949913</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.008697932586073875</v>
+        <v>0.0902300700545311</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.02386243082582951</v>
+        <v>0.008094970136880875</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.01214934047311544</v>
+        <v>0.01646277494728565</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.01853381283581257</v>
+        <v>0.07264228910207748</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.01213155686855316</v>
+        <v>0.09106047451496124</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.01415061950683594</v>
+        <v>0.02879450097680092</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0108756460249424</v>
+        <v>0.1102890074253082</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.04537526145577431</v>
+        <v>0.01071169413626194</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.08209922909736633</v>
+        <v>0.07421465218067169</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.002699706703424454</v>
+        <v>0.02590508200228214</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.1801096200942993</v>
+        <v>0.05056918039917946</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.01770586892962456</v>
+        <v>0.1851641833782196</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.03291710466146469</v>
+        <v>0.06733355671167374</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.111138142645359</v>
+        <v>0.03889459744095802</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.02208224311470985</v>
+        <v>0.07345309853553772</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.07534155249595642</v>
+        <v>0.1859031617641449</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.003015924245119095</v>
+        <v>0.09127786755561829</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.035653006285429</v>
+        <v>0.01482219435274601</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.007153857965022326</v>
+        <v>0.007364343851804733</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.09247593581676483</v>
+        <v>0.0364600345492363</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.03276693820953369</v>
+        <v>0.004313305020332336</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0500190332531929</v>
+        <v>0.03892112523317337</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.01683633215725422</v>
+        <v>0.1011761277914047</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.02236721850931644</v>
+        <v>0.06643827259540558</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.02447969280183315</v>
+        <v>0.1215092018246651</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0469006784260273</v>
+        <v>0.002167873550206423</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.01900547742843628</v>
+        <v>0.004777450580149889</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.04388903453946114</v>
+        <v>0.03534052148461342</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.007142884191125631</v>
+        <v>0.005357523448765278</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.01187969744205475</v>
+        <v>0.1441434323787689</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.009154840372502804</v>
+        <v>0.0981767326593399</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.01753876730799675</v>
+        <v>0.129682332277298</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.04188073799014091</v>
+        <v>0.004486341029405594</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.06439344584941864</v>
+        <v>0.01100588217377663</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0337631069123745</v>
+        <v>0.1036668941378593</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.1196018606424332</v>
+        <v>0.06366397440433502</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.0852796882390976</v>
+        <v>0.08694557845592499</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.04900771379470825</v>
+        <v>0.01992702484130859</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.01943278312683105</v>
+        <v>0.01404883898794651</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.02435498125851154</v>
+        <v>0.06750854849815369</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.01829981431365013</v>
+        <v>0.03663577884435654</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.01575212925672531</v>
+        <v>0.004224898293614388</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.03358873352408409</v>
+        <v>0.07217882573604584</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.04997552931308746</v>
+        <v>0.0420006550848484</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.03661713376641273</v>
+        <v>0.06277971714735031</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.02654254622757435</v>
+        <v>0.1049443855881691</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.07226436585187912</v>
+        <v>0.06992676109075546</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.04997026175260544</v>
+        <v>0.03667139634490013</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.01932862959802151</v>
+        <v>0.01297304779291153</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.01602108590304852</v>
+        <v>0.0293758288025856</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.01015063934028149</v>
+        <v>0.1448430716991425</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.02560438401997089</v>
+        <v>0.07182396203279495</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.09050551801919937</v>
+        <v>0.08277338743209839</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.04953005909919739</v>
+        <v>0.07055158913135529</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.001095111016184092</v>
+        <v>0.06993547827005386</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.02157656289637089</v>
+        <v>0.01135544199496508</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.009033359587192535</v>
+        <v>0.007134786807000637</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.004045379348099232</v>
+        <v>0.07099199295043945</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.01805974170565605</v>
+        <v>0.07518377900123596</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.01102506928145885</v>
+        <v>0.002404753118753433</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.02208272181451321</v>
+        <v>0.1252670586109161</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.05780887231230736</v>
+        <v>0.00332585908472538</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.02348795533180237</v>
+        <v>0.04648804664611816</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.03440747410058975</v>
+        <v>0.005879610776901245</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.01785155758261681</v>
+        <v>0.01139554008841515</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.04544313251972198</v>
+        <v>0.1374040395021439</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.03770328685641289</v>
+        <v>0.07734041661024094</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.01971711590886116</v>
+        <v>0.08250366896390915</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.01723578199744225</v>
+        <v>0.06858719140291214</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.05140459537506104</v>
+        <v>0.05528266727924347</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.005093625281006098</v>
+        <v>0.01644735224545002</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.02893121540546417</v>
+        <v>0.1014112308621407</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.1347894668579102</v>
+        <v>0.02872876264154911</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.05736862868070602</v>
+        <v>5.652103573083878e-05</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.001625107601284981</v>
+        <v>0.01425683777779341</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.01777623035013676</v>
+        <v>0.02780087664723396</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.002161356620490551</v>
+        <v>0.05401448905467987</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.001294716726988554</v>
+        <v>0.1333298832178116</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.00966381561011076</v>
+        <v>0.01154249161481857</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.04927870258688927</v>
+        <v>0.07400567829608917</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.08835390955209732</v>
+        <v>0.05602271854877472</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.009777254424989223</v>
+        <v>0.03540061041712761</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.02305914647877216</v>
+        <v>0.01841411553323269</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.1756751835346222</v>
+        <v>0.01319612190127373</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.02094739302992821</v>
+        <v>0.1366993188858032</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.04162929207086563</v>
+        <v>0.001503288745880127</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.05744685605168343</v>
+        <v>0.03222444653511047</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.04307205602526665</v>
+        <v>0.04447659105062485</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.04869641363620758</v>
+        <v>0.00404975563287735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.825711352576036e-06</v>
+        <v>1.771107054082677e-05</v>
       </c>
       <c r="B14" t="n">
-        <v>8.711641385161784e-06</v>
+        <v>6.076517456676811e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>2.072694769594818e-06</v>
+        <v>2.129363338099211e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>2.327018819414661e-06</v>
+        <v>3.023803037649486e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>6.077204943721881e-07</v>
+        <v>8.640044143248815e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>2.975365077872993e-06</v>
+        <v>0.0001048721896950155</v>
       </c>
       <c r="G14" t="n">
-        <v>1.737598176987376e-05</v>
+        <v>1.1281370461802e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>3.016385335286031e-06</v>
+        <v>5.466636139317416e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>1.53250657604076e-05</v>
+        <v>1.851393608376384e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>1.833946043916512e-06</v>
+        <v>2.736589340202045e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>4.680781330534955e-06</v>
+        <v>5.302171484800056e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>7.146553571146796e-07</v>
+        <v>1.201733630296076e-05</v>
       </c>
       <c r="M14" t="n">
-        <v>1.755241328282864e-06</v>
+        <v>4.450226697372273e-06</v>
       </c>
       <c r="N14" t="n">
-        <v>5.845988198416308e-06</v>
+        <v>2.57660576608032e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>6.242029485292733e-06</v>
+        <v>9.070278611034155e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>2.151512308046222e-05</v>
+        <v>1.533807153464295e-05</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.825378035391623e-06</v>
+        <v>3.546204243320972e-05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25439964904217e-05</v>
+        <v>1.233801685884828e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>3.752351858565817e-06</v>
+        <v>6.667824891337659e-06</v>
       </c>
       <c r="T14" t="n">
-        <v>2.532465259719174e-08</v>
+        <v>2.10764028452104e-08</v>
       </c>
       <c r="U14" t="n">
-        <v>9.835399623625563e-07</v>
+        <v>5.92355854678317e-06</v>
       </c>
       <c r="V14" t="n">
-        <v>5.487946737048333e-07</v>
+        <v>3.001589720952325e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>9.179807420878205e-06</v>
+        <v>3.832591391983442e-05</v>
       </c>
       <c r="X14" t="n">
-        <v>2.118206339218887e-07</v>
+        <v>6.312920049822424e-06</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.885957762075122e-06</v>
+        <v>2.420584223727928e-06</v>
       </c>
       <c r="Z14" t="n">
-        <v>8.036290637392085e-06</v>
+        <v>3.392550752323586e-06</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.56596104009077e-06</v>
+        <v>5.150286597199738e-06</v>
       </c>
       <c r="AB14" t="n">
-        <v>1.850624357757624e-06</v>
+        <v>8.334774975082837e-06</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.426780257446808e-07</v>
+        <v>7.450399607478175e-06</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.975334599701455e-06</v>
+        <v>4.955912118020933e-06</v>
       </c>
       <c r="AE14" t="n">
-        <v>9.201527973345947e-06</v>
+        <v>2.553420927142724e-06</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.16907119465759e-06</v>
+        <v>4.596035068971105e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>5.447486728371587e-06</v>
+        <v>8.041912224143744e-06</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.206125474112923e-08</v>
+        <v>3.632397010733257e-06</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.525731136098329e-06</v>
+        <v>1.268573942070361e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3.428979880482075e-06</v>
+        <v>1.239456469193101e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>1.445039401914983e-06</v>
+        <v>1.476034594816156e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>8.319990456584492e-07</v>
+        <v>1.387430984323146e-06</v>
       </c>
       <c r="AM14" t="n">
-        <v>9.902402098305174e-07</v>
+        <v>6.195127298269654e-06</v>
       </c>
       <c r="AN14" t="n">
-        <v>1.010573669191217e-08</v>
+        <v>9.519688319414854e-06</v>
       </c>
       <c r="AO14" t="n">
-        <v>6.873183338029776e-07</v>
+        <v>2.769314733086503e-07</v>
       </c>
       <c r="AP14" t="n">
-        <v>5.544008217839291e-06</v>
+        <v>2.264668000862002e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.769988441286841e-06</v>
+        <v>2.709389264055062e-06</v>
       </c>
       <c r="AR14" t="n">
-        <v>4.31295438829693e-06</v>
+        <v>3.568719421309652e-06</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.023740310301946e-06</v>
+        <v>2.738019588832685e-07</v>
       </c>
       <c r="AT14" t="n">
-        <v>5.435801995190559e-06</v>
+        <v>1.766252535162494e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.380813612035126e-06</v>
+        <v>5.288032843964174e-05</v>
       </c>
       <c r="AV14" t="n">
-        <v>8.400071465075598e-07</v>
+        <v>1.41957207233645e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.102283585576515e-07</v>
+        <v>2.616951860545669e-05</v>
       </c>
       <c r="AX14" t="n">
-        <v>7.009414730418939e-06</v>
+        <v>9.173425496555865e-06</v>
       </c>
       <c r="AY14" t="n">
-        <v>4.966388587490655e-06</v>
+        <v>4.416563751874492e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>4.278389496903401e-06</v>
+        <v>2.279520231240895e-05</v>
       </c>
       <c r="BA14" t="n">
-        <v>9.845582553680288e-07</v>
+        <v>2.116762152581941e-05</v>
       </c>
       <c r="BB14" t="n">
-        <v>1.173845612356672e-05</v>
+        <v>1.248637181561207e-05</v>
       </c>
       <c r="BC14" t="n">
-        <v>1.009326388157206e-05</v>
+        <v>1.195505774376215e-06</v>
       </c>
       <c r="BD14" t="n">
-        <v>6.045566806278657e-06</v>
+        <v>6.856164873170201e-06</v>
       </c>
       <c r="BE14" t="n">
-        <v>2.342092102480819e-06</v>
+        <v>1.11071603896562e-05</v>
       </c>
       <c r="BF14" t="n">
-        <v>4.086902663402725e-06</v>
+        <v>1.405214607075322e-05</v>
       </c>
       <c r="BG14" t="n">
-        <v>9.005143510876223e-06</v>
+        <v>4.774492481374182e-06</v>
       </c>
       <c r="BH14" t="n">
-        <v>1.904419946185953e-06</v>
+        <v>3.854179522022605e-05</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.1305481166346e-05</v>
+        <v>2.945492633443791e-05</v>
       </c>
       <c r="BJ14" t="n">
-        <v>2.037174454017077e-06</v>
+        <v>1.161607087851735e-05</v>
       </c>
       <c r="BK14" t="n">
-        <v>6.998586741246982e-07</v>
+        <v>1.180311119242106e-05</v>
       </c>
       <c r="BL14" t="n">
-        <v>2.921991381299449e-06</v>
+        <v>6.708308319502976e-06</v>
       </c>
       <c r="BM14" t="n">
-        <v>3.953077793994453e-06</v>
+        <v>2.196561217715498e-05</v>
       </c>
       <c r="BN14" t="n">
-        <v>3.442551587795606e-06</v>
+        <v>1.359546695312019e-05</v>
       </c>
       <c r="BO14" t="n">
-        <v>4.933330274070613e-06</v>
+        <v>4.607467872119742e-06</v>
       </c>
       <c r="BP14" t="n">
-        <v>1.166535952279446e-07</v>
+        <v>3.054026365134632e-07</v>
       </c>
       <c r="BQ14" t="n">
-        <v>8.734209586691577e-07</v>
+        <v>4.37366134065087e-06</v>
       </c>
       <c r="BR14" t="n">
-        <v>5.661147042701486e-06</v>
+        <v>1.332838110101875e-06</v>
       </c>
       <c r="BS14" t="n">
-        <v>9.534234095553984e-07</v>
+        <v>1.169597453554161e-06</v>
       </c>
       <c r="BT14" t="n">
-        <v>2.09974291465187e-06</v>
+        <v>2.155640686396509e-06</v>
       </c>
       <c r="BU14" t="n">
-        <v>4.020194865006488e-06</v>
+        <v>3.379409236003994e-06</v>
       </c>
       <c r="BV14" t="n">
-        <v>3.911264059297537e-07</v>
+        <v>2.485011100361589e-05</v>
       </c>
       <c r="BW14" t="n">
-        <v>2.129700760633568e-06</v>
+        <v>5.455708105728263e-06</v>
       </c>
       <c r="BX14" t="n">
-        <v>9.469970905229275e-07</v>
+        <v>2.304596819158178e-05</v>
       </c>
       <c r="BY14" t="n">
-        <v>8.467441148241051e-06</v>
+        <v>1.735862861096393e-05</v>
       </c>
       <c r="BZ14" t="n">
-        <v>8.775709261499287e-07</v>
+        <v>1.611221705388743e-05</v>
       </c>
       <c r="CA14" t="n">
-        <v>2.101339077853481e-06</v>
+        <v>1.544596307212487e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>2.540568630138296e-06</v>
+        <v>8.950921255745925e-06</v>
       </c>
       <c r="CC14" t="n">
-        <v>1.010808773571625e-05</v>
+        <v>1.151682408817578e-05</v>
       </c>
       <c r="CD14" t="n">
-        <v>1.311948835791554e-06</v>
+        <v>8.428300475316064e-07</v>
       </c>
       <c r="CE14" t="n">
-        <v>1.238489346633287e-07</v>
+        <v>7.022000318102073e-06</v>
       </c>
       <c r="CF14" t="n">
-        <v>6.966547516640276e-08</v>
+        <v>1.792643615772249e-06</v>
       </c>
       <c r="CG14" t="n">
-        <v>2.433243025734555e-06</v>
+        <v>9.106526704272255e-06</v>
       </c>
       <c r="CH14" t="n">
-        <v>3.565628503565677e-07</v>
+        <v>2.283353751408868e-06</v>
       </c>
       <c r="CI14" t="n">
-        <v>9.799880444916198e-07</v>
+        <v>1.754410368448589e-05</v>
       </c>
       <c r="CJ14" t="n">
-        <v>2.790498683680198e-06</v>
+        <v>8.044173227972351e-06</v>
       </c>
       <c r="CK14" t="n">
-        <v>3.085042635575519e-06</v>
+        <v>1.216973760165274e-05</v>
       </c>
       <c r="CL14" t="n">
-        <v>1.869095058282255e-06</v>
+        <v>2.340261971767177e-06</v>
       </c>
       <c r="CM14" t="n">
-        <v>4.139923476031981e-06</v>
+        <v>9.717061402625404e-06</v>
       </c>
       <c r="CN14" t="n">
-        <v>4.810799055121606e-06</v>
+        <v>1.311087908106856e-05</v>
       </c>
       <c r="CO14" t="n">
-        <v>3.635662324086297e-06</v>
+        <v>1.196753601107048e-06</v>
       </c>
       <c r="CP14" t="n">
-        <v>4.512555733526824e-07</v>
+        <v>3.870138607453555e-05</v>
       </c>
       <c r="CQ14" t="n">
-        <v>2.109102524627815e-06</v>
+        <v>2.424865670036525e-05</v>
       </c>
       <c r="CR14" t="n">
-        <v>4.064139375259401e-06</v>
+        <v>4.158632236794801e-06</v>
       </c>
       <c r="CS14" t="n">
-        <v>7.472249308193568e-07</v>
+        <v>9.032385605678428e-06</v>
       </c>
       <c r="CT14" t="n">
-        <v>1.770464223227464e-06</v>
+        <v>3.718878360814415e-08</v>
       </c>
       <c r="CU14" t="n">
-        <v>2.094843694067094e-06</v>
+        <v>1.489019177824957e-05</v>
       </c>
       <c r="CV14" t="n">
-        <v>2.435293026792351e-06</v>
+        <v>6.255378366404329e-07</v>
       </c>
       <c r="CW14" t="n">
-        <v>1.003581701297662e-06</v>
+        <v>9.418137778993696e-06</v>
       </c>
       <c r="CX14" t="n">
-        <v>6.00439932441077e-07</v>
+        <v>4.625117981049698e-06</v>
       </c>
       <c r="CY14" t="n">
-        <v>2.878581199183827e-06</v>
+        <v>6.129218490968924e-06</v>
       </c>
       <c r="CZ14" t="n">
-        <v>9.718752380649676e-07</v>
+        <v>2.4679059151822e-07</v>
       </c>
       <c r="DA14" t="n">
-        <v>1.985166363738244e-06</v>
+        <v>2.388997017988004e-05</v>
       </c>
       <c r="DB14" t="n">
-        <v>2.793937710521277e-06</v>
+        <v>7.296985131688416e-06</v>
       </c>
       <c r="DC14" t="n">
-        <v>3.781307896133512e-06</v>
+        <v>1.433711531717563e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>1.576969566485786e-06</v>
+        <v>5.803132808068767e-06</v>
       </c>
       <c r="DE14" t="n">
-        <v>5.578265700023621e-06</v>
+        <v>4.201602678222116e-06</v>
       </c>
       <c r="DF14" t="n">
-        <v>7.258221330630477e-07</v>
+        <v>3.112408012384549e-05</v>
       </c>
       <c r="DG14" t="n">
-        <v>1.135458660428412e-08</v>
+        <v>5.068689006293425e-07</v>
       </c>
       <c r="DH14" t="n">
-        <v>9.495861377217807e-06</v>
+        <v>4.13337183999829e-05</v>
       </c>
       <c r="DI14" t="n">
-        <v>6.694918283756124e-06</v>
+        <v>6.443528400268406e-05</v>
       </c>
       <c r="DJ14" t="n">
-        <v>7.531197297794279e-06</v>
+        <v>5.239512393018231e-05</v>
       </c>
       <c r="DK14" t="n">
-        <v>5.138065262144664e-07</v>
+        <v>2.6047073333757e-06</v>
       </c>
       <c r="DL14" t="n">
-        <v>2.714139327508747e-06</v>
+        <v>1.8805911167874e-05</v>
       </c>
       <c r="DM14" t="n">
-        <v>7.721807833149796e-07</v>
+        <v>1.365244497719686e-05</v>
       </c>
       <c r="DN14" t="n">
-        <v>1.128002395489602e-06</v>
+        <v>1.906846591737121e-07</v>
       </c>
       <c r="DO14" t="n">
-        <v>1.139814003181527e-06</v>
+        <v>4.902184628008399e-06</v>
       </c>
       <c r="DP14" t="n">
-        <v>1.39050700909138e-06</v>
+        <v>5.269617304293206e-06</v>
       </c>
       <c r="DQ14" t="n">
-        <v>2.102648068103008e-06</v>
+        <v>9.37098593567498e-06</v>
       </c>
       <c r="DR14" t="n">
-        <v>4.940508915751707e-06</v>
+        <v>2.647159817570355e-05</v>
       </c>
       <c r="DS14" t="n">
-        <v>3.618464688770473e-06</v>
+        <v>4.861857632931788e-06</v>
       </c>
       <c r="DT14" t="n">
-        <v>3.626661509770202e-06</v>
+        <v>2.742366632446647e-05</v>
       </c>
       <c r="DU14" t="n">
-        <v>4.307277777115814e-06</v>
+        <v>4.066863766638562e-06</v>
       </c>
       <c r="DV14" t="n">
-        <v>8.662677828397136e-06</v>
+        <v>2.19520770770032e-05</v>
       </c>
       <c r="DW14" t="n">
-        <v>1.28802093968261e-06</v>
+        <v>6.901721462782007e-06</v>
       </c>
       <c r="DX14" t="n">
-        <v>1.002907083602622e-06</v>
+        <v>4.830118541576667e-06</v>
       </c>
       <c r="DY14" t="n">
-        <v>1.896581579785561e-06</v>
+        <v>1.511477785243187e-05</v>
       </c>
       <c r="DZ14" t="n">
-        <v>2.594440729808412e-06</v>
+        <v>2.661706275830511e-06</v>
       </c>
       <c r="EA14" t="n">
-        <v>5.585872031588224e-08</v>
+        <v>1.384567076456733e-05</v>
       </c>
       <c r="EB14" t="n">
-        <v>1.225329356202565e-06</v>
+        <v>6.599413609365001e-06</v>
       </c>
       <c r="EC14" t="n">
-        <v>3.723465056282294e-07</v>
+        <v>5.165865786693757e-06</v>
       </c>
       <c r="ED14" t="n">
-        <v>1.936505782396125e-07</v>
+        <v>9.419429261470214e-06</v>
       </c>
       <c r="EE14" t="n">
-        <v>3.967660177295329e-06</v>
+        <v>3.908277903974522e-06</v>
       </c>
       <c r="EF14" t="n">
-        <v>3.845801529678283e-06</v>
+        <v>3.37860956278746e-06</v>
       </c>
       <c r="EG14" t="n">
-        <v>1.842103529270389e-06</v>
+        <v>7.165378065110417e-06</v>
       </c>
       <c r="EH14" t="n">
-        <v>3.299141553725349e-06</v>
+        <v>6.644895165663911e-06</v>
       </c>
       <c r="EI14" t="n">
-        <v>1.400911514792824e-06</v>
+        <v>6.484712685050908e-06</v>
       </c>
       <c r="EJ14" t="n">
-        <v>1.098332290894177e-06</v>
+        <v>1.678145963524003e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>1.945377334777731e-06</v>
+        <v>3.292931432952173e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>2.642203526193043e-06</v>
+        <v>1.944279802046367e-06</v>
       </c>
       <c r="EM14" t="n">
-        <v>1.140453832704225e-06</v>
+        <v>6.090964234317653e-06</v>
       </c>
       <c r="EN14" t="n">
-        <v>2.448832219670294e-06</v>
+        <v>3.525378815538716e-06</v>
       </c>
       <c r="EO14" t="n">
-        <v>5.765946866631566e-07</v>
+        <v>8.153254498211027e-07</v>
       </c>
       <c r="EP14" t="n">
-        <v>7.307763212338614e-07</v>
+        <v>2.101075779137318e-06</v>
       </c>
       <c r="EQ14" t="n">
-        <v>2.33060404752905e-06</v>
+        <v>6.337138529488584e-06</v>
       </c>
       <c r="ER14" t="n">
-        <v>8.595029612479266e-06</v>
+        <v>6.108290108386427e-06</v>
       </c>
       <c r="ES14" t="n">
-        <v>1.202425210067304e-06</v>
+        <v>3.271200057497481e-06</v>
       </c>
       <c r="ET14" t="n">
-        <v>1.543250164104393e-06</v>
+        <v>4.905706191493664e-06</v>
       </c>
       <c r="EU14" t="n">
-        <v>3.708961457959958e-06</v>
+        <v>1.163181150332093e-05</v>
       </c>
       <c r="EV14" t="n">
-        <v>1.704760961729335e-06</v>
+        <v>2.279034197272267e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>2.959456196549581e-06</v>
+        <v>1.925160722748842e-05</v>
       </c>
       <c r="EX14" t="n">
-        <v>1.788734152796678e-06</v>
+        <v>2.900721938203787e-07</v>
       </c>
       <c r="EY14" t="n">
-        <v>2.23135043597722e-06</v>
+        <v>5.337989477993688e-06</v>
       </c>
       <c r="EZ14" t="n">
-        <v>5.532078830583487e-07</v>
+        <v>4.575978891807608e-06</v>
       </c>
       <c r="FA14" t="n">
-        <v>2.647207793415873e-06</v>
+        <v>8.671717296238057e-06</v>
       </c>
       <c r="FB14" t="n">
-        <v>5.163884111425432e-07</v>
+        <v>2.326476760572405e-06</v>
       </c>
       <c r="FC14" t="n">
-        <v>1.466805770178325e-06</v>
+        <v>1.94402728084242e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>3.472120397418621e-06</v>
+        <v>4.518336936598644e-06</v>
       </c>
       <c r="FE14" t="n">
-        <v>1.253765162800846e-06</v>
+        <v>1.10491937448387e-05</v>
       </c>
       <c r="FF14" t="n">
-        <v>2.165774503737339e-06</v>
+        <v>6.903306257299846e-06</v>
       </c>
       <c r="FG14" t="n">
-        <v>4.873076704825507e-06</v>
+        <v>3.19759601552505e-06</v>
       </c>
       <c r="FH14" t="n">
-        <v>5.978335138934199e-06</v>
+        <v>1.391923797200434e-05</v>
       </c>
       <c r="FI14" t="n">
-        <v>2.229657184216194e-06</v>
+        <v>1.508104560343781e-05</v>
       </c>
       <c r="FJ14" t="n">
-        <v>2.004658654186642e-06</v>
+        <v>8.322919711645227e-06</v>
       </c>
       <c r="FK14" t="n">
-        <v>1.829173015721608e-06</v>
+        <v>1.248357239092002e-05</v>
       </c>
       <c r="FL14" t="n">
-        <v>3.582283397918218e-06</v>
+        <v>9.934092304320075e-06</v>
       </c>
       <c r="FM14" t="n">
-        <v>4.236603672325145e-07</v>
+        <v>7.360018571489491e-06</v>
       </c>
       <c r="FN14" t="n">
-        <v>7.635989277332556e-06</v>
+        <v>9.006499567476567e-06</v>
       </c>
       <c r="FO14" t="n">
-        <v>4.736019491247134e-06</v>
+        <v>8.146863365254831e-06</v>
       </c>
       <c r="FP14" t="n">
-        <v>3.672857474157354e-06</v>
+        <v>6.505769761133706e-06</v>
       </c>
       <c r="FQ14" t="n">
-        <v>5.190432602830697e-06</v>
+        <v>1.580403841217048e-05</v>
       </c>
       <c r="FR14" t="n">
-        <v>1.364211584586883e-06</v>
+        <v>2.03833533305442e-05</v>
       </c>
       <c r="FS14" t="n">
-        <v>7.30556439521024e-06</v>
+        <v>2.167720595025457e-06</v>
       </c>
       <c r="FT14" t="n">
-        <v>4.551444362732582e-06</v>
+        <v>5.710825462301727e-06</v>
       </c>
       <c r="FU14" t="n">
-        <v>3.878564029946574e-07</v>
+        <v>1.054224230756517e-05</v>
       </c>
       <c r="FV14" t="n">
-        <v>5.991955276840599e-06</v>
+        <v>7.475686743418919e-06</v>
       </c>
       <c r="FW14" t="n">
-        <v>8.427079592365772e-06</v>
+        <v>3.021164957317524e-05</v>
       </c>
       <c r="FX14" t="n">
-        <v>8.531965249858331e-06</v>
+        <v>6.119006684457418e-06</v>
       </c>
       <c r="FY14" t="n">
-        <v>2.051358478638576e-07</v>
+        <v>3.615905825427035e-06</v>
       </c>
       <c r="FZ14" t="n">
-        <v>2.989984750456642e-06</v>
+        <v>3.711669705808163e-06</v>
       </c>
       <c r="GA14" t="n">
-        <v>1.392086460327846e-06</v>
+        <v>1.218612851516809e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>7.8434140959871e-06</v>
+        <v>8.68239931151038e-06</v>
       </c>
       <c r="GC14" t="n">
-        <v>5.619187049887842e-06</v>
+        <v>3.727625880856067e-05</v>
       </c>
       <c r="GD14" t="n">
-        <v>6.836102670604305e-07</v>
+        <v>1.168606104329228e-05</v>
       </c>
       <c r="GE14" t="n">
-        <v>5.015686838305555e-06</v>
+        <v>1.6867012163857e-05</v>
       </c>
       <c r="GF14" t="n">
-        <v>3.856717739836313e-06</v>
+        <v>4.121538040635642e-06</v>
       </c>
       <c r="GG14" t="n">
-        <v>5.136379513714928e-06</v>
+        <v>1.993136902456172e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.4356948669666e-12</v>
+        <v>0.003685906995087862</v>
       </c>
       <c r="B15" t="n">
-        <v>2.930771944575916e-12</v>
+        <v>0.02656074985861778</v>
       </c>
       <c r="C15" t="n">
-        <v>5.729797192266517e-11</v>
+        <v>0.007725244387984276</v>
       </c>
       <c r="D15" t="n">
-        <v>4.1628263336424e-11</v>
+        <v>0.0004534553736448288</v>
       </c>
       <c r="E15" t="n">
-        <v>2.380201938323445e-11</v>
+        <v>0.01473842281848192</v>
       </c>
       <c r="F15" t="n">
-        <v>1.109843605906491e-10</v>
+        <v>0.00491251889616251</v>
       </c>
       <c r="G15" t="n">
-        <v>3.090033437458395e-12</v>
+        <v>0.006465485319495201</v>
       </c>
       <c r="H15" t="n">
-        <v>5.801473190736317e-11</v>
+        <v>0.006202749907970428</v>
       </c>
       <c r="I15" t="n">
-        <v>1.325875242930152e-10</v>
+        <v>0.0006227793055586517</v>
       </c>
       <c r="J15" t="n">
-        <v>2.460915152213694e-11</v>
+        <v>0.005669586826115847</v>
       </c>
       <c r="K15" t="n">
-        <v>7.782271355116777e-12</v>
+        <v>0.01630185544490814</v>
       </c>
       <c r="L15" t="n">
-        <v>5.694619775731269e-11</v>
+        <v>0.005249870009720325</v>
       </c>
       <c r="M15" t="n">
-        <v>6.321983214707672e-11</v>
+        <v>0.0002391358721069992</v>
       </c>
       <c r="N15" t="n">
-        <v>8.423713115934817e-13</v>
+        <v>0.01582073047757149</v>
       </c>
       <c r="O15" t="n">
-        <v>3.272967313838748e-11</v>
+        <v>0.004452756606042385</v>
       </c>
       <c r="P15" t="n">
-        <v>2.407543608917706e-11</v>
+        <v>0.002598324324935675</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.539903621283756e-12</v>
+        <v>0.001592726446688175</v>
       </c>
       <c r="R15" t="n">
-        <v>8.485509517264234e-11</v>
+        <v>0.001382614718750119</v>
       </c>
       <c r="S15" t="n">
-        <v>2.600450584033798e-11</v>
+        <v>0.001810436835512519</v>
       </c>
       <c r="T15" t="n">
-        <v>1.801080118379872e-12</v>
+        <v>0.007876114919781685</v>
       </c>
       <c r="U15" t="n">
-        <v>1.345094261667734e-11</v>
+        <v>0.001674520783126354</v>
       </c>
       <c r="V15" t="n">
-        <v>1.903927189517152e-11</v>
+        <v>0.006844913586974144</v>
       </c>
       <c r="W15" t="n">
-        <v>1.435753209030888e-12</v>
+        <v>0.002502632094547153</v>
       </c>
       <c r="X15" t="n">
-        <v>2.861560294276089e-11</v>
+        <v>0.003292069304734468</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.285030233945996e-11</v>
+        <v>0.004291582386940718</v>
       </c>
       <c r="Z15" t="n">
-        <v>3.310783591725652e-11</v>
+        <v>0.001707197283394635</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.476172309389234e-11</v>
+        <v>0.0008725424413569272</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.151042802738367e-11</v>
+        <v>0.004705519415438175</v>
       </c>
       <c r="AC15" t="n">
-        <v>5.438262687396112e-11</v>
+        <v>0.01189396157860756</v>
       </c>
       <c r="AD15" t="n">
-        <v>1.618789997881454e-11</v>
+        <v>0.003960129339247942</v>
       </c>
       <c r="AE15" t="n">
-        <v>6.421792958510864e-11</v>
+        <v>0.001218004385009408</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.709428432139504e-11</v>
+        <v>0.002611338393762708</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.382690572622082e-11</v>
+        <v>0.001566614490002394</v>
       </c>
       <c r="AH15" t="n">
-        <v>4.531370764726539e-11</v>
+        <v>0.003892174921929836</v>
       </c>
       <c r="AI15" t="n">
-        <v>1.681352626570209e-11</v>
+        <v>0.005193182732909918</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1.084417972085916e-11</v>
+        <v>0.001146307680755854</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.801704445358876e-11</v>
+        <v>0.002799371723085642</v>
       </c>
       <c r="AL15" t="n">
-        <v>3.848491317293146e-11</v>
+        <v>0.004327026195824146</v>
       </c>
       <c r="AM15" t="n">
-        <v>5.817385635709105e-12</v>
+        <v>0.00250014872290194</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.885378477286316e-11</v>
+        <v>0.007212486118078232</v>
       </c>
       <c r="AO15" t="n">
-        <v>9.847140464147586e-12</v>
+        <v>0.002906354842707515</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.257075346594583e-11</v>
+        <v>0.001991481054574251</v>
       </c>
       <c r="AQ15" t="n">
-        <v>6.602463367699762e-12</v>
+        <v>0.001980176893994212</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.2413158135004e-11</v>
+        <v>0.001139382249675691</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.55119701805706e-11</v>
+        <v>0.00189542374573648</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.682385133983111e-12</v>
+        <v>0.0009771093027666211</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.216532777292834e-11</v>
+        <v>0.02254494465887547</v>
       </c>
       <c r="AV15" t="n">
-        <v>4.59854584966557e-11</v>
+        <v>0.006241960451006889</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.334482425760733e-11</v>
+        <v>0.009239848703145981</v>
       </c>
       <c r="AX15" t="n">
-        <v>6.36261252018322e-11</v>
+        <v>0.003805747255682945</v>
       </c>
       <c r="AY15" t="n">
-        <v>2.557585219997716e-12</v>
+        <v>0.005362299270927906</v>
       </c>
       <c r="AZ15" t="n">
-        <v>5.371839084666874e-11</v>
+        <v>0.006045563146471977</v>
       </c>
       <c r="BA15" t="n">
-        <v>5.905758521107529e-11</v>
+        <v>0.002165562706068158</v>
       </c>
       <c r="BB15" t="n">
-        <v>8.568901838090781e-11</v>
+        <v>0.004215891938656569</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.265111800041741e-11</v>
+        <v>0.0004864868242293596</v>
       </c>
       <c r="BD15" t="n">
-        <v>7.802219807728772e-12</v>
+        <v>0.004906278103590012</v>
       </c>
       <c r="BE15" t="n">
-        <v>1.84595463914583e-11</v>
+        <v>0.0005161179578863084</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.402490536900336e-11</v>
+        <v>0.002733023371547461</v>
       </c>
       <c r="BG15" t="n">
-        <v>6.285174464215615e-11</v>
+        <v>0.01031842082738876</v>
       </c>
       <c r="BH15" t="n">
-        <v>3.324703359841585e-11</v>
+        <v>0.001660592621192336</v>
       </c>
       <c r="BI15" t="n">
-        <v>2.097655729671466e-11</v>
+        <v>0.001047339290380478</v>
       </c>
       <c r="BJ15" t="n">
-        <v>4.089323324407701e-11</v>
+        <v>0.002382329665124416</v>
       </c>
       <c r="BK15" t="n">
-        <v>1.319742926053635e-13</v>
+        <v>0.001573838177137077</v>
       </c>
       <c r="BL15" t="n">
-        <v>2.077209931838908e-11</v>
+        <v>0.0009697008063085377</v>
       </c>
       <c r="BM15" t="n">
-        <v>5.612419383405065e-12</v>
+        <v>0.008509248495101929</v>
       </c>
       <c r="BN15" t="n">
-        <v>3.921547114815738e-12</v>
+        <v>0.001483430969528854</v>
       </c>
       <c r="BO15" t="n">
-        <v>3.790970141970273e-12</v>
+        <v>0.0007808915688656271</v>
       </c>
       <c r="BP15" t="n">
-        <v>2.080783635671768e-11</v>
+        <v>0.007710393983870745</v>
       </c>
       <c r="BQ15" t="n">
-        <v>2.860591277742408e-11</v>
+        <v>0.01292391866445541</v>
       </c>
       <c r="BR15" t="n">
-        <v>1.680090962186132e-11</v>
+        <v>0.002688859356567264</v>
       </c>
       <c r="BS15" t="n">
-        <v>1.644586897220357e-11</v>
+        <v>0.007507032249122858</v>
       </c>
       <c r="BT15" t="n">
-        <v>1.083960698977648e-11</v>
+        <v>0.008905378170311451</v>
       </c>
       <c r="BU15" t="n">
-        <v>1.243814252982478e-11</v>
+        <v>0.002367074135690928</v>
       </c>
       <c r="BV15" t="n">
-        <v>1.539294516503253e-12</v>
+        <v>0.01257972419261932</v>
       </c>
       <c r="BW15" t="n">
-        <v>8.756235320150907e-12</v>
+        <v>0.004981811624020338</v>
       </c>
       <c r="BX15" t="n">
-        <v>5.186964052716903e-11</v>
+        <v>0.001936089247465134</v>
       </c>
       <c r="BY15" t="n">
-        <v>6.690724363433986e-11</v>
+        <v>0.0008454393246211112</v>
       </c>
       <c r="BZ15" t="n">
-        <v>5.153171184039962e-13</v>
+        <v>0.003041826421394944</v>
       </c>
       <c r="CA15" t="n">
-        <v>2.524419909222253e-12</v>
+        <v>0.002793675055727363</v>
       </c>
       <c r="CB15" t="n">
-        <v>5.15417639124216e-11</v>
+        <v>1.539662480354309e-05</v>
       </c>
       <c r="CC15" t="n">
-        <v>5.760216956196551e-11</v>
+        <v>0.0005314710433594882</v>
       </c>
       <c r="CD15" t="n">
-        <v>8.452351665799718e-12</v>
+        <v>0.0001969161094166338</v>
       </c>
       <c r="CE15" t="n">
-        <v>1.0059120203465e-11</v>
+        <v>0.004009077325463295</v>
       </c>
       <c r="CF15" t="n">
-        <v>1.806997433628776e-11</v>
+        <v>0.000368005596101284</v>
       </c>
       <c r="CG15" t="n">
-        <v>3.544278369058129e-12</v>
+        <v>0.002480405615642667</v>
       </c>
       <c r="CH15" t="n">
-        <v>1.122020011623537e-11</v>
+        <v>0.0009961746400222182</v>
       </c>
       <c r="CI15" t="n">
-        <v>6.395307027007302e-12</v>
+        <v>1.908863669086713e-05</v>
       </c>
       <c r="CJ15" t="n">
-        <v>7.523306630452531e-12</v>
+        <v>0.0002756098401732743</v>
       </c>
       <c r="CK15" t="n">
-        <v>1.483788786282858e-11</v>
+        <v>0.0008288294775411487</v>
       </c>
       <c r="CL15" t="n">
-        <v>1.178813990865279e-11</v>
+        <v>0.0004477215989027172</v>
       </c>
       <c r="CM15" t="n">
-        <v>4.42938220823752e-11</v>
+        <v>0.006012678146362305</v>
       </c>
       <c r="CN15" t="n">
-        <v>3.849050418669453e-12</v>
+        <v>0.00760758388787508</v>
       </c>
       <c r="CO15" t="n">
-        <v>2.086811409438005e-12</v>
+        <v>0.003402343485504389</v>
       </c>
       <c r="CP15" t="n">
-        <v>5.63484467419606e-11</v>
+        <v>0.003668498946353793</v>
       </c>
       <c r="CQ15" t="n">
-        <v>3.664643588585648e-11</v>
+        <v>0.01045392174273729</v>
       </c>
       <c r="CR15" t="n">
-        <v>1.663695917142327e-11</v>
+        <v>0.004888030700385571</v>
       </c>
       <c r="CS15" t="n">
-        <v>1.248466954817395e-11</v>
+        <v>0.004702904727309942</v>
       </c>
       <c r="CT15" t="n">
-        <v>1.888030357055648e-11</v>
+        <v>0.0002871054457500577</v>
       </c>
       <c r="CU15" t="n">
-        <v>5.005644336530946e-12</v>
+        <v>0.00554241705685854</v>
       </c>
       <c r="CV15" t="n">
-        <v>9.923515134624417e-12</v>
+        <v>0.0005547740729525685</v>
       </c>
       <c r="CW15" t="n">
-        <v>3.102468369015066e-12</v>
+        <v>0.003077868605032563</v>
       </c>
       <c r="CX15" t="n">
-        <v>8.783232821607534e-12</v>
+        <v>0.00130423391237855</v>
       </c>
       <c r="CY15" t="n">
-        <v>1.010443248170012e-12</v>
+        <v>0.003476632293313742</v>
       </c>
       <c r="CZ15" t="n">
-        <v>1.69224044499483e-11</v>
+        <v>0.0008091205381788313</v>
       </c>
       <c r="DA15" t="n">
-        <v>1.459016241156519e-11</v>
+        <v>0.001542984275147319</v>
       </c>
       <c r="DB15" t="n">
-        <v>4.106888440436052e-12</v>
+        <v>0.0003454693942330778</v>
       </c>
       <c r="DC15" t="n">
-        <v>1.050829128573794e-11</v>
+        <v>0.001035858993418515</v>
       </c>
       <c r="DD15" t="n">
-        <v>2.011778417465582e-11</v>
+        <v>0.001030150684528053</v>
       </c>
       <c r="DE15" t="n">
-        <v>3.375469695421351e-11</v>
+        <v>0.004963444545865059</v>
       </c>
       <c r="DF15" t="n">
-        <v>8.092727876718442e-13</v>
+        <v>0.007833486422896385</v>
       </c>
       <c r="DG15" t="n">
-        <v>3.409330803783028e-11</v>
+        <v>0.004544216208159924</v>
       </c>
       <c r="DH15" t="n">
-        <v>8.244784195643451e-12</v>
+        <v>0.009550740942358971</v>
       </c>
       <c r="DI15" t="n">
-        <v>3.419346750188623e-11</v>
+        <v>0.01072119828313589</v>
       </c>
       <c r="DJ15" t="n">
-        <v>3.722577454623455e-11</v>
+        <v>0.01314006466418505</v>
       </c>
       <c r="DK15" t="n">
-        <v>9.738749737198127e-12</v>
+        <v>0.01079048588871956</v>
       </c>
       <c r="DL15" t="n">
-        <v>2.954649025443956e-11</v>
+        <v>0.003472746349871159</v>
       </c>
       <c r="DM15" t="n">
-        <v>1.891912841667232e-12</v>
+        <v>0.008341545239090919</v>
       </c>
       <c r="DN15" t="n">
-        <v>1.198814138236859e-11</v>
+        <v>0.002227065153419971</v>
       </c>
       <c r="DO15" t="n">
-        <v>1.731090965018112e-11</v>
+        <v>0.003955969586968422</v>
       </c>
       <c r="DP15" t="n">
-        <v>5.002945540483195e-12</v>
+        <v>0.002106131752952933</v>
       </c>
       <c r="DQ15" t="n">
-        <v>7.458442717600544e-12</v>
+        <v>0.005707096308469772</v>
       </c>
       <c r="DR15" t="n">
-        <v>9.180791543661471e-12</v>
+        <v>0.007871371693909168</v>
       </c>
       <c r="DS15" t="n">
-        <v>4.458109922889086e-11</v>
+        <v>0.0003750736941583455</v>
       </c>
       <c r="DT15" t="n">
-        <v>9.578273937882464e-12</v>
+        <v>0.0005159317515790462</v>
       </c>
       <c r="DU15" t="n">
-        <v>3.753733088251998e-11</v>
+        <v>0.003861744655296206</v>
       </c>
       <c r="DV15" t="n">
-        <v>2.762941438139155e-11</v>
+        <v>0.002564519410952926</v>
       </c>
       <c r="DW15" t="n">
-        <v>6.614278135613771e-12</v>
+        <v>0.0002686413645278662</v>
       </c>
       <c r="DX15" t="n">
-        <v>1.180898955011056e-11</v>
+        <v>0.006797668524086475</v>
       </c>
       <c r="DY15" t="n">
-        <v>1.322892229788097e-11</v>
+        <v>0.004080591723322868</v>
       </c>
       <c r="DZ15" t="n">
-        <v>1.536886763686685e-11</v>
+        <v>0.0001132353572756983</v>
       </c>
       <c r="EA15" t="n">
-        <v>1.824856064869262e-11</v>
+        <v>0.003568552434444427</v>
       </c>
       <c r="EB15" t="n">
-        <v>3.318576316524435e-11</v>
+        <v>8.056290971580893e-05</v>
       </c>
       <c r="EC15" t="n">
-        <v>2.024553788504413e-11</v>
+        <v>0.001008617226034403</v>
       </c>
       <c r="ED15" t="n">
-        <v>2.29082829095173e-11</v>
+        <v>0.003171913325786591</v>
       </c>
       <c r="EE15" t="n">
-        <v>3.316364544092565e-12</v>
+        <v>0.004865601193159819</v>
       </c>
       <c r="EF15" t="n">
-        <v>3.072101600887223e-12</v>
+        <v>0.000707610510289669</v>
       </c>
       <c r="EG15" t="n">
-        <v>1.480001364517758e-11</v>
+        <v>0.00345859257504344</v>
       </c>
       <c r="EH15" t="n">
-        <v>2.714186514429784e-11</v>
+        <v>0.0009495051926933229</v>
       </c>
       <c r="EI15" t="n">
-        <v>4.362435759852623e-12</v>
+        <v>0.003941829316318035</v>
       </c>
       <c r="EJ15" t="n">
-        <v>8.196924042302989e-12</v>
+        <v>0.001859334763139486</v>
       </c>
       <c r="EK15" t="n">
-        <v>1.716163496034984e-11</v>
+        <v>0.001380769535899162</v>
       </c>
       <c r="EL15" t="n">
-        <v>2.315380092515751e-12</v>
+        <v>0.000195892178453505</v>
       </c>
       <c r="EM15" t="n">
-        <v>1.035403360272191e-11</v>
+        <v>0.004811919294297695</v>
       </c>
       <c r="EN15" t="n">
-        <v>1.95269894004424e-11</v>
+        <v>0.0004104450054001063</v>
       </c>
       <c r="EO15" t="n">
-        <v>1.440301003463595e-12</v>
+        <v>0.00280852010473609</v>
       </c>
       <c r="EP15" t="n">
-        <v>1.8865606993268e-11</v>
+        <v>0.003484925488010049</v>
       </c>
       <c r="EQ15" t="n">
-        <v>1.085696983704754e-11</v>
+        <v>0.003078676061704755</v>
       </c>
       <c r="ER15" t="n">
-        <v>1.28070713756312e-11</v>
+        <v>0.007713446393609047</v>
       </c>
       <c r="ES15" t="n">
-        <v>1.758131661089291e-11</v>
+        <v>0.004212573170661926</v>
       </c>
       <c r="ET15" t="n">
-        <v>2.888768391162699e-11</v>
+        <v>0.002059287391602993</v>
       </c>
       <c r="EU15" t="n">
-        <v>1.253242128129717e-11</v>
+        <v>0.001197786652483046</v>
       </c>
       <c r="EV15" t="n">
-        <v>2.624466095835221e-11</v>
+        <v>0.003376623382791877</v>
       </c>
       <c r="EW15" t="n">
-        <v>6.604561515743956e-12</v>
+        <v>0.001560511183924973</v>
       </c>
       <c r="EX15" t="n">
-        <v>1.315395882495185e-11</v>
+        <v>9.910308290272951e-05</v>
       </c>
       <c r="EY15" t="n">
-        <v>1.506051533484154e-11</v>
+        <v>0.003850505454465747</v>
       </c>
       <c r="EZ15" t="n">
-        <v>1.310212355276619e-11</v>
+        <v>0.0004292891244404018</v>
       </c>
       <c r="FA15" t="n">
-        <v>1.113214013158392e-12</v>
+        <v>0.002464303513988853</v>
       </c>
       <c r="FB15" t="n">
-        <v>7.748437308441325e-12</v>
+        <v>0.0001061761358869262</v>
       </c>
       <c r="FC15" t="n">
-        <v>1.472841293370664e-11</v>
+        <v>0.002270752796903253</v>
       </c>
       <c r="FD15" t="n">
-        <v>1.206030175900097e-12</v>
+        <v>0.0001704058959148824</v>
       </c>
       <c r="FE15" t="n">
-        <v>1.624163997737682e-11</v>
+        <v>0.001350817852653563</v>
       </c>
       <c r="FF15" t="n">
-        <v>1.454650896265397e-11</v>
+        <v>0.0003617270849645138</v>
       </c>
       <c r="FG15" t="n">
-        <v>1.427187578187383e-12</v>
+        <v>0.001493696589022875</v>
       </c>
       <c r="FH15" t="n">
-        <v>2.884245446643785e-11</v>
+        <v>0.0002760432253126055</v>
       </c>
       <c r="FI15" t="n">
-        <v>8.180448506089899e-12</v>
+        <v>0.00370260258205235</v>
       </c>
       <c r="FJ15" t="n">
-        <v>1.814744882144836e-11</v>
+        <v>0.0058637335896492</v>
       </c>
       <c r="FK15" t="n">
-        <v>2.224522996363554e-11</v>
+        <v>0.004576794803142548</v>
       </c>
       <c r="FL15" t="n">
-        <v>2.780442542871242e-12</v>
+        <v>0.004764541052281857</v>
       </c>
       <c r="FM15" t="n">
-        <v>1.326834302151081e-11</v>
+        <v>0.0008200157899409533</v>
       </c>
       <c r="FN15" t="n">
-        <v>6.863237062004757e-11</v>
+        <v>0.001116851810365915</v>
       </c>
       <c r="FO15" t="n">
-        <v>1.09781992524427e-11</v>
+        <v>0.001067595556378365</v>
       </c>
       <c r="FP15" t="n">
-        <v>1.03227851613874e-11</v>
+        <v>0.002055930206552148</v>
       </c>
       <c r="FQ15" t="n">
-        <v>1.447030342771605e-11</v>
+        <v>0.00358660495840013</v>
       </c>
       <c r="FR15" t="n">
-        <v>1.928487534594292e-12</v>
+        <v>0.0001624039723537862</v>
       </c>
       <c r="FS15" t="n">
-        <v>1.236910157631499e-10</v>
+        <v>0.0032211784273386</v>
       </c>
       <c r="FT15" t="n">
-        <v>2.279949146144489e-11</v>
+        <v>0.001866691396571696</v>
       </c>
       <c r="FU15" t="n">
-        <v>7.410960733977845e-12</v>
+        <v>0.002526269294321537</v>
       </c>
       <c r="FV15" t="n">
-        <v>2.232124901579979e-11</v>
+        <v>0.002818831475451589</v>
       </c>
       <c r="FW15" t="n">
-        <v>1.51039961787669e-11</v>
+        <v>0.001512799877673388</v>
       </c>
       <c r="FX15" t="n">
-        <v>2.752314695597669e-11</v>
+        <v>0.01114427112042904</v>
       </c>
       <c r="FY15" t="n">
-        <v>1.022848125642462e-11</v>
+        <v>0.006531447172164917</v>
       </c>
       <c r="FZ15" t="n">
-        <v>7.435176606340743e-12</v>
+        <v>0.000120462296763435</v>
       </c>
       <c r="GA15" t="n">
-        <v>1.686560613389787e-11</v>
+        <v>0.001957599306479096</v>
       </c>
       <c r="GB15" t="n">
-        <v>5.038558806291782e-11</v>
+        <v>0.006242253351956606</v>
       </c>
       <c r="GC15" t="n">
-        <v>3.124684538891032e-11</v>
+        <v>0.006670425646007061</v>
       </c>
       <c r="GD15" t="n">
-        <v>4.441019427203763e-11</v>
+        <v>0.007586331106722355</v>
       </c>
       <c r="GE15" t="n">
-        <v>1.906959659625507e-11</v>
+        <v>0.005073958542197943</v>
       </c>
       <c r="GF15" t="n">
-        <v>1.657275358613042e-11</v>
+        <v>0.007479419000446796</v>
       </c>
       <c r="GG15" t="n">
-        <v>5.285688900458219e-11</v>
+        <v>0.002397544449195266</v>
       </c>
     </row>
   </sheetData>
